--- a/ATV_Allowance/Templates/TemplatePTTT.xlsx
+++ b/ATV_Allowance/Templates/TemplatePTTT.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\job\ATV-Allowance\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\job\ATV-Allowance\ATV-Allowance\ATV_Allowance\Templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="26">
   <si>
     <t>Đài Phát thanh - Truyền hình An Giang</t>
   </si>
@@ -93,6 +93,9 @@
   </si>
   <si>
     <t>Trưởng phòng</t>
+  </si>
+  <si>
+    <t>THÁNG 12/2018</t>
   </si>
   <si>
     <r>
@@ -119,34 +122,11 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve"> </t>
+      <t/>
     </r>
-    <r>
-      <rPr>
-        <b/>
-        <i/>
-        <sz val="16"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">(CTV) </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="16"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">THÁNG </t>
-    </r>
-  </si>
-  <si>
-    <t>12/2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> (CTV) </t>
   </si>
 </sst>
 </file>
@@ -288,7 +268,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -309,6 +289,11 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -321,11 +306,7 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Currency" xfId="1" builtinId="4"/>
@@ -607,10 +588,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
   <dimension ref="A1:S8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="R10" sqref="R10"/>
+      <selection activeCell="J15" sqref="J15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -626,104 +610,104 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A1" s="12" t="s">
+      <c r="A1" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="12"/>
-      <c r="C1" s="12"/>
-      <c r="D1" s="12"/>
-      <c r="E1" s="12"/>
-      <c r="F1" s="12"/>
-      <c r="G1" s="12"/>
-      <c r="H1" s="12"/>
-      <c r="I1" s="12"/>
-      <c r="J1" s="12"/>
-      <c r="K1" s="12"/>
-      <c r="L1" s="12"/>
-      <c r="M1" s="12"/>
-      <c r="N1" s="12"/>
-      <c r="O1" s="12"/>
-      <c r="P1" s="12"/>
-      <c r="Q1" s="12"/>
-      <c r="R1" s="12"/>
-      <c r="S1" s="12"/>
+      <c r="B1" s="15"/>
+      <c r="C1" s="15"/>
+      <c r="D1" s="15"/>
+      <c r="E1" s="15"/>
+      <c r="F1" s="15"/>
+      <c r="G1" s="15"/>
+      <c r="H1" s="15"/>
+      <c r="I1" s="15"/>
+      <c r="J1" s="15"/>
+      <c r="K1" s="15"/>
+      <c r="L1" s="15"/>
+      <c r="M1" s="15"/>
+      <c r="N1" s="15"/>
+      <c r="O1" s="15"/>
+      <c r="P1" s="15"/>
+      <c r="Q1" s="15"/>
+      <c r="R1" s="15"/>
+      <c r="S1" s="15"/>
     </row>
     <row r="2" spans="1:19" ht="21" x14ac:dyDescent="0.35">
-      <c r="A2" s="15" t="s">
+      <c r="A2" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="B2" s="12"/>
+      <c r="C2" s="12"/>
+      <c r="D2" s="12"/>
+      <c r="E2" s="12"/>
+      <c r="F2" s="12"/>
+      <c r="G2" s="12"/>
+      <c r="H2" s="12"/>
+      <c r="I2" s="12"/>
+      <c r="J2" s="12"/>
+      <c r="K2" s="12"/>
+      <c r="L2" s="17" t="s">
+        <v>25</v>
+      </c>
+      <c r="M2" s="17"/>
+      <c r="N2" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="B2" s="15"/>
-      <c r="C2" s="15"/>
-      <c r="D2" s="15"/>
-      <c r="E2" s="15"/>
-      <c r="F2" s="15"/>
-      <c r="G2" s="15"/>
-      <c r="H2" s="15"/>
-      <c r="I2" s="15"/>
-      <c r="J2" s="15"/>
-      <c r="K2" s="15"/>
-      <c r="L2" s="15"/>
-      <c r="M2" s="15"/>
-      <c r="N2" s="15"/>
-      <c r="O2" s="15"/>
-      <c r="P2" s="15"/>
-      <c r="Q2" s="16" t="s">
-        <v>24</v>
-      </c>
-      <c r="R2" s="14"/>
-      <c r="S2" s="14"/>
+      <c r="P2" s="17"/>
+      <c r="R2" s="10"/>
+      <c r="S2" s="10"/>
     </row>
     <row r="3" spans="1:19" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="11" t="s">
+      <c r="A3" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="11" t="s">
+      <c r="B3" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="11" t="s">
+      <c r="C3" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="D3" s="11" t="s">
+      <c r="D3" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="E3" s="11"/>
-      <c r="F3" s="11" t="s">
+      <c r="E3" s="14"/>
+      <c r="F3" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="G3" s="11"/>
-      <c r="H3" s="11" t="s">
+      <c r="G3" s="14"/>
+      <c r="H3" s="14" t="s">
         <v>6</v>
       </c>
-      <c r="I3" s="11"/>
-      <c r="J3" s="11" t="s">
+      <c r="I3" s="14"/>
+      <c r="J3" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="K3" s="11"/>
-      <c r="L3" s="11" t="s">
+      <c r="K3" s="14"/>
+      <c r="L3" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="M3" s="11"/>
-      <c r="N3" s="11" t="s">
+      <c r="M3" s="14"/>
+      <c r="N3" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="O3" s="11"/>
-      <c r="P3" s="11" t="s">
+      <c r="O3" s="14"/>
+      <c r="P3" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="Q3" s="11" t="s">
+      <c r="Q3" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="R3" s="13" t="s">
+      <c r="R3" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="S3" s="11" t="s">
+      <c r="S3" s="14" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="4" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A4" s="11"/>
-      <c r="B4" s="11"/>
-      <c r="C4" s="11"/>
+      <c r="A4" s="14"/>
+      <c r="B4" s="14"/>
+      <c r="C4" s="14"/>
       <c r="D4" s="3" t="s">
         <v>14</v>
       </c>
@@ -760,17 +744,17 @@
       <c r="O4" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="P4" s="11"/>
-      <c r="Q4" s="11"/>
-      <c r="R4" s="13"/>
-      <c r="S4" s="11"/>
+      <c r="P4" s="14"/>
+      <c r="Q4" s="14"/>
+      <c r="R4" s="16"/>
+      <c r="S4" s="14"/>
     </row>
     <row r="5" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A5" s="4"/>
-      <c r="B5" s="10" t="s">
+      <c r="B5" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="C5" s="10"/>
+      <c r="C5" s="13"/>
       <c r="D5" s="5"/>
       <c r="E5" s="5"/>
       <c r="F5" s="5"/>
@@ -850,7 +834,7 @@
     </row>
   </sheetData>
   <mergeCells count="16">
-    <mergeCell ref="A2:P2"/>
+    <mergeCell ref="A2:K2"/>
     <mergeCell ref="B5:C5"/>
     <mergeCell ref="S3:S4"/>
     <mergeCell ref="A1:S1"/>
@@ -868,6 +852,6 @@
     <mergeCell ref="H3:I3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <pageSetup scale="88" fitToHeight="0" orientation="landscape" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>
--- a/ATV_Allowance/Templates/TemplatePTTT.xlsx
+++ b/ATV_Allowance/Templates/TemplatePTTT.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="27">
   <si>
     <t>Đài Phát thanh - Truyền hình An Giang</t>
   </si>
@@ -127,6 +127,9 @@
   </si>
   <si>
     <t xml:space="preserve"> (CTV) </t>
+  </si>
+  <si>
+    <t>Trừ chỉ tiêu</t>
   </si>
 </sst>
 </file>
@@ -194,7 +197,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="6">
+  <borders count="8">
     <border>
       <left/>
       <right/>
@@ -263,20 +266,43 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -291,22 +317,34 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="41" fontId="2" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Currency" xfId="1" builtinId="4"/>
@@ -591,10 +629,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:S8"/>
+  <dimension ref="A1:T8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J15" sqref="J15"/>
+      <selection activeCell="B5" sqref="B5:C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -602,176 +640,182 @@
     <col min="1" max="1" width="3.7109375" customWidth="1"/>
     <col min="2" max="2" width="27.28515625" customWidth="1"/>
     <col min="3" max="3" width="18.140625" customWidth="1"/>
-    <col min="4" max="15" width="4.28515625" style="1" customWidth="1"/>
-    <col min="16" max="16" width="6.28515625" customWidth="1"/>
-    <col min="17" max="17" width="6.42578125" customWidth="1"/>
-    <col min="18" max="18" width="13.140625" style="2" customWidth="1"/>
-    <col min="19" max="19" width="14.5703125" customWidth="1"/>
+    <col min="4" max="16" width="4.28515625" style="1" customWidth="1"/>
+    <col min="17" max="17" width="6.28515625" customWidth="1"/>
+    <col min="18" max="18" width="6.42578125" customWidth="1"/>
+    <col min="19" max="19" width="13.140625" style="2" customWidth="1"/>
+    <col min="20" max="20" width="14.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A1" s="15" t="s">
+    <row r="1" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A1" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="15"/>
-      <c r="C1" s="15"/>
-      <c r="D1" s="15"/>
-      <c r="E1" s="15"/>
-      <c r="F1" s="15"/>
-      <c r="G1" s="15"/>
-      <c r="H1" s="15"/>
-      <c r="I1" s="15"/>
-      <c r="J1" s="15"/>
-      <c r="K1" s="15"/>
-      <c r="L1" s="15"/>
-      <c r="M1" s="15"/>
-      <c r="N1" s="15"/>
-      <c r="O1" s="15"/>
-      <c r="P1" s="15"/>
-      <c r="Q1" s="15"/>
-      <c r="R1" s="15"/>
-      <c r="S1" s="15"/>
+      <c r="B1" s="14"/>
+      <c r="C1" s="14"/>
+      <c r="D1" s="14"/>
+      <c r="E1" s="14"/>
+      <c r="F1" s="14"/>
+      <c r="G1" s="14"/>
+      <c r="H1" s="14"/>
+      <c r="I1" s="14"/>
+      <c r="J1" s="14"/>
+      <c r="K1" s="14"/>
+      <c r="L1" s="14"/>
+      <c r="M1" s="14"/>
+      <c r="N1" s="14"/>
+      <c r="O1" s="14"/>
+      <c r="P1" s="14"/>
+      <c r="Q1" s="14"/>
+      <c r="R1" s="14"/>
+      <c r="S1" s="14"/>
+      <c r="T1" s="14"/>
     </row>
-    <row r="2" spans="1:19" ht="21" x14ac:dyDescent="0.35">
-      <c r="A2" s="12" t="s">
+    <row r="2" spans="1:20" ht="21" x14ac:dyDescent="0.35">
+      <c r="A2" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="B2" s="12"/>
-      <c r="C2" s="12"/>
-      <c r="D2" s="12"/>
-      <c r="E2" s="12"/>
-      <c r="F2" s="12"/>
-      <c r="G2" s="12"/>
-      <c r="H2" s="12"/>
-      <c r="I2" s="12"/>
-      <c r="J2" s="12"/>
-      <c r="K2" s="12"/>
-      <c r="L2" s="17" t="s">
+      <c r="B2" s="13"/>
+      <c r="C2" s="13"/>
+      <c r="D2" s="13"/>
+      <c r="E2" s="13"/>
+      <c r="F2" s="13"/>
+      <c r="G2" s="13"/>
+      <c r="H2" s="13"/>
+      <c r="I2" s="13"/>
+      <c r="J2" s="13"/>
+      <c r="K2" s="13"/>
+      <c r="L2" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="M2" s="17"/>
-      <c r="N2" s="11" t="s">
+      <c r="M2" s="12"/>
+      <c r="N2" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="P2" s="17"/>
-      <c r="R2" s="10"/>
-      <c r="S2" s="10"/>
+      <c r="Q2" s="12"/>
+      <c r="S2" s="9"/>
+      <c r="T2" s="9"/>
     </row>
-    <row r="3" spans="1:19" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="14" t="s">
+    <row r="3" spans="1:20" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="14" t="s">
+      <c r="B3" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="14" t="s">
+      <c r="C3" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="D3" s="14" t="s">
+      <c r="D3" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="E3" s="14"/>
-      <c r="F3" s="14" t="s">
+      <c r="E3" s="15"/>
+      <c r="F3" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="G3" s="14"/>
-      <c r="H3" s="14" t="s">
+      <c r="G3" s="15"/>
+      <c r="H3" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="I3" s="14"/>
-      <c r="J3" s="14" t="s">
+      <c r="I3" s="15"/>
+      <c r="J3" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="K3" s="14"/>
-      <c r="L3" s="14" t="s">
+      <c r="K3" s="15"/>
+      <c r="L3" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="M3" s="14"/>
-      <c r="N3" s="14" t="s">
+      <c r="M3" s="15"/>
+      <c r="N3" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="O3" s="14"/>
-      <c r="P3" s="14" t="s">
+      <c r="O3" s="15"/>
+      <c r="P3" s="16" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q3" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="Q3" s="14" t="s">
+      <c r="R3" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="R3" s="16" t="s">
+      <c r="S3" s="17" t="s">
         <v>12</v>
       </c>
-      <c r="S3" s="14" t="s">
+      <c r="T3" s="15" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A4" s="14"/>
-      <c r="B4" s="14"/>
-      <c r="C4" s="14"/>
-      <c r="D4" s="3" t="s">
+    <row r="4" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A4" s="15"/>
+      <c r="B4" s="15"/>
+      <c r="C4" s="15"/>
+      <c r="D4" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="E4" s="3" t="s">
+      <c r="E4" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="F4" s="3" t="s">
+      <c r="F4" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="G4" s="3" t="s">
+      <c r="G4" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="H4" s="3" t="s">
+      <c r="H4" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="I4" s="3" t="s">
+      <c r="I4" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="J4" s="3" t="s">
+      <c r="J4" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="K4" s="3" t="s">
+      <c r="K4" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="L4" s="3" t="s">
+      <c r="L4" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="M4" s="3" t="s">
+      <c r="M4" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="N4" s="3" t="s">
+      <c r="N4" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="O4" s="3" t="s">
+      <c r="O4" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="P4" s="14"/>
-      <c r="Q4" s="14"/>
-      <c r="R4" s="16"/>
-      <c r="S4" s="14"/>
+      <c r="P4" s="19"/>
+      <c r="Q4" s="15"/>
+      <c r="R4" s="15"/>
+      <c r="S4" s="17"/>
+      <c r="T4" s="15"/>
     </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A5" s="4"/>
-      <c r="B5" s="13" t="s">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A5" s="3"/>
+      <c r="B5" s="20" t="s">
         <v>16</v>
       </c>
-      <c r="C5" s="13"/>
-      <c r="D5" s="5"/>
-      <c r="E5" s="5"/>
-      <c r="F5" s="5"/>
-      <c r="G5" s="5"/>
-      <c r="H5" s="5"/>
-      <c r="I5" s="5"/>
-      <c r="J5" s="5"/>
-      <c r="K5" s="5"/>
-      <c r="L5" s="5"/>
-      <c r="M5" s="5"/>
-      <c r="N5" s="5"/>
-      <c r="O5" s="5"/>
-      <c r="P5" s="6"/>
-      <c r="Q5" s="6"/>
-      <c r="R5" s="7"/>
+      <c r="C5" s="20"/>
+      <c r="D5" s="4"/>
+      <c r="E5" s="4"/>
+      <c r="F5" s="4"/>
+      <c r="G5" s="4"/>
+      <c r="H5" s="4"/>
+      <c r="I5" s="4"/>
+      <c r="J5" s="4"/>
+      <c r="K5" s="4"/>
+      <c r="L5" s="4"/>
+      <c r="M5" s="4"/>
+      <c r="N5" s="4"/>
+      <c r="O5" s="4"/>
+      <c r="P5" s="11"/>
+      <c r="Q5" s="5"/>
+      <c r="R5" s="5"/>
+      <c r="S5" s="6"/>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.25">
       <c r="D6"/>
       <c r="E6"/>
       <c r="F6"/>
@@ -784,12 +828,13 @@
       <c r="M6"/>
       <c r="N6"/>
       <c r="O6"/>
-      <c r="R6"/>
-      <c r="S6" s="8" t="s">
+      <c r="P6"/>
+      <c r="S6"/>
+      <c r="T6" s="7" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.25">
       <c r="D7"/>
       <c r="E7"/>
       <c r="F7"/>
@@ -802,13 +847,14 @@
       <c r="M7"/>
       <c r="N7"/>
       <c r="O7"/>
-      <c r="R7"/>
-      <c r="S7" s="9" t="s">
+      <c r="P7"/>
+      <c r="S7"/>
+      <c r="T7" s="8" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="B8" s="8" t="s">
+    <row r="8" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="B8" s="7" t="s">
         <v>19</v>
       </c>
       <c r="D8"/>
@@ -827,23 +873,25 @@
       <c r="M8"/>
       <c r="N8"/>
       <c r="O8"/>
-      <c r="R8"/>
-      <c r="S8" t="s">
+      <c r="P8"/>
+      <c r="S8"/>
+      <c r="T8" t="s">
         <v>22</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="16">
+  <mergeCells count="17">
+    <mergeCell ref="P3:P4"/>
     <mergeCell ref="A2:K2"/>
     <mergeCell ref="B5:C5"/>
-    <mergeCell ref="S3:S4"/>
-    <mergeCell ref="A1:S1"/>
+    <mergeCell ref="T3:T4"/>
+    <mergeCell ref="A1:T1"/>
     <mergeCell ref="J3:K3"/>
     <mergeCell ref="L3:M3"/>
     <mergeCell ref="N3:O3"/>
-    <mergeCell ref="P3:P4"/>
     <mergeCell ref="Q3:Q4"/>
     <mergeCell ref="R3:R4"/>
+    <mergeCell ref="S3:S4"/>
     <mergeCell ref="A3:A4"/>
     <mergeCell ref="B3:B4"/>
     <mergeCell ref="C3:C4"/>

--- a/ATV_Allowance/Templates/TemplatePTTT.xlsx
+++ b/ATV_Allowance/Templates/TemplatePTTT.xlsx
@@ -297,7 +297,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -321,29 +321,44 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="41" fontId="2" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="41" fontId="1" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -629,10 +644,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:T8"/>
+  <dimension ref="A1:T9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5:C5"/>
+      <selection activeCell="A5" sqref="A5:S5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -648,43 +663,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A1" s="14" t="s">
+      <c r="A1" s="20" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="14"/>
-      <c r="C1" s="14"/>
-      <c r="D1" s="14"/>
-      <c r="E1" s="14"/>
-      <c r="F1" s="14"/>
-      <c r="G1" s="14"/>
-      <c r="H1" s="14"/>
-      <c r="I1" s="14"/>
-      <c r="J1" s="14"/>
-      <c r="K1" s="14"/>
-      <c r="L1" s="14"/>
-      <c r="M1" s="14"/>
-      <c r="N1" s="14"/>
-      <c r="O1" s="14"/>
-      <c r="P1" s="14"/>
-      <c r="Q1" s="14"/>
-      <c r="R1" s="14"/>
-      <c r="S1" s="14"/>
-      <c r="T1" s="14"/>
+      <c r="B1" s="20"/>
+      <c r="C1" s="20"/>
+      <c r="D1" s="20"/>
+      <c r="E1" s="20"/>
+      <c r="F1" s="20"/>
+      <c r="G1" s="20"/>
+      <c r="H1" s="20"/>
+      <c r="I1" s="20"/>
+      <c r="J1" s="20"/>
+      <c r="K1" s="20"/>
+      <c r="L1" s="20"/>
+      <c r="M1" s="20"/>
+      <c r="N1" s="20"/>
+      <c r="O1" s="20"/>
+      <c r="P1" s="20"/>
+      <c r="Q1" s="20"/>
+      <c r="R1" s="20"/>
+      <c r="S1" s="20"/>
+      <c r="T1" s="20"/>
     </row>
     <row r="2" spans="1:20" ht="21" x14ac:dyDescent="0.35">
-      <c r="A2" s="13" t="s">
+      <c r="A2" s="18" t="s">
         <v>24</v>
       </c>
-      <c r="B2" s="13"/>
-      <c r="C2" s="13"/>
-      <c r="D2" s="13"/>
-      <c r="E2" s="13"/>
-      <c r="F2" s="13"/>
-      <c r="G2" s="13"/>
-      <c r="H2" s="13"/>
-      <c r="I2" s="13"/>
-      <c r="J2" s="13"/>
-      <c r="K2" s="13"/>
+      <c r="B2" s="18"/>
+      <c r="C2" s="18"/>
+      <c r="D2" s="18"/>
+      <c r="E2" s="18"/>
+      <c r="F2" s="18"/>
+      <c r="G2" s="18"/>
+      <c r="H2" s="18"/>
+      <c r="I2" s="18"/>
+      <c r="J2" s="18"/>
+      <c r="K2" s="18"/>
       <c r="L2" s="12" t="s">
         <v>25</v>
       </c>
@@ -739,7 +754,7 @@
       <c r="R3" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="S3" s="17" t="s">
+      <c r="S3" s="21" t="s">
         <v>12</v>
       </c>
       <c r="T3" s="15" t="s">
@@ -750,89 +765,92 @@
       <c r="A4" s="15"/>
       <c r="B4" s="15"/>
       <c r="C4" s="15"/>
-      <c r="D4" s="18" t="s">
+      <c r="D4" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="E4" s="18" t="s">
+      <c r="E4" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="F4" s="18" t="s">
+      <c r="F4" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="G4" s="18" t="s">
+      <c r="G4" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="H4" s="18" t="s">
+      <c r="H4" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="I4" s="18" t="s">
+      <c r="I4" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="J4" s="18" t="s">
+      <c r="J4" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="K4" s="18" t="s">
+      <c r="K4" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="L4" s="18" t="s">
+      <c r="L4" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="M4" s="18" t="s">
+      <c r="M4" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="N4" s="18" t="s">
+      <c r="N4" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="O4" s="18" t="s">
+      <c r="O4" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="P4" s="19"/>
+      <c r="P4" s="17"/>
       <c r="Q4" s="15"/>
       <c r="R4" s="15"/>
-      <c r="S4" s="17"/>
+      <c r="S4" s="21"/>
       <c r="T4" s="15"/>
     </row>
     <row r="5" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A5" s="3"/>
-      <c r="B5" s="20" t="s">
-        <v>16</v>
-      </c>
-      <c r="C5" s="20"/>
-      <c r="D5" s="4"/>
-      <c r="E5" s="4"/>
-      <c r="F5" s="4"/>
-      <c r="G5" s="4"/>
-      <c r="H5" s="4"/>
-      <c r="I5" s="4"/>
-      <c r="J5" s="4"/>
-      <c r="K5" s="4"/>
-      <c r="L5" s="4"/>
-      <c r="M5" s="4"/>
-      <c r="N5" s="4"/>
-      <c r="O5" s="4"/>
-      <c r="P5" s="11"/>
-      <c r="Q5" s="5"/>
-      <c r="R5" s="5"/>
-      <c r="S5" s="6"/>
+      <c r="A5" s="22"/>
+      <c r="B5" s="23"/>
+      <c r="C5" s="23"/>
+      <c r="D5" s="24"/>
+      <c r="E5" s="24"/>
+      <c r="F5" s="24"/>
+      <c r="G5" s="24"/>
+      <c r="H5" s="24"/>
+      <c r="I5" s="24"/>
+      <c r="J5" s="24"/>
+      <c r="K5" s="24"/>
+      <c r="L5" s="24"/>
+      <c r="M5" s="24"/>
+      <c r="N5" s="24"/>
+      <c r="O5" s="24"/>
+      <c r="P5" s="24"/>
+      <c r="Q5" s="24"/>
+      <c r="R5" s="24"/>
+      <c r="S5" s="25"/>
+      <c r="T5" s="14"/>
     </row>
     <row r="6" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="D6"/>
-      <c r="E6"/>
-      <c r="F6"/>
-      <c r="G6"/>
-      <c r="H6"/>
-      <c r="I6"/>
-      <c r="J6"/>
-      <c r="K6"/>
-      <c r="L6"/>
-      <c r="M6"/>
-      <c r="N6"/>
-      <c r="O6"/>
-      <c r="P6"/>
-      <c r="S6"/>
-      <c r="T6" s="7" t="s">
-        <v>17</v>
-      </c>
+      <c r="A6" s="3"/>
+      <c r="B6" s="19" t="s">
+        <v>16</v>
+      </c>
+      <c r="C6" s="19"/>
+      <c r="D6" s="4"/>
+      <c r="E6" s="4"/>
+      <c r="F6" s="4"/>
+      <c r="G6" s="4"/>
+      <c r="H6" s="4"/>
+      <c r="I6" s="4"/>
+      <c r="J6" s="4"/>
+      <c r="K6" s="4"/>
+      <c r="L6" s="4"/>
+      <c r="M6" s="4"/>
+      <c r="N6" s="4"/>
+      <c r="O6" s="4"/>
+      <c r="P6" s="11"/>
+      <c r="Q6" s="5"/>
+      <c r="R6" s="5"/>
+      <c r="S6" s="6"/>
     </row>
     <row r="7" spans="1:20" x14ac:dyDescent="0.25">
       <c r="D7"/>
@@ -849,42 +867,57 @@
       <c r="O7"/>
       <c r="P7"/>
       <c r="S7"/>
-      <c r="T7" s="8" t="s">
-        <v>18</v>
+      <c r="T7" s="7" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="8" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="B8" s="7" t="s">
-        <v>19</v>
-      </c>
       <c r="D8"/>
-      <c r="E8" t="s">
-        <v>20</v>
-      </c>
+      <c r="E8"/>
       <c r="F8"/>
       <c r="G8"/>
       <c r="H8"/>
       <c r="I8"/>
       <c r="J8"/>
       <c r="K8"/>
-      <c r="L8" t="s">
-        <v>21</v>
-      </c>
+      <c r="L8"/>
       <c r="M8"/>
       <c r="N8"/>
       <c r="O8"/>
       <c r="P8"/>
       <c r="S8"/>
-      <c r="T8" t="s">
+      <c r="T8" s="8" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="B9" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="D9"/>
+      <c r="E9" t="s">
+        <v>20</v>
+      </c>
+      <c r="F9"/>
+      <c r="G9"/>
+      <c r="H9"/>
+      <c r="I9"/>
+      <c r="J9"/>
+      <c r="K9"/>
+      <c r="L9" t="s">
+        <v>21</v>
+      </c>
+      <c r="M9"/>
+      <c r="N9"/>
+      <c r="O9"/>
+      <c r="P9"/>
+      <c r="S9"/>
+      <c r="T9" t="s">
         <v>22</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="17">
-    <mergeCell ref="P3:P4"/>
-    <mergeCell ref="A2:K2"/>
-    <mergeCell ref="B5:C5"/>
-    <mergeCell ref="T3:T4"/>
     <mergeCell ref="A1:T1"/>
     <mergeCell ref="J3:K3"/>
     <mergeCell ref="L3:M3"/>
@@ -898,6 +931,10 @@
     <mergeCell ref="D3:E3"/>
     <mergeCell ref="F3:G3"/>
     <mergeCell ref="H3:I3"/>
+    <mergeCell ref="P3:P4"/>
+    <mergeCell ref="A2:K2"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="T3:T4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup scale="88" fitToHeight="0" orientation="landscape" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>

--- a/ATV_Allowance/Templates/TemplatePTTT.xlsx
+++ b/ATV_Allowance/Templates/TemplatePTTT.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="25">
   <si>
     <t>Đài Phát thanh - Truyền hình An Giang</t>
   </si>
@@ -93,9 +93,6 @@
   </si>
   <si>
     <t>Trưởng phòng</t>
-  </si>
-  <si>
-    <t>THÁNG 12/2018</t>
   </si>
   <si>
     <r>
@@ -124,9 +121,6 @@
       </rPr>
       <t/>
     </r>
-  </si>
-  <si>
-    <t xml:space="preserve"> (CTV) </t>
   </si>
   <si>
     <t>Trừ chỉ tiêu</t>
@@ -315,51 +309,55 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="41" fontId="1" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="2" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="41" fontId="2" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Currency" xfId="1" builtinId="4"/>
@@ -647,7 +645,7 @@
   <dimension ref="A1:T9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5:S5"/>
+      <selection activeCell="P9" sqref="P9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -662,33 +660,33 @@
     <col min="20" max="20" width="14.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A1" s="20" t="s">
+    <row r="1" spans="1:20" s="23" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="22" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="20"/>
-      <c r="C1" s="20"/>
-      <c r="D1" s="20"/>
-      <c r="E1" s="20"/>
-      <c r="F1" s="20"/>
-      <c r="G1" s="20"/>
-      <c r="H1" s="20"/>
-      <c r="I1" s="20"/>
-      <c r="J1" s="20"/>
-      <c r="K1" s="20"/>
-      <c r="L1" s="20"/>
-      <c r="M1" s="20"/>
-      <c r="N1" s="20"/>
-      <c r="O1" s="20"/>
-      <c r="P1" s="20"/>
-      <c r="Q1" s="20"/>
-      <c r="R1" s="20"/>
-      <c r="S1" s="20"/>
-      <c r="T1" s="20"/>
+      <c r="B1" s="22"/>
+      <c r="C1" s="22"/>
+      <c r="D1" s="22"/>
+      <c r="E1" s="22"/>
+      <c r="F1" s="22"/>
+      <c r="G1" s="22"/>
+      <c r="H1" s="22"/>
+      <c r="I1" s="22"/>
+      <c r="J1" s="22"/>
+      <c r="K1" s="22"/>
+      <c r="L1" s="22"/>
+      <c r="M1" s="22"/>
+      <c r="N1" s="22"/>
+      <c r="O1" s="22"/>
+      <c r="P1" s="22"/>
+      <c r="Q1" s="22"/>
+      <c r="R1" s="22"/>
+      <c r="S1" s="22"/>
+      <c r="T1" s="22"/>
     </row>
     <row r="2" spans="1:20" ht="21" x14ac:dyDescent="0.35">
       <c r="A2" s="18" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B2" s="18"/>
       <c r="C2" s="18"/>
@@ -700,141 +698,140 @@
       <c r="I2" s="18"/>
       <c r="J2" s="18"/>
       <c r="K2" s="18"/>
-      <c r="L2" s="12" t="s">
-        <v>25</v>
-      </c>
-      <c r="M2" s="12"/>
-      <c r="N2" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="Q2" s="12"/>
-      <c r="S2" s="9"/>
-      <c r="T2" s="9"/>
+      <c r="L2" s="18"/>
+      <c r="M2" s="18"/>
+      <c r="N2" s="18"/>
+      <c r="O2" s="18"/>
+      <c r="P2" s="18"/>
+      <c r="Q2" s="18"/>
+      <c r="R2" s="18"/>
+      <c r="S2" s="18"/>
+      <c r="T2" s="18"/>
     </row>
     <row r="3" spans="1:20" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="15" t="s">
+      <c r="A3" s="17" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="15" t="s">
+      <c r="B3" s="17" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="15" t="s">
+      <c r="C3" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="D3" s="15" t="s">
+      <c r="D3" s="17" t="s">
         <v>4</v>
       </c>
-      <c r="E3" s="15"/>
-      <c r="F3" s="15" t="s">
+      <c r="E3" s="17"/>
+      <c r="F3" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="G3" s="15"/>
-      <c r="H3" s="15" t="s">
+      <c r="G3" s="17"/>
+      <c r="H3" s="17" t="s">
         <v>6</v>
       </c>
-      <c r="I3" s="15"/>
-      <c r="J3" s="15" t="s">
+      <c r="I3" s="17"/>
+      <c r="J3" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="K3" s="15"/>
-      <c r="L3" s="15" t="s">
+      <c r="K3" s="17"/>
+      <c r="L3" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="M3" s="15"/>
-      <c r="N3" s="15" t="s">
+      <c r="M3" s="17"/>
+      <c r="N3" s="17" t="s">
         <v>9</v>
       </c>
-      <c r="O3" s="15"/>
-      <c r="P3" s="16" t="s">
-        <v>26</v>
-      </c>
-      <c r="Q3" s="15" t="s">
+      <c r="O3" s="17"/>
+      <c r="P3" s="20" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q3" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="R3" s="15" t="s">
+      <c r="R3" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="S3" s="21" t="s">
+      <c r="S3" s="19" t="s">
         <v>12</v>
       </c>
-      <c r="T3" s="15" t="s">
+      <c r="T3" s="17" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="4" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A4" s="15"/>
-      <c r="B4" s="15"/>
-      <c r="C4" s="15"/>
-      <c r="D4" s="13" t="s">
+      <c r="A4" s="17"/>
+      <c r="B4" s="17"/>
+      <c r="C4" s="17"/>
+      <c r="D4" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="E4" s="13" t="s">
+      <c r="E4" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="F4" s="13" t="s">
+      <c r="F4" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="G4" s="13" t="s">
+      <c r="G4" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="H4" s="13" t="s">
+      <c r="H4" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="I4" s="13" t="s">
+      <c r="I4" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="J4" s="13" t="s">
+      <c r="J4" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="K4" s="13" t="s">
+      <c r="K4" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="L4" s="13" t="s">
+      <c r="L4" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="M4" s="13" t="s">
+      <c r="M4" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="N4" s="13" t="s">
+      <c r="N4" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="O4" s="13" t="s">
+      <c r="O4" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="P4" s="17"/>
-      <c r="Q4" s="15"/>
-      <c r="R4" s="15"/>
-      <c r="S4" s="21"/>
-      <c r="T4" s="15"/>
+      <c r="P4" s="21"/>
+      <c r="Q4" s="17"/>
+      <c r="R4" s="17"/>
+      <c r="S4" s="19"/>
+      <c r="T4" s="17"/>
     </row>
     <row r="5" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A5" s="22"/>
-      <c r="B5" s="23"/>
-      <c r="C5" s="23"/>
-      <c r="D5" s="24"/>
-      <c r="E5" s="24"/>
-      <c r="F5" s="24"/>
-      <c r="G5" s="24"/>
-      <c r="H5" s="24"/>
-      <c r="I5" s="24"/>
-      <c r="J5" s="24"/>
-      <c r="K5" s="24"/>
-      <c r="L5" s="24"/>
-      <c r="M5" s="24"/>
-      <c r="N5" s="24"/>
-      <c r="O5" s="24"/>
-      <c r="P5" s="24"/>
-      <c r="Q5" s="24"/>
-      <c r="R5" s="24"/>
-      <c r="S5" s="25"/>
-      <c r="T5" s="14"/>
+      <c r="A5" s="11"/>
+      <c r="B5" s="12"/>
+      <c r="C5" s="12"/>
+      <c r="D5" s="13"/>
+      <c r="E5" s="13"/>
+      <c r="F5" s="13"/>
+      <c r="G5" s="13"/>
+      <c r="H5" s="13"/>
+      <c r="I5" s="13"/>
+      <c r="J5" s="13"/>
+      <c r="K5" s="13"/>
+      <c r="L5" s="13"/>
+      <c r="M5" s="13"/>
+      <c r="N5" s="13"/>
+      <c r="O5" s="13"/>
+      <c r="P5" s="13"/>
+      <c r="Q5" s="13"/>
+      <c r="R5" s="13"/>
+      <c r="S5" s="14"/>
+      <c r="T5" s="15"/>
     </row>
     <row r="6" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A6" s="3"/>
-      <c r="B6" s="19" t="s">
+      <c r="B6" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="C6" s="19"/>
+      <c r="C6" s="16"/>
       <c r="D6" s="4"/>
       <c r="E6" s="4"/>
       <c r="F6" s="4"/>
@@ -847,27 +844,14 @@
       <c r="M6" s="4"/>
       <c r="N6" s="4"/>
       <c r="O6" s="4"/>
-      <c r="P6" s="11"/>
+      <c r="P6" s="9"/>
       <c r="Q6" s="5"/>
       <c r="R6" s="5"/>
       <c r="S6" s="6"/>
+      <c r="T6" s="25"/>
     </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="D7"/>
-      <c r="E7"/>
-      <c r="F7"/>
-      <c r="G7"/>
-      <c r="H7"/>
-      <c r="I7"/>
-      <c r="J7"/>
-      <c r="K7"/>
-      <c r="L7"/>
-      <c r="M7"/>
-      <c r="N7"/>
-      <c r="O7"/>
-      <c r="P7"/>
-      <c r="S7"/>
-      <c r="T7" s="7" t="s">
+    <row r="7" spans="1:20" s="23" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="T7" s="24" t="s">
         <v>17</v>
       </c>
     </row>
@@ -918,6 +902,10 @@
     </row>
   </sheetData>
   <mergeCells count="17">
+    <mergeCell ref="P3:P4"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="T3:T4"/>
+    <mergeCell ref="A2:T2"/>
     <mergeCell ref="A1:T1"/>
     <mergeCell ref="J3:K3"/>
     <mergeCell ref="L3:M3"/>
@@ -931,10 +919,6 @@
     <mergeCell ref="D3:E3"/>
     <mergeCell ref="F3:G3"/>
     <mergeCell ref="H3:I3"/>
-    <mergeCell ref="P3:P4"/>
-    <mergeCell ref="A2:K2"/>
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="T3:T4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup scale="88" fitToHeight="0" orientation="landscape" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>

--- a/ATV_Allowance/Templates/TemplatePTTT.xlsx
+++ b/ATV_Allowance/Templates/TemplatePTTT.xlsx
@@ -5,14 +5,15 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Working\ATV-Allowance\ATV-Allowance\ATV_Allowance\Templates\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\job\ATV-Allowance\ATV-Allowance\ATV_Allowance\Templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7020"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7020" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="PV" sheetId="1" r:id="rId1"/>
+    <sheet name="CTV" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="28">
   <si>
     <t>Đài Phát thanh - Truyền hình An Giang</t>
   </si>
@@ -104,7 +105,7 @@
         <i/>
         <sz val="16"/>
         <color theme="1"/>
-        <rFont val="Arial"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -115,7 +116,7 @@
         <b/>
         <sz val="16"/>
         <color theme="1"/>
-        <rFont val="Arial"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -124,6 +125,15 @@
   </si>
   <si>
     <t>Trừ chỉ tiêu</t>
+  </si>
+  <si>
+    <t>Tổ bá âm: Thu tin qua điện thoại + Vận hành máy (25đ/1CT). Tổng cộng: 31 chương trình</t>
+  </si>
+  <si>
+    <t>Trích Ban Biên tập nội dung chương trình hàng ngày. Tổng cộng: 273,30 điểm</t>
+  </si>
+  <si>
+    <t>Tổng cộng</t>
   </si>
 </sst>
 </file>
@@ -131,21 +141,21 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="2">
-    <numFmt numFmtId="164" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="165" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="41" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
   <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Arial"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Arial"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -153,7 +163,7 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Arial"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -161,7 +171,7 @@
       <i/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Arial"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -169,7 +179,7 @@
       <b/>
       <sz val="16"/>
       <color theme="1"/>
-      <name val="Arial"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -178,7 +188,7 @@
       <i/>
       <sz val="16"/>
       <color theme="1"/>
-      <name val="Arial"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -289,20 +299,20 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -324,7 +334,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="41" fontId="1" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -337,26 +347,43 @@
       <alignment horizontal="right" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="41" fontId="2" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="41" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -670,126 +697,126 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:T9"/>
+  <dimension ref="A1:T13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P9" sqref="P9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B15" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="4.75" customWidth="1"/>
-    <col min="2" max="2" width="27.25" customWidth="1"/>
-    <col min="3" max="3" width="18.125" customWidth="1"/>
-    <col min="4" max="16" width="4.25" style="1" customWidth="1"/>
-    <col min="17" max="17" width="6.25" customWidth="1"/>
-    <col min="18" max="18" width="6.375" customWidth="1"/>
-    <col min="19" max="19" width="13.125" style="2" customWidth="1"/>
-    <col min="20" max="20" width="14.625" customWidth="1"/>
+    <col min="1" max="1" width="4.7109375" customWidth="1"/>
+    <col min="2" max="2" width="27.28515625" customWidth="1"/>
+    <col min="3" max="3" width="18.140625" customWidth="1"/>
+    <col min="4" max="16" width="4.28515625" style="1" customWidth="1"/>
+    <col min="17" max="17" width="6.28515625" customWidth="1"/>
+    <col min="18" max="18" width="6.42578125" customWidth="1"/>
+    <col min="19" max="19" width="13.140625" style="2" customWidth="1"/>
+    <col min="20" max="20" width="14.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" s="16" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="24" t="s">
+    <row r="1" spans="1:20" s="16" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="27" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="24"/>
-      <c r="C1" s="24"/>
-      <c r="D1" s="24"/>
-      <c r="E1" s="24"/>
-      <c r="F1" s="24"/>
-      <c r="G1" s="24"/>
-      <c r="H1" s="24"/>
-      <c r="I1" s="24"/>
-      <c r="J1" s="24"/>
-      <c r="K1" s="24"/>
-      <c r="L1" s="24"/>
-      <c r="M1" s="24"/>
-      <c r="N1" s="24"/>
-      <c r="O1" s="24"/>
-      <c r="P1" s="24"/>
-      <c r="Q1" s="24"/>
-      <c r="R1" s="24"/>
-      <c r="S1" s="24"/>
-      <c r="T1" s="24"/>
-    </row>
-    <row r="2" spans="1:20" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="A2" s="23" t="s">
+      <c r="B1" s="27"/>
+      <c r="C1" s="27"/>
+      <c r="D1" s="27"/>
+      <c r="E1" s="27"/>
+      <c r="F1" s="27"/>
+      <c r="G1" s="27"/>
+      <c r="H1" s="27"/>
+      <c r="I1" s="27"/>
+      <c r="J1" s="27"/>
+      <c r="K1" s="27"/>
+      <c r="L1" s="27"/>
+      <c r="M1" s="27"/>
+      <c r="N1" s="27"/>
+      <c r="O1" s="27"/>
+      <c r="P1" s="27"/>
+      <c r="Q1" s="27"/>
+      <c r="R1" s="27"/>
+      <c r="S1" s="27"/>
+      <c r="T1" s="27"/>
+    </row>
+    <row r="2" spans="1:20" ht="21" x14ac:dyDescent="0.35">
+      <c r="A2" s="26" t="s">
         <v>23</v>
       </c>
-      <c r="B2" s="23"/>
-      <c r="C2" s="23"/>
-      <c r="D2" s="23"/>
-      <c r="E2" s="23"/>
-      <c r="F2" s="23"/>
-      <c r="G2" s="23"/>
-      <c r="H2" s="23"/>
-      <c r="I2" s="23"/>
-      <c r="J2" s="23"/>
-      <c r="K2" s="23"/>
-      <c r="L2" s="23"/>
-      <c r="M2" s="23"/>
-      <c r="N2" s="23"/>
-      <c r="O2" s="23"/>
-      <c r="P2" s="23"/>
-      <c r="Q2" s="23"/>
-      <c r="R2" s="23"/>
-      <c r="S2" s="23"/>
-      <c r="T2" s="23"/>
-    </row>
-    <row r="3" spans="1:20" ht="32.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="22" t="s">
+      <c r="B2" s="26"/>
+      <c r="C2" s="26"/>
+      <c r="D2" s="26"/>
+      <c r="E2" s="26"/>
+      <c r="F2" s="26"/>
+      <c r="G2" s="26"/>
+      <c r="H2" s="26"/>
+      <c r="I2" s="26"/>
+      <c r="J2" s="26"/>
+      <c r="K2" s="26"/>
+      <c r="L2" s="26"/>
+      <c r="M2" s="26"/>
+      <c r="N2" s="26"/>
+      <c r="O2" s="26"/>
+      <c r="P2" s="26"/>
+      <c r="Q2" s="26"/>
+      <c r="R2" s="26"/>
+      <c r="S2" s="26"/>
+      <c r="T2" s="26"/>
+    </row>
+    <row r="3" spans="1:20" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="25" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="22" t="s">
+      <c r="B3" s="25" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="22" t="s">
+      <c r="C3" s="25" t="s">
         <v>3</v>
       </c>
-      <c r="D3" s="22" t="s">
+      <c r="D3" s="25" t="s">
         <v>4</v>
       </c>
-      <c r="E3" s="22"/>
-      <c r="F3" s="22" t="s">
+      <c r="E3" s="25"/>
+      <c r="F3" s="25" t="s">
         <v>5</v>
       </c>
-      <c r="G3" s="22"/>
-      <c r="H3" s="22" t="s">
+      <c r="G3" s="25"/>
+      <c r="H3" s="25" t="s">
         <v>6</v>
       </c>
-      <c r="I3" s="22"/>
-      <c r="J3" s="22" t="s">
+      <c r="I3" s="25"/>
+      <c r="J3" s="25" t="s">
         <v>7</v>
       </c>
-      <c r="K3" s="22"/>
-      <c r="L3" s="22" t="s">
+      <c r="K3" s="25"/>
+      <c r="L3" s="25" t="s">
         <v>8</v>
       </c>
-      <c r="M3" s="22"/>
-      <c r="N3" s="22" t="s">
+      <c r="M3" s="25"/>
+      <c r="N3" s="25" t="s">
         <v>9</v>
       </c>
-      <c r="O3" s="22"/>
-      <c r="P3" s="19" t="s">
+      <c r="O3" s="25"/>
+      <c r="P3" s="29" t="s">
         <v>24</v>
       </c>
-      <c r="Q3" s="22" t="s">
+      <c r="Q3" s="25" t="s">
         <v>10</v>
       </c>
-      <c r="R3" s="22" t="s">
+      <c r="R3" s="25" t="s">
         <v>11</v>
       </c>
-      <c r="S3" s="25" t="s">
+      <c r="S3" s="28" t="s">
         <v>12</v>
       </c>
-      <c r="T3" s="22" t="s">
+      <c r="T3" s="25" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="4" spans="1:20" ht="15" x14ac:dyDescent="0.2">
-      <c r="A4" s="22"/>
-      <c r="B4" s="22"/>
-      <c r="C4" s="22"/>
+    <row r="4" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A4" s="25"/>
+      <c r="B4" s="25"/>
+      <c r="C4" s="25"/>
       <c r="D4" s="10" t="s">
         <v>14</v>
       </c>
@@ -826,13 +853,13 @@
       <c r="O4" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="P4" s="20"/>
-      <c r="Q4" s="22"/>
-      <c r="R4" s="22"/>
-      <c r="S4" s="25"/>
-      <c r="T4" s="22"/>
-    </row>
-    <row r="5" spans="1:20" ht="15" x14ac:dyDescent="0.2">
+      <c r="P4" s="30"/>
+      <c r="Q4" s="25"/>
+      <c r="R4" s="25"/>
+      <c r="S4" s="28"/>
+      <c r="T4" s="25"/>
+    </row>
+    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A5" s="11"/>
       <c r="B5" s="12"/>
       <c r="C5" s="12"/>
@@ -854,12 +881,12 @@
       <c r="S5" s="14"/>
       <c r="T5" s="15"/>
     </row>
-    <row r="6" spans="1:20" ht="15" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A6" s="3"/>
-      <c r="B6" s="21" t="s">
+      <c r="B6" s="24" t="s">
         <v>16</v>
       </c>
-      <c r="C6" s="21"/>
+      <c r="C6" s="24"/>
       <c r="D6" s="4"/>
       <c r="E6" s="4"/>
       <c r="F6" s="4"/>
@@ -878,60 +905,159 @@
       <c r="S6" s="6"/>
       <c r="T6" s="18"/>
     </row>
-    <row r="7" spans="1:20" s="16" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="T7" s="17" t="s">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A7" s="19"/>
+      <c r="B7" s="20"/>
+      <c r="C7" s="20"/>
+      <c r="D7" s="21"/>
+      <c r="E7" s="21"/>
+      <c r="F7" s="21"/>
+      <c r="G7" s="21"/>
+      <c r="H7" s="21"/>
+      <c r="I7" s="21"/>
+      <c r="J7" s="21"/>
+      <c r="K7" s="21"/>
+      <c r="L7" s="21"/>
+      <c r="M7" s="21"/>
+      <c r="N7" s="21"/>
+      <c r="O7" s="21"/>
+      <c r="P7" s="21"/>
+      <c r="Q7" s="19"/>
+      <c r="R7" s="19"/>
+      <c r="S7" s="22"/>
+      <c r="T7" s="19"/>
+    </row>
+    <row r="8" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A8" s="31" t="s">
+        <v>25</v>
+      </c>
+      <c r="B8" s="31"/>
+      <c r="C8" s="31"/>
+      <c r="D8" s="31"/>
+      <c r="E8" s="31"/>
+      <c r="F8" s="31"/>
+      <c r="G8" s="31"/>
+      <c r="H8" s="31"/>
+      <c r="I8" s="31"/>
+      <c r="J8" s="31"/>
+      <c r="K8" s="31"/>
+      <c r="L8" s="31"/>
+      <c r="M8" s="31"/>
+      <c r="N8" s="31"/>
+      <c r="O8" s="31"/>
+      <c r="P8" s="31"/>
+      <c r="Q8" s="31"/>
+      <c r="R8" s="32"/>
+      <c r="S8" s="32"/>
+      <c r="T8" s="18"/>
+    </row>
+    <row r="9" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A9" s="31" t="s">
+        <v>26</v>
+      </c>
+      <c r="B9" s="31"/>
+      <c r="C9" s="31"/>
+      <c r="D9" s="31"/>
+      <c r="E9" s="31"/>
+      <c r="F9" s="31"/>
+      <c r="G9" s="31"/>
+      <c r="H9" s="31"/>
+      <c r="I9" s="31"/>
+      <c r="J9" s="31"/>
+      <c r="K9" s="31"/>
+      <c r="L9" s="31"/>
+      <c r="M9" s="31"/>
+      <c r="N9" s="31"/>
+      <c r="O9" s="31"/>
+      <c r="P9" s="31"/>
+      <c r="Q9" s="31"/>
+      <c r="R9" s="32"/>
+      <c r="S9" s="32"/>
+      <c r="T9" s="18"/>
+    </row>
+    <row r="10" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A10" s="31" t="s">
+        <v>27</v>
+      </c>
+      <c r="B10" s="31"/>
+      <c r="C10" s="31"/>
+      <c r="D10" s="31"/>
+      <c r="E10" s="31"/>
+      <c r="F10" s="31"/>
+      <c r="G10" s="31"/>
+      <c r="H10" s="31"/>
+      <c r="I10" s="31"/>
+      <c r="J10" s="31"/>
+      <c r="K10" s="31"/>
+      <c r="L10" s="31"/>
+      <c r="M10" s="31"/>
+      <c r="N10" s="31"/>
+      <c r="O10" s="31"/>
+      <c r="P10" s="31"/>
+      <c r="Q10" s="31"/>
+      <c r="R10" s="32"/>
+      <c r="S10" s="32"/>
+      <c r="T10" s="19"/>
+    </row>
+    <row r="11" spans="1:20" s="16" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="T11" s="17" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="D8"/>
-      <c r="E8"/>
-      <c r="F8"/>
-      <c r="G8"/>
-      <c r="H8"/>
-      <c r="I8"/>
-      <c r="J8"/>
-      <c r="K8"/>
-      <c r="L8"/>
-      <c r="M8"/>
-      <c r="N8"/>
-      <c r="O8"/>
-      <c r="P8"/>
-      <c r="S8"/>
-      <c r="T8" s="8" t="s">
+    <row r="12" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="D12"/>
+      <c r="E12"/>
+      <c r="F12"/>
+      <c r="G12"/>
+      <c r="H12"/>
+      <c r="I12"/>
+      <c r="J12"/>
+      <c r="K12"/>
+      <c r="L12"/>
+      <c r="M12"/>
+      <c r="N12"/>
+      <c r="O12"/>
+      <c r="P12"/>
+      <c r="S12"/>
+      <c r="T12" s="8" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="B9" s="7" t="s">
+    <row r="13" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="B13" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="D9"/>
-      <c r="E9" t="s">
+      <c r="D13"/>
+      <c r="E13" t="s">
         <v>20</v>
       </c>
-      <c r="F9"/>
-      <c r="G9"/>
-      <c r="H9"/>
-      <c r="I9"/>
-      <c r="J9"/>
-      <c r="K9"/>
-      <c r="L9" t="s">
+      <c r="F13"/>
+      <c r="G13"/>
+      <c r="H13"/>
+      <c r="I13"/>
+      <c r="J13"/>
+      <c r="K13"/>
+      <c r="L13" t="s">
         <v>21</v>
       </c>
-      <c r="M9"/>
-      <c r="N9"/>
-      <c r="O9"/>
-      <c r="P9"/>
-      <c r="S9"/>
-      <c r="T9" t="s">
+      <c r="M13"/>
+      <c r="N13"/>
+      <c r="O13"/>
+      <c r="P13"/>
+      <c r="S13"/>
+      <c r="T13" t="s">
         <v>22</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="17">
-    <mergeCell ref="H3:I3"/>
+  <mergeCells count="23">
     <mergeCell ref="P3:P4"/>
+    <mergeCell ref="A8:Q8"/>
+    <mergeCell ref="A9:Q9"/>
+    <mergeCell ref="A10:Q10"/>
+    <mergeCell ref="R8:S8"/>
+    <mergeCell ref="R9:S9"/>
+    <mergeCell ref="R10:S10"/>
     <mergeCell ref="B6:C6"/>
     <mergeCell ref="T3:T4"/>
     <mergeCell ref="A2:T2"/>
@@ -947,8 +1073,397 @@
     <mergeCell ref="C3:C4"/>
     <mergeCell ref="D3:E3"/>
     <mergeCell ref="F3:G3"/>
+    <mergeCell ref="H3:I3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup scale="88" fitToHeight="0" orientation="landscape" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="A1:T13"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D15" sqref="D15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="4.7109375" customWidth="1"/>
+    <col min="2" max="2" width="27.28515625" customWidth="1"/>
+    <col min="3" max="3" width="18.140625" customWidth="1"/>
+    <col min="4" max="16" width="4.28515625" style="1" customWidth="1"/>
+    <col min="17" max="17" width="6.28515625" customWidth="1"/>
+    <col min="18" max="18" width="6.42578125" customWidth="1"/>
+    <col min="19" max="19" width="13.140625" style="2" customWidth="1"/>
+    <col min="20" max="20" width="14.5703125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:20" s="16" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="27" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="27"/>
+      <c r="C1" s="27"/>
+      <c r="D1" s="27"/>
+      <c r="E1" s="27"/>
+      <c r="F1" s="27"/>
+      <c r="G1" s="27"/>
+      <c r="H1" s="27"/>
+      <c r="I1" s="27"/>
+      <c r="J1" s="27"/>
+      <c r="K1" s="27"/>
+      <c r="L1" s="27"/>
+      <c r="M1" s="27"/>
+      <c r="N1" s="27"/>
+      <c r="O1" s="27"/>
+      <c r="P1" s="27"/>
+      <c r="Q1" s="27"/>
+      <c r="R1" s="27"/>
+      <c r="S1" s="27"/>
+      <c r="T1" s="27"/>
+    </row>
+    <row r="2" spans="1:20" ht="21" x14ac:dyDescent="0.35">
+      <c r="A2" s="26" t="s">
+        <v>23</v>
+      </c>
+      <c r="B2" s="26"/>
+      <c r="C2" s="26"/>
+      <c r="D2" s="26"/>
+      <c r="E2" s="26"/>
+      <c r="F2" s="26"/>
+      <c r="G2" s="26"/>
+      <c r="H2" s="26"/>
+      <c r="I2" s="26"/>
+      <c r="J2" s="26"/>
+      <c r="K2" s="26"/>
+      <c r="L2" s="26"/>
+      <c r="M2" s="26"/>
+      <c r="N2" s="26"/>
+      <c r="O2" s="26"/>
+      <c r="P2" s="26"/>
+      <c r="Q2" s="26"/>
+      <c r="R2" s="26"/>
+      <c r="S2" s="26"/>
+      <c r="T2" s="26"/>
+    </row>
+    <row r="3" spans="1:20" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="25" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="25" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" s="25" t="s">
+        <v>3</v>
+      </c>
+      <c r="D3" s="25" t="s">
+        <v>4</v>
+      </c>
+      <c r="E3" s="25"/>
+      <c r="F3" s="25" t="s">
+        <v>5</v>
+      </c>
+      <c r="G3" s="25"/>
+      <c r="H3" s="25" t="s">
+        <v>6</v>
+      </c>
+      <c r="I3" s="25"/>
+      <c r="J3" s="25" t="s">
+        <v>7</v>
+      </c>
+      <c r="K3" s="25"/>
+      <c r="L3" s="25" t="s">
+        <v>8</v>
+      </c>
+      <c r="M3" s="25"/>
+      <c r="N3" s="25" t="s">
+        <v>9</v>
+      </c>
+      <c r="O3" s="25"/>
+      <c r="P3" s="29" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q3" s="25" t="s">
+        <v>10</v>
+      </c>
+      <c r="R3" s="25" t="s">
+        <v>11</v>
+      </c>
+      <c r="S3" s="28" t="s">
+        <v>12</v>
+      </c>
+      <c r="T3" s="25" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A4" s="25"/>
+      <c r="B4" s="25"/>
+      <c r="C4" s="25"/>
+      <c r="D4" s="23" t="s">
+        <v>14</v>
+      </c>
+      <c r="E4" s="23" t="s">
+        <v>15</v>
+      </c>
+      <c r="F4" s="23" t="s">
+        <v>14</v>
+      </c>
+      <c r="G4" s="23" t="s">
+        <v>15</v>
+      </c>
+      <c r="H4" s="23" t="s">
+        <v>14</v>
+      </c>
+      <c r="I4" s="23" t="s">
+        <v>15</v>
+      </c>
+      <c r="J4" s="23" t="s">
+        <v>14</v>
+      </c>
+      <c r="K4" s="23" t="s">
+        <v>15</v>
+      </c>
+      <c r="L4" s="23" t="s">
+        <v>14</v>
+      </c>
+      <c r="M4" s="23" t="s">
+        <v>15</v>
+      </c>
+      <c r="N4" s="23" t="s">
+        <v>14</v>
+      </c>
+      <c r="O4" s="23" t="s">
+        <v>15</v>
+      </c>
+      <c r="P4" s="30"/>
+      <c r="Q4" s="25"/>
+      <c r="R4" s="25"/>
+      <c r="S4" s="28"/>
+      <c r="T4" s="25"/>
+    </row>
+    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A5" s="11"/>
+      <c r="B5" s="12"/>
+      <c r="C5" s="12"/>
+      <c r="D5" s="13"/>
+      <c r="E5" s="13"/>
+      <c r="F5" s="13"/>
+      <c r="G5" s="13"/>
+      <c r="H5" s="13"/>
+      <c r="I5" s="13"/>
+      <c r="J5" s="13"/>
+      <c r="K5" s="13"/>
+      <c r="L5" s="13"/>
+      <c r="M5" s="13"/>
+      <c r="N5" s="13"/>
+      <c r="O5" s="13"/>
+      <c r="P5" s="13"/>
+      <c r="Q5" s="13"/>
+      <c r="R5" s="13"/>
+      <c r="S5" s="14"/>
+      <c r="T5" s="23"/>
+    </row>
+    <row r="6" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A6" s="3"/>
+      <c r="B6" s="24" t="s">
+        <v>16</v>
+      </c>
+      <c r="C6" s="24"/>
+      <c r="D6" s="9"/>
+      <c r="E6" s="9"/>
+      <c r="F6" s="9"/>
+      <c r="G6" s="9"/>
+      <c r="H6" s="9"/>
+      <c r="I6" s="9"/>
+      <c r="J6" s="9"/>
+      <c r="K6" s="9"/>
+      <c r="L6" s="9"/>
+      <c r="M6" s="9"/>
+      <c r="N6" s="9"/>
+      <c r="O6" s="9"/>
+      <c r="P6" s="9"/>
+      <c r="Q6" s="5"/>
+      <c r="R6" s="5"/>
+      <c r="S6" s="6"/>
+      <c r="T6" s="18"/>
+    </row>
+    <row r="7" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A7" s="19"/>
+      <c r="B7" s="20"/>
+      <c r="C7" s="20"/>
+      <c r="D7" s="21"/>
+      <c r="E7" s="21"/>
+      <c r="F7" s="21"/>
+      <c r="G7" s="21"/>
+      <c r="H7" s="21"/>
+      <c r="I7" s="21"/>
+      <c r="J7" s="21"/>
+      <c r="K7" s="21"/>
+      <c r="L7" s="21"/>
+      <c r="M7" s="21"/>
+      <c r="N7" s="21"/>
+      <c r="O7" s="21"/>
+      <c r="P7" s="21"/>
+      <c r="Q7" s="19"/>
+      <c r="R7" s="19"/>
+      <c r="S7" s="22"/>
+      <c r="T7" s="19"/>
+    </row>
+    <row r="8" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A8" s="31" t="s">
+        <v>25</v>
+      </c>
+      <c r="B8" s="31"/>
+      <c r="C8" s="31"/>
+      <c r="D8" s="31"/>
+      <c r="E8" s="31"/>
+      <c r="F8" s="31"/>
+      <c r="G8" s="31"/>
+      <c r="H8" s="31"/>
+      <c r="I8" s="31"/>
+      <c r="J8" s="31"/>
+      <c r="K8" s="31"/>
+      <c r="L8" s="31"/>
+      <c r="M8" s="31"/>
+      <c r="N8" s="31"/>
+      <c r="O8" s="31"/>
+      <c r="P8" s="31"/>
+      <c r="Q8" s="31"/>
+      <c r="R8" s="32"/>
+      <c r="S8" s="32"/>
+      <c r="T8" s="18"/>
+    </row>
+    <row r="9" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A9" s="31" t="s">
+        <v>26</v>
+      </c>
+      <c r="B9" s="31"/>
+      <c r="C9" s="31"/>
+      <c r="D9" s="31"/>
+      <c r="E9" s="31"/>
+      <c r="F9" s="31"/>
+      <c r="G9" s="31"/>
+      <c r="H9" s="31"/>
+      <c r="I9" s="31"/>
+      <c r="J9" s="31"/>
+      <c r="K9" s="31"/>
+      <c r="L9" s="31"/>
+      <c r="M9" s="31"/>
+      <c r="N9" s="31"/>
+      <c r="O9" s="31"/>
+      <c r="P9" s="31"/>
+      <c r="Q9" s="31"/>
+      <c r="R9" s="32"/>
+      <c r="S9" s="32"/>
+      <c r="T9" s="18"/>
+    </row>
+    <row r="10" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A10" s="31" t="s">
+        <v>27</v>
+      </c>
+      <c r="B10" s="31"/>
+      <c r="C10" s="31"/>
+      <c r="D10" s="31"/>
+      <c r="E10" s="31"/>
+      <c r="F10" s="31"/>
+      <c r="G10" s="31"/>
+      <c r="H10" s="31"/>
+      <c r="I10" s="31"/>
+      <c r="J10" s="31"/>
+      <c r="K10" s="31"/>
+      <c r="L10" s="31"/>
+      <c r="M10" s="31"/>
+      <c r="N10" s="31"/>
+      <c r="O10" s="31"/>
+      <c r="P10" s="31"/>
+      <c r="Q10" s="31"/>
+      <c r="R10" s="32"/>
+      <c r="S10" s="32"/>
+      <c r="T10" s="19"/>
+    </row>
+    <row r="11" spans="1:20" s="16" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="T11" s="17" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="D12"/>
+      <c r="E12"/>
+      <c r="F12"/>
+      <c r="G12"/>
+      <c r="H12"/>
+      <c r="I12"/>
+      <c r="J12"/>
+      <c r="K12"/>
+      <c r="L12"/>
+      <c r="M12"/>
+      <c r="N12"/>
+      <c r="O12"/>
+      <c r="P12"/>
+      <c r="S12"/>
+      <c r="T12" s="8" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="B13" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="D13"/>
+      <c r="E13" t="s">
+        <v>20</v>
+      </c>
+      <c r="F13"/>
+      <c r="G13"/>
+      <c r="H13"/>
+      <c r="I13"/>
+      <c r="J13"/>
+      <c r="K13"/>
+      <c r="L13" t="s">
+        <v>21</v>
+      </c>
+      <c r="M13"/>
+      <c r="N13"/>
+      <c r="O13"/>
+      <c r="P13"/>
+      <c r="S13"/>
+      <c r="T13" t="s">
+        <v>22</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="23">
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="A8:Q8"/>
+    <mergeCell ref="R8:S8"/>
+    <mergeCell ref="A9:Q9"/>
+    <mergeCell ref="R9:S9"/>
+    <mergeCell ref="A10:Q10"/>
+    <mergeCell ref="R10:S10"/>
+    <mergeCell ref="N3:O3"/>
+    <mergeCell ref="P3:P4"/>
+    <mergeCell ref="Q3:Q4"/>
+    <mergeCell ref="R3:R4"/>
+    <mergeCell ref="S3:S4"/>
+    <mergeCell ref="T3:T4"/>
+    <mergeCell ref="A1:T1"/>
+    <mergeCell ref="A2:T2"/>
+    <mergeCell ref="A3:A4"/>
+    <mergeCell ref="B3:B4"/>
+    <mergeCell ref="C3:C4"/>
+    <mergeCell ref="D3:E3"/>
+    <mergeCell ref="F3:G3"/>
+    <mergeCell ref="H3:I3"/>
+    <mergeCell ref="J3:K3"/>
+    <mergeCell ref="L3:M3"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup scale="85" fitToHeight="0" orientation="landscape" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+</worksheet>
 </file>
--- a/ATV_Allowance/Templates/TemplatePTTT.xlsx
+++ b/ATV_Allowance/Templates/TemplatePTTT.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7020" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7020"/>
   </bookViews>
   <sheets>
     <sheet name="PV" sheetId="1" r:id="rId1"/>
@@ -358,6 +358,18 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -372,18 +384,6 @@
     </xf>
     <xf numFmtId="41" fontId="2" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -699,8 +699,8 @@
   </sheetPr>
   <dimension ref="A1:T13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B15" sqref="A1:XFD1048576"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A5" sqref="A5:XFD5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -716,107 +716,107 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:20" s="16" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="27" t="s">
+      <c r="A1" s="31" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="27"/>
-      <c r="C1" s="27"/>
-      <c r="D1" s="27"/>
-      <c r="E1" s="27"/>
-      <c r="F1" s="27"/>
-      <c r="G1" s="27"/>
-      <c r="H1" s="27"/>
-      <c r="I1" s="27"/>
-      <c r="J1" s="27"/>
-      <c r="K1" s="27"/>
-      <c r="L1" s="27"/>
-      <c r="M1" s="27"/>
-      <c r="N1" s="27"/>
-      <c r="O1" s="27"/>
-      <c r="P1" s="27"/>
-      <c r="Q1" s="27"/>
-      <c r="R1" s="27"/>
-      <c r="S1" s="27"/>
-      <c r="T1" s="27"/>
+      <c r="B1" s="31"/>
+      <c r="C1" s="31"/>
+      <c r="D1" s="31"/>
+      <c r="E1" s="31"/>
+      <c r="F1" s="31"/>
+      <c r="G1" s="31"/>
+      <c r="H1" s="31"/>
+      <c r="I1" s="31"/>
+      <c r="J1" s="31"/>
+      <c r="K1" s="31"/>
+      <c r="L1" s="31"/>
+      <c r="M1" s="31"/>
+      <c r="N1" s="31"/>
+      <c r="O1" s="31"/>
+      <c r="P1" s="31"/>
+      <c r="Q1" s="31"/>
+      <c r="R1" s="31"/>
+      <c r="S1" s="31"/>
+      <c r="T1" s="31"/>
     </row>
     <row r="2" spans="1:20" ht="21" x14ac:dyDescent="0.35">
-      <c r="A2" s="26" t="s">
+      <c r="A2" s="30" t="s">
         <v>23</v>
       </c>
-      <c r="B2" s="26"/>
-      <c r="C2" s="26"/>
-      <c r="D2" s="26"/>
-      <c r="E2" s="26"/>
-      <c r="F2" s="26"/>
-      <c r="G2" s="26"/>
-      <c r="H2" s="26"/>
-      <c r="I2" s="26"/>
-      <c r="J2" s="26"/>
-      <c r="K2" s="26"/>
-      <c r="L2" s="26"/>
-      <c r="M2" s="26"/>
-      <c r="N2" s="26"/>
-      <c r="O2" s="26"/>
-      <c r="P2" s="26"/>
-      <c r="Q2" s="26"/>
-      <c r="R2" s="26"/>
-      <c r="S2" s="26"/>
-      <c r="T2" s="26"/>
+      <c r="B2" s="30"/>
+      <c r="C2" s="30"/>
+      <c r="D2" s="30"/>
+      <c r="E2" s="30"/>
+      <c r="F2" s="30"/>
+      <c r="G2" s="30"/>
+      <c r="H2" s="30"/>
+      <c r="I2" s="30"/>
+      <c r="J2" s="30"/>
+      <c r="K2" s="30"/>
+      <c r="L2" s="30"/>
+      <c r="M2" s="30"/>
+      <c r="N2" s="30"/>
+      <c r="O2" s="30"/>
+      <c r="P2" s="30"/>
+      <c r="Q2" s="30"/>
+      <c r="R2" s="30"/>
+      <c r="S2" s="30"/>
+      <c r="T2" s="30"/>
     </row>
     <row r="3" spans="1:20" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="25" t="s">
+      <c r="A3" s="29" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="25" t="s">
+      <c r="B3" s="29" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="25" t="s">
+      <c r="C3" s="29" t="s">
         <v>3</v>
       </c>
-      <c r="D3" s="25" t="s">
+      <c r="D3" s="29" t="s">
         <v>4</v>
       </c>
-      <c r="E3" s="25"/>
-      <c r="F3" s="25" t="s">
+      <c r="E3" s="29"/>
+      <c r="F3" s="29" t="s">
         <v>5</v>
       </c>
-      <c r="G3" s="25"/>
-      <c r="H3" s="25" t="s">
+      <c r="G3" s="29"/>
+      <c r="H3" s="29" t="s">
         <v>6</v>
       </c>
-      <c r="I3" s="25"/>
-      <c r="J3" s="25" t="s">
+      <c r="I3" s="29"/>
+      <c r="J3" s="29" t="s">
         <v>7</v>
       </c>
-      <c r="K3" s="25"/>
-      <c r="L3" s="25" t="s">
+      <c r="K3" s="29"/>
+      <c r="L3" s="29" t="s">
         <v>8</v>
       </c>
-      <c r="M3" s="25"/>
-      <c r="N3" s="25" t="s">
+      <c r="M3" s="29"/>
+      <c r="N3" s="29" t="s">
         <v>9</v>
       </c>
-      <c r="O3" s="25"/>
-      <c r="P3" s="29" t="s">
+      <c r="O3" s="29"/>
+      <c r="P3" s="24" t="s">
         <v>24</v>
       </c>
-      <c r="Q3" s="25" t="s">
+      <c r="Q3" s="29" t="s">
         <v>10</v>
       </c>
-      <c r="R3" s="25" t="s">
+      <c r="R3" s="29" t="s">
         <v>11</v>
       </c>
-      <c r="S3" s="28" t="s">
+      <c r="S3" s="32" t="s">
         <v>12</v>
       </c>
-      <c r="T3" s="25" t="s">
+      <c r="T3" s="29" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="4" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A4" s="25"/>
-      <c r="B4" s="25"/>
-      <c r="C4" s="25"/>
+      <c r="A4" s="29"/>
+      <c r="B4" s="29"/>
+      <c r="C4" s="29"/>
       <c r="D4" s="10" t="s">
         <v>14</v>
       </c>
@@ -853,11 +853,11 @@
       <c r="O4" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="P4" s="30"/>
-      <c r="Q4" s="25"/>
-      <c r="R4" s="25"/>
-      <c r="S4" s="28"/>
-      <c r="T4" s="25"/>
+      <c r="P4" s="25"/>
+      <c r="Q4" s="29"/>
+      <c r="R4" s="29"/>
+      <c r="S4" s="32"/>
+      <c r="T4" s="29"/>
     </row>
     <row r="5" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A5" s="11"/>
@@ -883,10 +883,10 @@
     </row>
     <row r="6" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A6" s="3"/>
-      <c r="B6" s="24" t="s">
+      <c r="B6" s="28" t="s">
         <v>16</v>
       </c>
-      <c r="C6" s="24"/>
+      <c r="C6" s="28"/>
       <c r="D6" s="4"/>
       <c r="E6" s="4"/>
       <c r="F6" s="4"/>
@@ -928,75 +928,75 @@
       <c r="T7" s="19"/>
     </row>
     <row r="8" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A8" s="31" t="s">
+      <c r="A8" s="26" t="s">
         <v>25</v>
       </c>
-      <c r="B8" s="31"/>
-      <c r="C8" s="31"/>
-      <c r="D8" s="31"/>
-      <c r="E8" s="31"/>
-      <c r="F8" s="31"/>
-      <c r="G8" s="31"/>
-      <c r="H8" s="31"/>
-      <c r="I8" s="31"/>
-      <c r="J8" s="31"/>
-      <c r="K8" s="31"/>
-      <c r="L8" s="31"/>
-      <c r="M8" s="31"/>
-      <c r="N8" s="31"/>
-      <c r="O8" s="31"/>
-      <c r="P8" s="31"/>
-      <c r="Q8" s="31"/>
-      <c r="R8" s="32"/>
-      <c r="S8" s="32"/>
+      <c r="B8" s="26"/>
+      <c r="C8" s="26"/>
+      <c r="D8" s="26"/>
+      <c r="E8" s="26"/>
+      <c r="F8" s="26"/>
+      <c r="G8" s="26"/>
+      <c r="H8" s="26"/>
+      <c r="I8" s="26"/>
+      <c r="J8" s="26"/>
+      <c r="K8" s="26"/>
+      <c r="L8" s="26"/>
+      <c r="M8" s="26"/>
+      <c r="N8" s="26"/>
+      <c r="O8" s="26"/>
+      <c r="P8" s="26"/>
+      <c r="Q8" s="26"/>
+      <c r="R8" s="27"/>
+      <c r="S8" s="27"/>
       <c r="T8" s="18"/>
     </row>
     <row r="9" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A9" s="31" t="s">
+      <c r="A9" s="26" t="s">
         <v>26</v>
       </c>
-      <c r="B9" s="31"/>
-      <c r="C9" s="31"/>
-      <c r="D9" s="31"/>
-      <c r="E9" s="31"/>
-      <c r="F9" s="31"/>
-      <c r="G9" s="31"/>
-      <c r="H9" s="31"/>
-      <c r="I9" s="31"/>
-      <c r="J9" s="31"/>
-      <c r="K9" s="31"/>
-      <c r="L9" s="31"/>
-      <c r="M9" s="31"/>
-      <c r="N9" s="31"/>
-      <c r="O9" s="31"/>
-      <c r="P9" s="31"/>
-      <c r="Q9" s="31"/>
-      <c r="R9" s="32"/>
-      <c r="S9" s="32"/>
+      <c r="B9" s="26"/>
+      <c r="C9" s="26"/>
+      <c r="D9" s="26"/>
+      <c r="E9" s="26"/>
+      <c r="F9" s="26"/>
+      <c r="G9" s="26"/>
+      <c r="H9" s="26"/>
+      <c r="I9" s="26"/>
+      <c r="J9" s="26"/>
+      <c r="K9" s="26"/>
+      <c r="L9" s="26"/>
+      <c r="M9" s="26"/>
+      <c r="N9" s="26"/>
+      <c r="O9" s="26"/>
+      <c r="P9" s="26"/>
+      <c r="Q9" s="26"/>
+      <c r="R9" s="27"/>
+      <c r="S9" s="27"/>
       <c r="T9" s="18"/>
     </row>
     <row r="10" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A10" s="31" t="s">
+      <c r="A10" s="26" t="s">
         <v>27</v>
       </c>
-      <c r="B10" s="31"/>
-      <c r="C10" s="31"/>
-      <c r="D10" s="31"/>
-      <c r="E10" s="31"/>
-      <c r="F10" s="31"/>
-      <c r="G10" s="31"/>
-      <c r="H10" s="31"/>
-      <c r="I10" s="31"/>
-      <c r="J10" s="31"/>
-      <c r="K10" s="31"/>
-      <c r="L10" s="31"/>
-      <c r="M10" s="31"/>
-      <c r="N10" s="31"/>
-      <c r="O10" s="31"/>
-      <c r="P10" s="31"/>
-      <c r="Q10" s="31"/>
-      <c r="R10" s="32"/>
-      <c r="S10" s="32"/>
+      <c r="B10" s="26"/>
+      <c r="C10" s="26"/>
+      <c r="D10" s="26"/>
+      <c r="E10" s="26"/>
+      <c r="F10" s="26"/>
+      <c r="G10" s="26"/>
+      <c r="H10" s="26"/>
+      <c r="I10" s="26"/>
+      <c r="J10" s="26"/>
+      <c r="K10" s="26"/>
+      <c r="L10" s="26"/>
+      <c r="M10" s="26"/>
+      <c r="N10" s="26"/>
+      <c r="O10" s="26"/>
+      <c r="P10" s="26"/>
+      <c r="Q10" s="26"/>
+      <c r="R10" s="27"/>
+      <c r="S10" s="27"/>
       <c r="T10" s="19"/>
     </row>
     <row r="11" spans="1:20" s="16" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -1051,14 +1051,6 @@
     </row>
   </sheetData>
   <mergeCells count="23">
-    <mergeCell ref="P3:P4"/>
-    <mergeCell ref="A8:Q8"/>
-    <mergeCell ref="A9:Q9"/>
-    <mergeCell ref="A10:Q10"/>
-    <mergeCell ref="R8:S8"/>
-    <mergeCell ref="R9:S9"/>
-    <mergeCell ref="R10:S10"/>
-    <mergeCell ref="B6:C6"/>
     <mergeCell ref="T3:T4"/>
     <mergeCell ref="A2:T2"/>
     <mergeCell ref="A1:T1"/>
@@ -1074,6 +1066,14 @@
     <mergeCell ref="D3:E3"/>
     <mergeCell ref="F3:G3"/>
     <mergeCell ref="H3:I3"/>
+    <mergeCell ref="P3:P4"/>
+    <mergeCell ref="A8:Q8"/>
+    <mergeCell ref="A9:Q9"/>
+    <mergeCell ref="A10:Q10"/>
+    <mergeCell ref="R8:S8"/>
+    <mergeCell ref="R9:S9"/>
+    <mergeCell ref="R10:S10"/>
+    <mergeCell ref="B6:C6"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup scale="88" fitToHeight="0" orientation="landscape" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
@@ -1087,8 +1087,8 @@
   </sheetPr>
   <dimension ref="A1:T13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A5" sqref="A5:XFD5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1104,107 +1104,107 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:20" s="16" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="27" t="s">
+      <c r="A1" s="31" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="27"/>
-      <c r="C1" s="27"/>
-      <c r="D1" s="27"/>
-      <c r="E1" s="27"/>
-      <c r="F1" s="27"/>
-      <c r="G1" s="27"/>
-      <c r="H1" s="27"/>
-      <c r="I1" s="27"/>
-      <c r="J1" s="27"/>
-      <c r="K1" s="27"/>
-      <c r="L1" s="27"/>
-      <c r="M1" s="27"/>
-      <c r="N1" s="27"/>
-      <c r="O1" s="27"/>
-      <c r="P1" s="27"/>
-      <c r="Q1" s="27"/>
-      <c r="R1" s="27"/>
-      <c r="S1" s="27"/>
-      <c r="T1" s="27"/>
+      <c r="B1" s="31"/>
+      <c r="C1" s="31"/>
+      <c r="D1" s="31"/>
+      <c r="E1" s="31"/>
+      <c r="F1" s="31"/>
+      <c r="G1" s="31"/>
+      <c r="H1" s="31"/>
+      <c r="I1" s="31"/>
+      <c r="J1" s="31"/>
+      <c r="K1" s="31"/>
+      <c r="L1" s="31"/>
+      <c r="M1" s="31"/>
+      <c r="N1" s="31"/>
+      <c r="O1" s="31"/>
+      <c r="P1" s="31"/>
+      <c r="Q1" s="31"/>
+      <c r="R1" s="31"/>
+      <c r="S1" s="31"/>
+      <c r="T1" s="31"/>
     </row>
     <row r="2" spans="1:20" ht="21" x14ac:dyDescent="0.35">
-      <c r="A2" s="26" t="s">
+      <c r="A2" s="30" t="s">
         <v>23</v>
       </c>
-      <c r="B2" s="26"/>
-      <c r="C2" s="26"/>
-      <c r="D2" s="26"/>
-      <c r="E2" s="26"/>
-      <c r="F2" s="26"/>
-      <c r="G2" s="26"/>
-      <c r="H2" s="26"/>
-      <c r="I2" s="26"/>
-      <c r="J2" s="26"/>
-      <c r="K2" s="26"/>
-      <c r="L2" s="26"/>
-      <c r="M2" s="26"/>
-      <c r="N2" s="26"/>
-      <c r="O2" s="26"/>
-      <c r="P2" s="26"/>
-      <c r="Q2" s="26"/>
-      <c r="R2" s="26"/>
-      <c r="S2" s="26"/>
-      <c r="T2" s="26"/>
+      <c r="B2" s="30"/>
+      <c r="C2" s="30"/>
+      <c r="D2" s="30"/>
+      <c r="E2" s="30"/>
+      <c r="F2" s="30"/>
+      <c r="G2" s="30"/>
+      <c r="H2" s="30"/>
+      <c r="I2" s="30"/>
+      <c r="J2" s="30"/>
+      <c r="K2" s="30"/>
+      <c r="L2" s="30"/>
+      <c r="M2" s="30"/>
+      <c r="N2" s="30"/>
+      <c r="O2" s="30"/>
+      <c r="P2" s="30"/>
+      <c r="Q2" s="30"/>
+      <c r="R2" s="30"/>
+      <c r="S2" s="30"/>
+      <c r="T2" s="30"/>
     </row>
     <row r="3" spans="1:20" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="25" t="s">
+      <c r="A3" s="29" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="25" t="s">
+      <c r="B3" s="29" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="25" t="s">
+      <c r="C3" s="29" t="s">
         <v>3</v>
       </c>
-      <c r="D3" s="25" t="s">
+      <c r="D3" s="29" t="s">
         <v>4</v>
       </c>
-      <c r="E3" s="25"/>
-      <c r="F3" s="25" t="s">
+      <c r="E3" s="29"/>
+      <c r="F3" s="29" t="s">
         <v>5</v>
       </c>
-      <c r="G3" s="25"/>
-      <c r="H3" s="25" t="s">
+      <c r="G3" s="29"/>
+      <c r="H3" s="29" t="s">
         <v>6</v>
       </c>
-      <c r="I3" s="25"/>
-      <c r="J3" s="25" t="s">
+      <c r="I3" s="29"/>
+      <c r="J3" s="29" t="s">
         <v>7</v>
       </c>
-      <c r="K3" s="25"/>
-      <c r="L3" s="25" t="s">
+      <c r="K3" s="29"/>
+      <c r="L3" s="29" t="s">
         <v>8</v>
       </c>
-      <c r="M3" s="25"/>
-      <c r="N3" s="25" t="s">
+      <c r="M3" s="29"/>
+      <c r="N3" s="29" t="s">
         <v>9</v>
       </c>
-      <c r="O3" s="25"/>
-      <c r="P3" s="29" t="s">
+      <c r="O3" s="29"/>
+      <c r="P3" s="24" t="s">
         <v>24</v>
       </c>
-      <c r="Q3" s="25" t="s">
+      <c r="Q3" s="29" t="s">
         <v>10</v>
       </c>
-      <c r="R3" s="25" t="s">
+      <c r="R3" s="29" t="s">
         <v>11</v>
       </c>
-      <c r="S3" s="28" t="s">
+      <c r="S3" s="32" t="s">
         <v>12</v>
       </c>
-      <c r="T3" s="25" t="s">
+      <c r="T3" s="29" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="4" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A4" s="25"/>
-      <c r="B4" s="25"/>
-      <c r="C4" s="25"/>
+      <c r="A4" s="29"/>
+      <c r="B4" s="29"/>
+      <c r="C4" s="29"/>
       <c r="D4" s="23" t="s">
         <v>14</v>
       </c>
@@ -1241,11 +1241,11 @@
       <c r="O4" s="23" t="s">
         <v>15</v>
       </c>
-      <c r="P4" s="30"/>
-      <c r="Q4" s="25"/>
-      <c r="R4" s="25"/>
-      <c r="S4" s="28"/>
-      <c r="T4" s="25"/>
+      <c r="P4" s="25"/>
+      <c r="Q4" s="29"/>
+      <c r="R4" s="29"/>
+      <c r="S4" s="32"/>
+      <c r="T4" s="29"/>
     </row>
     <row r="5" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A5" s="11"/>
@@ -1271,10 +1271,10 @@
     </row>
     <row r="6" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A6" s="3"/>
-      <c r="B6" s="24" t="s">
+      <c r="B6" s="28" t="s">
         <v>16</v>
       </c>
-      <c r="C6" s="24"/>
+      <c r="C6" s="28"/>
       <c r="D6" s="9"/>
       <c r="E6" s="9"/>
       <c r="F6" s="9"/>
@@ -1316,75 +1316,75 @@
       <c r="T7" s="19"/>
     </row>
     <row r="8" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A8" s="31" t="s">
+      <c r="A8" s="26" t="s">
         <v>25</v>
       </c>
-      <c r="B8" s="31"/>
-      <c r="C8" s="31"/>
-      <c r="D8" s="31"/>
-      <c r="E8" s="31"/>
-      <c r="F8" s="31"/>
-      <c r="G8" s="31"/>
-      <c r="H8" s="31"/>
-      <c r="I8" s="31"/>
-      <c r="J8" s="31"/>
-      <c r="K8" s="31"/>
-      <c r="L8" s="31"/>
-      <c r="M8" s="31"/>
-      <c r="N8" s="31"/>
-      <c r="O8" s="31"/>
-      <c r="P8" s="31"/>
-      <c r="Q8" s="31"/>
-      <c r="R8" s="32"/>
-      <c r="S8" s="32"/>
+      <c r="B8" s="26"/>
+      <c r="C8" s="26"/>
+      <c r="D8" s="26"/>
+      <c r="E8" s="26"/>
+      <c r="F8" s="26"/>
+      <c r="G8" s="26"/>
+      <c r="H8" s="26"/>
+      <c r="I8" s="26"/>
+      <c r="J8" s="26"/>
+      <c r="K8" s="26"/>
+      <c r="L8" s="26"/>
+      <c r="M8" s="26"/>
+      <c r="N8" s="26"/>
+      <c r="O8" s="26"/>
+      <c r="P8" s="26"/>
+      <c r="Q8" s="26"/>
+      <c r="R8" s="27"/>
+      <c r="S8" s="27"/>
       <c r="T8" s="18"/>
     </row>
     <row r="9" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A9" s="31" t="s">
+      <c r="A9" s="26" t="s">
         <v>26</v>
       </c>
-      <c r="B9" s="31"/>
-      <c r="C9" s="31"/>
-      <c r="D9" s="31"/>
-      <c r="E9" s="31"/>
-      <c r="F9" s="31"/>
-      <c r="G9" s="31"/>
-      <c r="H9" s="31"/>
-      <c r="I9" s="31"/>
-      <c r="J9" s="31"/>
-      <c r="K9" s="31"/>
-      <c r="L9" s="31"/>
-      <c r="M9" s="31"/>
-      <c r="N9" s="31"/>
-      <c r="O9" s="31"/>
-      <c r="P9" s="31"/>
-      <c r="Q9" s="31"/>
-      <c r="R9" s="32"/>
-      <c r="S9" s="32"/>
+      <c r="B9" s="26"/>
+      <c r="C9" s="26"/>
+      <c r="D9" s="26"/>
+      <c r="E9" s="26"/>
+      <c r="F9" s="26"/>
+      <c r="G9" s="26"/>
+      <c r="H9" s="26"/>
+      <c r="I9" s="26"/>
+      <c r="J9" s="26"/>
+      <c r="K9" s="26"/>
+      <c r="L9" s="26"/>
+      <c r="M9" s="26"/>
+      <c r="N9" s="26"/>
+      <c r="O9" s="26"/>
+      <c r="P9" s="26"/>
+      <c r="Q9" s="26"/>
+      <c r="R9" s="27"/>
+      <c r="S9" s="27"/>
       <c r="T9" s="18"/>
     </row>
     <row r="10" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A10" s="31" t="s">
+      <c r="A10" s="26" t="s">
         <v>27</v>
       </c>
-      <c r="B10" s="31"/>
-      <c r="C10" s="31"/>
-      <c r="D10" s="31"/>
-      <c r="E10" s="31"/>
-      <c r="F10" s="31"/>
-      <c r="G10" s="31"/>
-      <c r="H10" s="31"/>
-      <c r="I10" s="31"/>
-      <c r="J10" s="31"/>
-      <c r="K10" s="31"/>
-      <c r="L10" s="31"/>
-      <c r="M10" s="31"/>
-      <c r="N10" s="31"/>
-      <c r="O10" s="31"/>
-      <c r="P10" s="31"/>
-      <c r="Q10" s="31"/>
-      <c r="R10" s="32"/>
-      <c r="S10" s="32"/>
+      <c r="B10" s="26"/>
+      <c r="C10" s="26"/>
+      <c r="D10" s="26"/>
+      <c r="E10" s="26"/>
+      <c r="F10" s="26"/>
+      <c r="G10" s="26"/>
+      <c r="H10" s="26"/>
+      <c r="I10" s="26"/>
+      <c r="J10" s="26"/>
+      <c r="K10" s="26"/>
+      <c r="L10" s="26"/>
+      <c r="M10" s="26"/>
+      <c r="N10" s="26"/>
+      <c r="O10" s="26"/>
+      <c r="P10" s="26"/>
+      <c r="Q10" s="26"/>
+      <c r="R10" s="27"/>
+      <c r="S10" s="27"/>
       <c r="T10" s="19"/>
     </row>
     <row r="11" spans="1:20" s="16" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -1439,18 +1439,6 @@
     </row>
   </sheetData>
   <mergeCells count="23">
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="A8:Q8"/>
-    <mergeCell ref="R8:S8"/>
-    <mergeCell ref="A9:Q9"/>
-    <mergeCell ref="R9:S9"/>
-    <mergeCell ref="A10:Q10"/>
-    <mergeCell ref="R10:S10"/>
-    <mergeCell ref="N3:O3"/>
-    <mergeCell ref="P3:P4"/>
-    <mergeCell ref="Q3:Q4"/>
-    <mergeCell ref="R3:R4"/>
-    <mergeCell ref="S3:S4"/>
     <mergeCell ref="T3:T4"/>
     <mergeCell ref="A1:T1"/>
     <mergeCell ref="A2:T2"/>
@@ -1462,6 +1450,18 @@
     <mergeCell ref="H3:I3"/>
     <mergeCell ref="J3:K3"/>
     <mergeCell ref="L3:M3"/>
+    <mergeCell ref="A10:Q10"/>
+    <mergeCell ref="R10:S10"/>
+    <mergeCell ref="N3:O3"/>
+    <mergeCell ref="P3:P4"/>
+    <mergeCell ref="Q3:Q4"/>
+    <mergeCell ref="R3:R4"/>
+    <mergeCell ref="S3:S4"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="A8:Q8"/>
+    <mergeCell ref="R8:S8"/>
+    <mergeCell ref="A9:Q9"/>
+    <mergeCell ref="R9:S9"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup scale="85" fitToHeight="0" orientation="landscape" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>

--- a/ATV_Allowance/Templates/TemplatePTTT.xlsx
+++ b/ATV_Allowance/Templates/TemplatePTTT.xlsx
@@ -96,6 +96,18 @@
     <t>Trưởng phòng</t>
   </si>
   <si>
+    <t>Trừ chỉ tiêu</t>
+  </si>
+  <si>
+    <t>Tổ bá âm: Thu tin qua điện thoại + Vận hành máy (25đ/1CT). Tổng cộng: 31 chương trình</t>
+  </si>
+  <si>
+    <t>Trích Ban Biên tập nội dung chương trình hàng ngày. Tổng cộng: 273,30 điểm</t>
+  </si>
+  <si>
+    <t>Tổng cộng</t>
+  </si>
+  <si>
     <r>
       <t xml:space="preserve">BẢNG TỔNG HỢP NHUẬN BÚT PHÁT THANH </t>
     </r>
@@ -103,11 +115,10 @@
       <rPr>
         <b/>
         <i/>
-        <sz val="16"/>
+        <sz val="20"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
       </rPr>
       <t>TRỰC TIẾP</t>
     </r>
@@ -123,18 +134,6 @@
       <t/>
     </r>
   </si>
-  <si>
-    <t>Trừ chỉ tiêu</t>
-  </si>
-  <si>
-    <t>Tổ bá âm: Thu tin qua điện thoại + Vận hành máy (25đ/1CT). Tổng cộng: 31 chương trình</t>
-  </si>
-  <si>
-    <t>Trích Ban Biên tập nội dung chương trình hàng ngày. Tổng cộng: 273,30 điểm</t>
-  </si>
-  <si>
-    <t>Tổng cộng</t>
-  </si>
 </sst>
 </file>
 
@@ -144,7 +143,7 @@
     <numFmt numFmtId="41" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -161,15 +160,7 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
+      <sz val="16"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -179,18 +170,65 @@
       <b/>
       <sz val="16"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="16"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
     </font>
     <font>
       <b/>
       <i/>
-      <sz val="16"/>
+      <sz val="18"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="20"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <b/>
+      <i/>
+      <sz val="20"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <b/>
+      <i/>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -301,88 +339,85 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="41" fontId="4" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="41" fontId="4" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="4" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="4" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="41" fontId="5" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="41" fontId="2" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -700,236 +735,249 @@
   <dimension ref="A1:T13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5:XFD5"/>
+      <selection activeCell="S5" sqref="S1:S1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="20.25" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="4.7109375" customWidth="1"/>
-    <col min="2" max="2" width="27.28515625" customWidth="1"/>
-    <col min="3" max="3" width="18.140625" customWidth="1"/>
-    <col min="4" max="16" width="4.28515625" style="1" customWidth="1"/>
-    <col min="17" max="17" width="6.28515625" customWidth="1"/>
-    <col min="18" max="18" width="6.42578125" customWidth="1"/>
-    <col min="19" max="19" width="13.140625" style="2" customWidth="1"/>
-    <col min="20" max="20" width="14.5703125" customWidth="1"/>
+    <col min="1" max="1" width="7" style="2" customWidth="1"/>
+    <col min="2" max="2" width="27.28515625" style="2" customWidth="1"/>
+    <col min="3" max="3" width="18.140625" style="2" customWidth="1"/>
+    <col min="4" max="4" width="4.28515625" style="17" customWidth="1"/>
+    <col min="5" max="5" width="6.7109375" style="17" customWidth="1"/>
+    <col min="6" max="6" width="4.28515625" style="17" customWidth="1"/>
+    <col min="7" max="7" width="6.7109375" style="17" customWidth="1"/>
+    <col min="8" max="8" width="4.28515625" style="17" customWidth="1"/>
+    <col min="9" max="9" width="6.7109375" style="17" customWidth="1"/>
+    <col min="10" max="10" width="4.28515625" style="17" customWidth="1"/>
+    <col min="11" max="11" width="6.7109375" style="17" customWidth="1"/>
+    <col min="12" max="12" width="4.28515625" style="17" customWidth="1"/>
+    <col min="13" max="13" width="6.7109375" style="17" customWidth="1"/>
+    <col min="14" max="14" width="4.28515625" style="17" customWidth="1"/>
+    <col min="15" max="15" width="6.7109375" style="17" customWidth="1"/>
+    <col min="16" max="16" width="6.5703125" style="17" customWidth="1"/>
+    <col min="17" max="17" width="7.28515625" style="2" customWidth="1"/>
+    <col min="18" max="18" width="7.5703125" style="2" customWidth="1"/>
+    <col min="19" max="19" width="16.7109375" style="18" customWidth="1"/>
+    <col min="20" max="20" width="14.5703125" style="2" customWidth="1"/>
+    <col min="21" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" s="16" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="31" t="s">
+    <row r="1" spans="1:20" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="30" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="31"/>
-      <c r="C1" s="31"/>
-      <c r="D1" s="31"/>
-      <c r="E1" s="31"/>
-      <c r="F1" s="31"/>
-      <c r="G1" s="31"/>
-      <c r="H1" s="31"/>
-      <c r="I1" s="31"/>
-      <c r="J1" s="31"/>
-      <c r="K1" s="31"/>
-      <c r="L1" s="31"/>
-      <c r="M1" s="31"/>
-      <c r="N1" s="31"/>
-      <c r="O1" s="31"/>
-      <c r="P1" s="31"/>
-      <c r="Q1" s="31"/>
-      <c r="R1" s="31"/>
-      <c r="S1" s="31"/>
-      <c r="T1" s="31"/>
-    </row>
-    <row r="2" spans="1:20" ht="21" x14ac:dyDescent="0.35">
-      <c r="A2" s="30" t="s">
+      <c r="B1" s="30"/>
+      <c r="C1" s="30"/>
+      <c r="D1" s="30"/>
+      <c r="E1" s="30"/>
+      <c r="F1" s="30"/>
+      <c r="G1" s="30"/>
+      <c r="H1" s="30"/>
+      <c r="I1" s="30"/>
+      <c r="J1" s="30"/>
+      <c r="K1" s="30"/>
+      <c r="L1" s="30"/>
+      <c r="M1" s="30"/>
+      <c r="N1" s="30"/>
+      <c r="O1" s="30"/>
+      <c r="P1" s="30"/>
+      <c r="Q1" s="30"/>
+      <c r="R1" s="30"/>
+      <c r="S1" s="30"/>
+      <c r="T1" s="30"/>
+    </row>
+    <row r="2" spans="1:20" ht="35.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="29" t="s">
+        <v>27</v>
+      </c>
+      <c r="B2" s="29"/>
+      <c r="C2" s="29"/>
+      <c r="D2" s="29"/>
+      <c r="E2" s="29"/>
+      <c r="F2" s="29"/>
+      <c r="G2" s="29"/>
+      <c r="H2" s="29"/>
+      <c r="I2" s="29"/>
+      <c r="J2" s="29"/>
+      <c r="K2" s="29"/>
+      <c r="L2" s="29"/>
+      <c r="M2" s="29"/>
+      <c r="N2" s="29"/>
+      <c r="O2" s="29"/>
+      <c r="P2" s="29"/>
+      <c r="Q2" s="29"/>
+      <c r="R2" s="29"/>
+      <c r="S2" s="29"/>
+      <c r="T2" s="29"/>
+    </row>
+    <row r="3" spans="1:20" s="19" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="28" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="28" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" s="28" t="s">
+        <v>3</v>
+      </c>
+      <c r="D3" s="28" t="s">
+        <v>4</v>
+      </c>
+      <c r="E3" s="28"/>
+      <c r="F3" s="28" t="s">
+        <v>5</v>
+      </c>
+      <c r="G3" s="28"/>
+      <c r="H3" s="28" t="s">
+        <v>6</v>
+      </c>
+      <c r="I3" s="28"/>
+      <c r="J3" s="28" t="s">
+        <v>7</v>
+      </c>
+      <c r="K3" s="28"/>
+      <c r="L3" s="28" t="s">
+        <v>8</v>
+      </c>
+      <c r="M3" s="28"/>
+      <c r="N3" s="28" t="s">
+        <v>9</v>
+      </c>
+      <c r="O3" s="28"/>
+      <c r="P3" s="32" t="s">
         <v>23</v>
       </c>
-      <c r="B2" s="30"/>
-      <c r="C2" s="30"/>
-      <c r="D2" s="30"/>
-      <c r="E2" s="30"/>
-      <c r="F2" s="30"/>
-      <c r="G2" s="30"/>
-      <c r="H2" s="30"/>
-      <c r="I2" s="30"/>
-      <c r="J2" s="30"/>
-      <c r="K2" s="30"/>
-      <c r="L2" s="30"/>
-      <c r="M2" s="30"/>
-      <c r="N2" s="30"/>
-      <c r="O2" s="30"/>
-      <c r="P2" s="30"/>
-      <c r="Q2" s="30"/>
-      <c r="R2" s="30"/>
-      <c r="S2" s="30"/>
-      <c r="T2" s="30"/>
-    </row>
-    <row r="3" spans="1:20" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="29" t="s">
-        <v>1</v>
-      </c>
-      <c r="B3" s="29" t="s">
-        <v>2</v>
-      </c>
-      <c r="C3" s="29" t="s">
-        <v>3</v>
-      </c>
-      <c r="D3" s="29" t="s">
-        <v>4</v>
-      </c>
-      <c r="E3" s="29"/>
-      <c r="F3" s="29" t="s">
-        <v>5</v>
-      </c>
-      <c r="G3" s="29"/>
-      <c r="H3" s="29" t="s">
-        <v>6</v>
-      </c>
-      <c r="I3" s="29"/>
-      <c r="J3" s="29" t="s">
-        <v>7</v>
-      </c>
-      <c r="K3" s="29"/>
-      <c r="L3" s="29" t="s">
-        <v>8</v>
-      </c>
-      <c r="M3" s="29"/>
-      <c r="N3" s="29" t="s">
-        <v>9</v>
-      </c>
-      <c r="O3" s="29"/>
-      <c r="P3" s="24" t="s">
+      <c r="Q3" s="28" t="s">
+        <v>10</v>
+      </c>
+      <c r="R3" s="28" t="s">
+        <v>11</v>
+      </c>
+      <c r="S3" s="31" t="s">
+        <v>12</v>
+      </c>
+      <c r="T3" s="28" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20" s="19" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="28"/>
+      <c r="B4" s="28"/>
+      <c r="C4" s="28"/>
+      <c r="D4" s="20" t="s">
+        <v>14</v>
+      </c>
+      <c r="E4" s="20" t="s">
+        <v>15</v>
+      </c>
+      <c r="F4" s="20" t="s">
+        <v>14</v>
+      </c>
+      <c r="G4" s="20" t="s">
+        <v>15</v>
+      </c>
+      <c r="H4" s="20" t="s">
+        <v>14</v>
+      </c>
+      <c r="I4" s="20" t="s">
+        <v>15</v>
+      </c>
+      <c r="J4" s="20" t="s">
+        <v>14</v>
+      </c>
+      <c r="K4" s="20" t="s">
+        <v>15</v>
+      </c>
+      <c r="L4" s="20" t="s">
+        <v>14</v>
+      </c>
+      <c r="M4" s="20" t="s">
+        <v>15</v>
+      </c>
+      <c r="N4" s="20" t="s">
+        <v>14</v>
+      </c>
+      <c r="O4" s="20" t="s">
+        <v>15</v>
+      </c>
+      <c r="P4" s="33"/>
+      <c r="Q4" s="28"/>
+      <c r="R4" s="28"/>
+      <c r="S4" s="31"/>
+      <c r="T4" s="28"/>
+    </row>
+    <row r="5" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A5" s="4"/>
+      <c r="B5" s="5"/>
+      <c r="C5" s="5"/>
+      <c r="D5" s="6"/>
+      <c r="E5" s="6"/>
+      <c r="F5" s="6"/>
+      <c r="G5" s="6"/>
+      <c r="H5" s="6"/>
+      <c r="I5" s="6"/>
+      <c r="J5" s="6"/>
+      <c r="K5" s="6"/>
+      <c r="L5" s="6"/>
+      <c r="M5" s="6"/>
+      <c r="N5" s="6"/>
+      <c r="O5" s="6"/>
+      <c r="P5" s="6"/>
+      <c r="Q5" s="6"/>
+      <c r="R5" s="6"/>
+      <c r="S5" s="7"/>
+      <c r="T5" s="3"/>
+    </row>
+    <row r="6" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A6" s="8"/>
+      <c r="B6" s="25" t="s">
+        <v>16</v>
+      </c>
+      <c r="C6" s="25"/>
+      <c r="D6" s="9"/>
+      <c r="E6" s="9"/>
+      <c r="F6" s="9"/>
+      <c r="G6" s="9"/>
+      <c r="H6" s="9"/>
+      <c r="I6" s="9"/>
+      <c r="J6" s="9"/>
+      <c r="K6" s="9"/>
+      <c r="L6" s="9"/>
+      <c r="M6" s="9"/>
+      <c r="N6" s="9"/>
+      <c r="O6" s="9"/>
+      <c r="P6" s="9"/>
+      <c r="Q6" s="10"/>
+      <c r="R6" s="10"/>
+      <c r="S6" s="11"/>
+      <c r="T6" s="12"/>
+    </row>
+    <row r="7" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A7" s="13"/>
+      <c r="B7" s="14"/>
+      <c r="C7" s="14"/>
+      <c r="D7" s="15"/>
+      <c r="E7" s="15"/>
+      <c r="F7" s="15"/>
+      <c r="G7" s="15"/>
+      <c r="H7" s="15"/>
+      <c r="I7" s="15"/>
+      <c r="J7" s="15"/>
+      <c r="K7" s="15"/>
+      <c r="L7" s="15"/>
+      <c r="M7" s="15"/>
+      <c r="N7" s="15"/>
+      <c r="O7" s="15"/>
+      <c r="P7" s="15"/>
+      <c r="Q7" s="13"/>
+      <c r="R7" s="13"/>
+      <c r="S7" s="16"/>
+      <c r="T7" s="13"/>
+    </row>
+    <row r="8" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A8" s="26" t="s">
         <v>24</v>
-      </c>
-      <c r="Q3" s="29" t="s">
-        <v>10</v>
-      </c>
-      <c r="R3" s="29" t="s">
-        <v>11</v>
-      </c>
-      <c r="S3" s="32" t="s">
-        <v>12</v>
-      </c>
-      <c r="T3" s="29" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="4" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A4" s="29"/>
-      <c r="B4" s="29"/>
-      <c r="C4" s="29"/>
-      <c r="D4" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="E4" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="F4" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="G4" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="H4" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="I4" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="J4" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="K4" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="L4" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="M4" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="N4" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="O4" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="P4" s="25"/>
-      <c r="Q4" s="29"/>
-      <c r="R4" s="29"/>
-      <c r="S4" s="32"/>
-      <c r="T4" s="29"/>
-    </row>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A5" s="11"/>
-      <c r="B5" s="12"/>
-      <c r="C5" s="12"/>
-      <c r="D5" s="13"/>
-      <c r="E5" s="13"/>
-      <c r="F5" s="13"/>
-      <c r="G5" s="13"/>
-      <c r="H5" s="13"/>
-      <c r="I5" s="13"/>
-      <c r="J5" s="13"/>
-      <c r="K5" s="13"/>
-      <c r="L5" s="13"/>
-      <c r="M5" s="13"/>
-      <c r="N5" s="13"/>
-      <c r="O5" s="13"/>
-      <c r="P5" s="13"/>
-      <c r="Q5" s="13"/>
-      <c r="R5" s="13"/>
-      <c r="S5" s="14"/>
-      <c r="T5" s="15"/>
-    </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A6" s="3"/>
-      <c r="B6" s="28" t="s">
-        <v>16</v>
-      </c>
-      <c r="C6" s="28"/>
-      <c r="D6" s="4"/>
-      <c r="E6" s="4"/>
-      <c r="F6" s="4"/>
-      <c r="G6" s="4"/>
-      <c r="H6" s="4"/>
-      <c r="I6" s="4"/>
-      <c r="J6" s="4"/>
-      <c r="K6" s="4"/>
-      <c r="L6" s="4"/>
-      <c r="M6" s="4"/>
-      <c r="N6" s="4"/>
-      <c r="O6" s="4"/>
-      <c r="P6" s="9"/>
-      <c r="Q6" s="5"/>
-      <c r="R6" s="5"/>
-      <c r="S6" s="6"/>
-      <c r="T6" s="18"/>
-    </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A7" s="19"/>
-      <c r="B7" s="20"/>
-      <c r="C7" s="20"/>
-      <c r="D7" s="21"/>
-      <c r="E7" s="21"/>
-      <c r="F7" s="21"/>
-      <c r="G7" s="21"/>
-      <c r="H7" s="21"/>
-      <c r="I7" s="21"/>
-      <c r="J7" s="21"/>
-      <c r="K7" s="21"/>
-      <c r="L7" s="21"/>
-      <c r="M7" s="21"/>
-      <c r="N7" s="21"/>
-      <c r="O7" s="21"/>
-      <c r="P7" s="21"/>
-      <c r="Q7" s="19"/>
-      <c r="R7" s="19"/>
-      <c r="S7" s="22"/>
-      <c r="T7" s="19"/>
-    </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A8" s="26" t="s">
-        <v>25</v>
       </c>
       <c r="B8" s="26"/>
       <c r="C8" s="26"/>
@@ -949,11 +997,11 @@
       <c r="Q8" s="26"/>
       <c r="R8" s="27"/>
       <c r="S8" s="27"/>
-      <c r="T8" s="18"/>
-    </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="T8" s="12"/>
+    </row>
+    <row r="9" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A9" s="26" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B9" s="26"/>
       <c r="C9" s="26"/>
@@ -973,11 +1021,11 @@
       <c r="Q9" s="26"/>
       <c r="R9" s="27"/>
       <c r="S9" s="27"/>
-      <c r="T9" s="18"/>
-    </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="T9" s="12"/>
+    </row>
+    <row r="10" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A10" s="26" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B10" s="26"/>
       <c r="C10" s="26"/>
@@ -997,55 +1045,43 @@
       <c r="Q10" s="26"/>
       <c r="R10" s="27"/>
       <c r="S10" s="27"/>
-      <c r="T10" s="19"/>
-    </row>
-    <row r="11" spans="1:20" s="16" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="T11" s="17" t="s">
+      <c r="T10" s="13"/>
+    </row>
+    <row r="11" spans="1:20" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="T11" s="21" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="D12"/>
-      <c r="E12"/>
-      <c r="F12"/>
-      <c r="G12"/>
-      <c r="H12"/>
-      <c r="I12"/>
-      <c r="J12"/>
-      <c r="K12"/>
-      <c r="L12"/>
-      <c r="M12"/>
-      <c r="N12"/>
-      <c r="O12"/>
-      <c r="P12"/>
-      <c r="S12"/>
-      <c r="T12" s="8" t="s">
+    <row r="12" spans="1:20" ht="25.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="D12" s="2"/>
+      <c r="E12" s="2"/>
+      <c r="F12" s="2"/>
+      <c r="G12" s="2"/>
+      <c r="H12" s="2"/>
+      <c r="I12" s="2"/>
+      <c r="J12" s="2"/>
+      <c r="K12" s="2"/>
+      <c r="L12" s="2"/>
+      <c r="M12" s="2"/>
+      <c r="N12" s="2"/>
+      <c r="O12" s="2"/>
+      <c r="P12" s="2"/>
+      <c r="S12" s="2"/>
+      <c r="T12" s="22" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="B13" s="7" t="s">
+    <row r="13" spans="1:20" s="23" customFormat="1" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B13" s="24" t="s">
         <v>19</v>
       </c>
-      <c r="D13"/>
-      <c r="E13" t="s">
+      <c r="E13" s="23" t="s">
         <v>20</v>
       </c>
-      <c r="F13"/>
-      <c r="G13"/>
-      <c r="H13"/>
-      <c r="I13"/>
-      <c r="J13"/>
-      <c r="K13"/>
-      <c r="L13" t="s">
+      <c r="L13" s="23" t="s">
         <v>21</v>
       </c>
-      <c r="M13"/>
-      <c r="N13"/>
-      <c r="O13"/>
-      <c r="P13"/>
-      <c r="S13"/>
-      <c r="T13" t="s">
+      <c r="T13" s="24" t="s">
         <v>22</v>
       </c>
     </row>
@@ -1067,13 +1103,13 @@
     <mergeCell ref="F3:G3"/>
     <mergeCell ref="H3:I3"/>
     <mergeCell ref="P3:P4"/>
+    <mergeCell ref="B6:C6"/>
     <mergeCell ref="A8:Q8"/>
     <mergeCell ref="A9:Q9"/>
     <mergeCell ref="A10:Q10"/>
     <mergeCell ref="R8:S8"/>
     <mergeCell ref="R9:S9"/>
     <mergeCell ref="R10:S10"/>
-    <mergeCell ref="B6:C6"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup scale="88" fitToHeight="0" orientation="landscape" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
@@ -1088,193 +1124,206 @@
   <dimension ref="A1:T13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A5" sqref="A5:XFD5"/>
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="20.25" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="4.7109375" customWidth="1"/>
-    <col min="2" max="2" width="27.28515625" customWidth="1"/>
-    <col min="3" max="3" width="18.140625" customWidth="1"/>
-    <col min="4" max="16" width="4.28515625" style="1" customWidth="1"/>
-    <col min="17" max="17" width="6.28515625" customWidth="1"/>
-    <col min="18" max="18" width="6.42578125" customWidth="1"/>
-    <col min="19" max="19" width="13.140625" style="2" customWidth="1"/>
-    <col min="20" max="20" width="14.5703125" customWidth="1"/>
+    <col min="1" max="1" width="7" style="2" customWidth="1"/>
+    <col min="2" max="2" width="27.28515625" style="2" customWidth="1"/>
+    <col min="3" max="3" width="18.140625" style="2" customWidth="1"/>
+    <col min="4" max="4" width="4.28515625" style="17" customWidth="1"/>
+    <col min="5" max="5" width="6.7109375" style="17" customWidth="1"/>
+    <col min="6" max="6" width="4.28515625" style="17" customWidth="1"/>
+    <col min="7" max="7" width="6.7109375" style="17" customWidth="1"/>
+    <col min="8" max="8" width="4.28515625" style="17" customWidth="1"/>
+    <col min="9" max="9" width="6.7109375" style="17" customWidth="1"/>
+    <col min="10" max="10" width="4.28515625" style="17" customWidth="1"/>
+    <col min="11" max="11" width="6.7109375" style="17" customWidth="1"/>
+    <col min="12" max="12" width="4.28515625" style="17" customWidth="1"/>
+    <col min="13" max="13" width="6.7109375" style="17" customWidth="1"/>
+    <col min="14" max="14" width="4.28515625" style="17" customWidth="1"/>
+    <col min="15" max="15" width="6.7109375" style="17" customWidth="1"/>
+    <col min="16" max="16" width="6.5703125" style="17" customWidth="1"/>
+    <col min="17" max="17" width="7.28515625" style="2" customWidth="1"/>
+    <col min="18" max="18" width="7.5703125" style="2" customWidth="1"/>
+    <col min="19" max="19" width="16.7109375" style="18" customWidth="1"/>
+    <col min="20" max="20" width="14.5703125" style="2" customWidth="1"/>
+    <col min="21" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" s="16" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="31" t="s">
+    <row r="1" spans="1:20" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="30" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="31"/>
-      <c r="C1" s="31"/>
-      <c r="D1" s="31"/>
-      <c r="E1" s="31"/>
-      <c r="F1" s="31"/>
-      <c r="G1" s="31"/>
-      <c r="H1" s="31"/>
-      <c r="I1" s="31"/>
-      <c r="J1" s="31"/>
-      <c r="K1" s="31"/>
-      <c r="L1" s="31"/>
-      <c r="M1" s="31"/>
-      <c r="N1" s="31"/>
-      <c r="O1" s="31"/>
-      <c r="P1" s="31"/>
-      <c r="Q1" s="31"/>
-      <c r="R1" s="31"/>
-      <c r="S1" s="31"/>
-      <c r="T1" s="31"/>
-    </row>
-    <row r="2" spans="1:20" ht="21" x14ac:dyDescent="0.35">
-      <c r="A2" s="30" t="s">
+      <c r="B1" s="30"/>
+      <c r="C1" s="30"/>
+      <c r="D1" s="30"/>
+      <c r="E1" s="30"/>
+      <c r="F1" s="30"/>
+      <c r="G1" s="30"/>
+      <c r="H1" s="30"/>
+      <c r="I1" s="30"/>
+      <c r="J1" s="30"/>
+      <c r="K1" s="30"/>
+      <c r="L1" s="30"/>
+      <c r="M1" s="30"/>
+      <c r="N1" s="30"/>
+      <c r="O1" s="30"/>
+      <c r="P1" s="30"/>
+      <c r="Q1" s="30"/>
+      <c r="R1" s="30"/>
+      <c r="S1" s="30"/>
+      <c r="T1" s="30"/>
+    </row>
+    <row r="2" spans="1:20" ht="35.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="29" t="s">
+        <v>27</v>
+      </c>
+      <c r="B2" s="29"/>
+      <c r="C2" s="29"/>
+      <c r="D2" s="29"/>
+      <c r="E2" s="29"/>
+      <c r="F2" s="29"/>
+      <c r="G2" s="29"/>
+      <c r="H2" s="29"/>
+      <c r="I2" s="29"/>
+      <c r="J2" s="29"/>
+      <c r="K2" s="29"/>
+      <c r="L2" s="29"/>
+      <c r="M2" s="29"/>
+      <c r="N2" s="29"/>
+      <c r="O2" s="29"/>
+      <c r="P2" s="29"/>
+      <c r="Q2" s="29"/>
+      <c r="R2" s="29"/>
+      <c r="S2" s="29"/>
+      <c r="T2" s="29"/>
+    </row>
+    <row r="3" spans="1:20" s="19" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="28" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="28" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" s="28" t="s">
+        <v>3</v>
+      </c>
+      <c r="D3" s="28" t="s">
+        <v>4</v>
+      </c>
+      <c r="E3" s="28"/>
+      <c r="F3" s="28" t="s">
+        <v>5</v>
+      </c>
+      <c r="G3" s="28"/>
+      <c r="H3" s="28" t="s">
+        <v>6</v>
+      </c>
+      <c r="I3" s="28"/>
+      <c r="J3" s="28" t="s">
+        <v>7</v>
+      </c>
+      <c r="K3" s="28"/>
+      <c r="L3" s="28" t="s">
+        <v>8</v>
+      </c>
+      <c r="M3" s="28"/>
+      <c r="N3" s="28" t="s">
+        <v>9</v>
+      </c>
+      <c r="O3" s="28"/>
+      <c r="P3" s="32" t="s">
         <v>23</v>
       </c>
-      <c r="B2" s="30"/>
-      <c r="C2" s="30"/>
-      <c r="D2" s="30"/>
-      <c r="E2" s="30"/>
-      <c r="F2" s="30"/>
-      <c r="G2" s="30"/>
-      <c r="H2" s="30"/>
-      <c r="I2" s="30"/>
-      <c r="J2" s="30"/>
-      <c r="K2" s="30"/>
-      <c r="L2" s="30"/>
-      <c r="M2" s="30"/>
-      <c r="N2" s="30"/>
-      <c r="O2" s="30"/>
-      <c r="P2" s="30"/>
-      <c r="Q2" s="30"/>
-      <c r="R2" s="30"/>
-      <c r="S2" s="30"/>
-      <c r="T2" s="30"/>
-    </row>
-    <row r="3" spans="1:20" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="29" t="s">
-        <v>1</v>
-      </c>
-      <c r="B3" s="29" t="s">
-        <v>2</v>
-      </c>
-      <c r="C3" s="29" t="s">
-        <v>3</v>
-      </c>
-      <c r="D3" s="29" t="s">
-        <v>4</v>
-      </c>
-      <c r="E3" s="29"/>
-      <c r="F3" s="29" t="s">
-        <v>5</v>
-      </c>
-      <c r="G3" s="29"/>
-      <c r="H3" s="29" t="s">
-        <v>6</v>
-      </c>
-      <c r="I3" s="29"/>
-      <c r="J3" s="29" t="s">
-        <v>7</v>
-      </c>
-      <c r="K3" s="29"/>
-      <c r="L3" s="29" t="s">
-        <v>8</v>
-      </c>
-      <c r="M3" s="29"/>
-      <c r="N3" s="29" t="s">
-        <v>9</v>
-      </c>
-      <c r="O3" s="29"/>
-      <c r="P3" s="24" t="s">
-        <v>24</v>
-      </c>
-      <c r="Q3" s="29" t="s">
+      <c r="Q3" s="28" t="s">
         <v>10</v>
       </c>
-      <c r="R3" s="29" t="s">
+      <c r="R3" s="28" t="s">
         <v>11</v>
       </c>
-      <c r="S3" s="32" t="s">
+      <c r="S3" s="31" t="s">
         <v>12</v>
       </c>
-      <c r="T3" s="29" t="s">
+      <c r="T3" s="28" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="4" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A4" s="29"/>
-      <c r="B4" s="29"/>
-      <c r="C4" s="29"/>
-      <c r="D4" s="23" t="s">
+    <row r="4" spans="1:20" s="19" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="28"/>
+      <c r="B4" s="28"/>
+      <c r="C4" s="28"/>
+      <c r="D4" s="20" t="s">
         <v>14</v>
       </c>
-      <c r="E4" s="23" t="s">
+      <c r="E4" s="20" t="s">
         <v>15</v>
       </c>
-      <c r="F4" s="23" t="s">
+      <c r="F4" s="20" t="s">
         <v>14</v>
       </c>
-      <c r="G4" s="23" t="s">
+      <c r="G4" s="20" t="s">
         <v>15</v>
       </c>
-      <c r="H4" s="23" t="s">
+      <c r="H4" s="20" t="s">
         <v>14</v>
       </c>
-      <c r="I4" s="23" t="s">
+      <c r="I4" s="20" t="s">
         <v>15</v>
       </c>
-      <c r="J4" s="23" t="s">
+      <c r="J4" s="20" t="s">
         <v>14</v>
       </c>
-      <c r="K4" s="23" t="s">
+      <c r="K4" s="20" t="s">
         <v>15</v>
       </c>
-      <c r="L4" s="23" t="s">
+      <c r="L4" s="20" t="s">
         <v>14</v>
       </c>
-      <c r="M4" s="23" t="s">
+      <c r="M4" s="20" t="s">
         <v>15</v>
       </c>
-      <c r="N4" s="23" t="s">
+      <c r="N4" s="20" t="s">
         <v>14</v>
       </c>
-      <c r="O4" s="23" t="s">
+      <c r="O4" s="20" t="s">
         <v>15</v>
       </c>
-      <c r="P4" s="25"/>
-      <c r="Q4" s="29"/>
-      <c r="R4" s="29"/>
-      <c r="S4" s="32"/>
-      <c r="T4" s="29"/>
-    </row>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A5" s="11"/>
-      <c r="B5" s="12"/>
-      <c r="C5" s="12"/>
-      <c r="D5" s="13"/>
-      <c r="E5" s="13"/>
-      <c r="F5" s="13"/>
-      <c r="G5" s="13"/>
-      <c r="H5" s="13"/>
-      <c r="I5" s="13"/>
-      <c r="J5" s="13"/>
-      <c r="K5" s="13"/>
-      <c r="L5" s="13"/>
-      <c r="M5" s="13"/>
-      <c r="N5" s="13"/>
-      <c r="O5" s="13"/>
-      <c r="P5" s="13"/>
-      <c r="Q5" s="13"/>
-      <c r="R5" s="13"/>
-      <c r="S5" s="14"/>
-      <c r="T5" s="23"/>
-    </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A6" s="3"/>
-      <c r="B6" s="28" t="s">
+      <c r="P4" s="33"/>
+      <c r="Q4" s="28"/>
+      <c r="R4" s="28"/>
+      <c r="S4" s="31"/>
+      <c r="T4" s="28"/>
+    </row>
+    <row r="5" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A5" s="4"/>
+      <c r="B5" s="5"/>
+      <c r="C5" s="5"/>
+      <c r="D5" s="6"/>
+      <c r="E5" s="6"/>
+      <c r="F5" s="6"/>
+      <c r="G5" s="6"/>
+      <c r="H5" s="6"/>
+      <c r="I5" s="6"/>
+      <c r="J5" s="6"/>
+      <c r="K5" s="6"/>
+      <c r="L5" s="6"/>
+      <c r="M5" s="6"/>
+      <c r="N5" s="6"/>
+      <c r="O5" s="6"/>
+      <c r="P5" s="6"/>
+      <c r="Q5" s="6"/>
+      <c r="R5" s="6"/>
+      <c r="S5" s="7"/>
+      <c r="T5" s="3"/>
+    </row>
+    <row r="6" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A6" s="8"/>
+      <c r="B6" s="25" t="s">
         <v>16</v>
       </c>
-      <c r="C6" s="28"/>
+      <c r="C6" s="25"/>
       <c r="D6" s="9"/>
       <c r="E6" s="9"/>
       <c r="F6" s="9"/>
@@ -1288,36 +1337,36 @@
       <c r="N6" s="9"/>
       <c r="O6" s="9"/>
       <c r="P6" s="9"/>
-      <c r="Q6" s="5"/>
-      <c r="R6" s="5"/>
-      <c r="S6" s="6"/>
-      <c r="T6" s="18"/>
-    </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A7" s="19"/>
-      <c r="B7" s="20"/>
-      <c r="C7" s="20"/>
-      <c r="D7" s="21"/>
-      <c r="E7" s="21"/>
-      <c r="F7" s="21"/>
-      <c r="G7" s="21"/>
-      <c r="H7" s="21"/>
-      <c r="I7" s="21"/>
-      <c r="J7" s="21"/>
-      <c r="K7" s="21"/>
-      <c r="L7" s="21"/>
-      <c r="M7" s="21"/>
-      <c r="N7" s="21"/>
-      <c r="O7" s="21"/>
-      <c r="P7" s="21"/>
-      <c r="Q7" s="19"/>
-      <c r="R7" s="19"/>
-      <c r="S7" s="22"/>
-      <c r="T7" s="19"/>
-    </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="Q6" s="10"/>
+      <c r="R6" s="10"/>
+      <c r="S6" s="11"/>
+      <c r="T6" s="12"/>
+    </row>
+    <row r="7" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A7" s="13"/>
+      <c r="B7" s="14"/>
+      <c r="C7" s="14"/>
+      <c r="D7" s="15"/>
+      <c r="E7" s="15"/>
+      <c r="F7" s="15"/>
+      <c r="G7" s="15"/>
+      <c r="H7" s="15"/>
+      <c r="I7" s="15"/>
+      <c r="J7" s="15"/>
+      <c r="K7" s="15"/>
+      <c r="L7" s="15"/>
+      <c r="M7" s="15"/>
+      <c r="N7" s="15"/>
+      <c r="O7" s="15"/>
+      <c r="P7" s="15"/>
+      <c r="Q7" s="13"/>
+      <c r="R7" s="13"/>
+      <c r="S7" s="16"/>
+      <c r="T7" s="13"/>
+    </row>
+    <row r="8" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A8" s="26" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B8" s="26"/>
       <c r="C8" s="26"/>
@@ -1337,11 +1386,11 @@
       <c r="Q8" s="26"/>
       <c r="R8" s="27"/>
       <c r="S8" s="27"/>
-      <c r="T8" s="18"/>
-    </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="T8" s="12"/>
+    </row>
+    <row r="9" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A9" s="26" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B9" s="26"/>
       <c r="C9" s="26"/>
@@ -1361,11 +1410,11 @@
       <c r="Q9" s="26"/>
       <c r="R9" s="27"/>
       <c r="S9" s="27"/>
-      <c r="T9" s="18"/>
-    </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="T9" s="12"/>
+    </row>
+    <row r="10" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A10" s="26" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B10" s="26"/>
       <c r="C10" s="26"/>
@@ -1385,55 +1434,43 @@
       <c r="Q10" s="26"/>
       <c r="R10" s="27"/>
       <c r="S10" s="27"/>
-      <c r="T10" s="19"/>
-    </row>
-    <row r="11" spans="1:20" s="16" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="T11" s="17" t="s">
+      <c r="T10" s="13"/>
+    </row>
+    <row r="11" spans="1:20" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="T11" s="21" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="D12"/>
-      <c r="E12"/>
-      <c r="F12"/>
-      <c r="G12"/>
-      <c r="H12"/>
-      <c r="I12"/>
-      <c r="J12"/>
-      <c r="K12"/>
-      <c r="L12"/>
-      <c r="M12"/>
-      <c r="N12"/>
-      <c r="O12"/>
-      <c r="P12"/>
-      <c r="S12"/>
-      <c r="T12" s="8" t="s">
+    <row r="12" spans="1:20" ht="25.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="D12" s="2"/>
+      <c r="E12" s="2"/>
+      <c r="F12" s="2"/>
+      <c r="G12" s="2"/>
+      <c r="H12" s="2"/>
+      <c r="I12" s="2"/>
+      <c r="J12" s="2"/>
+      <c r="K12" s="2"/>
+      <c r="L12" s="2"/>
+      <c r="M12" s="2"/>
+      <c r="N12" s="2"/>
+      <c r="O12" s="2"/>
+      <c r="P12" s="2"/>
+      <c r="S12" s="2"/>
+      <c r="T12" s="22" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="B13" s="7" t="s">
+    <row r="13" spans="1:20" s="23" customFormat="1" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B13" s="24" t="s">
         <v>19</v>
       </c>
-      <c r="D13"/>
-      <c r="E13" t="s">
+      <c r="E13" s="23" t="s">
         <v>20</v>
       </c>
-      <c r="F13"/>
-      <c r="G13"/>
-      <c r="H13"/>
-      <c r="I13"/>
-      <c r="J13"/>
-      <c r="K13"/>
-      <c r="L13" t="s">
+      <c r="L13" s="23" t="s">
         <v>21</v>
       </c>
-      <c r="M13"/>
-      <c r="N13"/>
-      <c r="O13"/>
-      <c r="P13"/>
-      <c r="S13"/>
-      <c r="T13" t="s">
+      <c r="T13" s="24" t="s">
         <v>22</v>
       </c>
     </row>

--- a/ATV_Allowance/Templates/TemplatePTTT.xlsx
+++ b/ATV_Allowance/Templates/TemplatePTTT.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7020"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7020" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="PV" sheetId="1" r:id="rId1"/>
@@ -339,7 +339,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
@@ -357,15 +357,11 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="41" fontId="4" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="41" fontId="4" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -374,11 +370,9 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="41" fontId="4" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="41" fontId="4" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -393,6 +387,24 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="41" fontId="5" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -402,24 +414,16 @@
     <xf numFmtId="41" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="41" fontId="5" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
+    <xf numFmtId="41" fontId="3" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="41" fontId="3" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="41" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="41" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Currency" xfId="1" builtinId="4"/>
@@ -734,7 +738,7 @@
   </sheetPr>
   <dimension ref="A1:T13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="S5" sqref="S1:S1048576"/>
     </sheetView>
   </sheetViews>
@@ -743,169 +747,169 @@
     <col min="1" max="1" width="7" style="2" customWidth="1"/>
     <col min="2" max="2" width="27.28515625" style="2" customWidth="1"/>
     <col min="3" max="3" width="18.140625" style="2" customWidth="1"/>
-    <col min="4" max="4" width="4.28515625" style="17" customWidth="1"/>
-    <col min="5" max="5" width="6.7109375" style="17" customWidth="1"/>
-    <col min="6" max="6" width="4.28515625" style="17" customWidth="1"/>
-    <col min="7" max="7" width="6.7109375" style="17" customWidth="1"/>
-    <col min="8" max="8" width="4.28515625" style="17" customWidth="1"/>
-    <col min="9" max="9" width="6.7109375" style="17" customWidth="1"/>
-    <col min="10" max="10" width="4.28515625" style="17" customWidth="1"/>
-    <col min="11" max="11" width="6.7109375" style="17" customWidth="1"/>
-    <col min="12" max="12" width="4.28515625" style="17" customWidth="1"/>
-    <col min="13" max="13" width="6.7109375" style="17" customWidth="1"/>
-    <col min="14" max="14" width="4.28515625" style="17" customWidth="1"/>
-    <col min="15" max="15" width="6.7109375" style="17" customWidth="1"/>
-    <col min="16" max="16" width="6.5703125" style="17" customWidth="1"/>
+    <col min="4" max="4" width="4.28515625" style="14" customWidth="1"/>
+    <col min="5" max="5" width="6.7109375" style="14" customWidth="1"/>
+    <col min="6" max="6" width="4.28515625" style="14" customWidth="1"/>
+    <col min="7" max="7" width="6.7109375" style="14" customWidth="1"/>
+    <col min="8" max="8" width="4.28515625" style="14" customWidth="1"/>
+    <col min="9" max="9" width="6.7109375" style="14" customWidth="1"/>
+    <col min="10" max="10" width="4.28515625" style="14" customWidth="1"/>
+    <col min="11" max="11" width="6.7109375" style="14" customWidth="1"/>
+    <col min="12" max="12" width="4.28515625" style="14" customWidth="1"/>
+    <col min="13" max="13" width="6.7109375" style="14" customWidth="1"/>
+    <col min="14" max="14" width="4.28515625" style="14" customWidth="1"/>
+    <col min="15" max="15" width="6.7109375" style="14" customWidth="1"/>
+    <col min="16" max="16" width="6.5703125" style="14" customWidth="1"/>
     <col min="17" max="17" width="7.28515625" style="2" customWidth="1"/>
     <col min="18" max="18" width="7.5703125" style="2" customWidth="1"/>
-    <col min="19" max="19" width="16.7109375" style="18" customWidth="1"/>
+    <col min="19" max="19" width="16.7109375" style="35" customWidth="1"/>
     <col min="20" max="20" width="14.5703125" style="2" customWidth="1"/>
     <col min="21" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:20" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="30" t="s">
+      <c r="A1" s="23" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="30"/>
-      <c r="C1" s="30"/>
-      <c r="D1" s="30"/>
-      <c r="E1" s="30"/>
-      <c r="F1" s="30"/>
-      <c r="G1" s="30"/>
-      <c r="H1" s="30"/>
-      <c r="I1" s="30"/>
-      <c r="J1" s="30"/>
-      <c r="K1" s="30"/>
-      <c r="L1" s="30"/>
-      <c r="M1" s="30"/>
-      <c r="N1" s="30"/>
-      <c r="O1" s="30"/>
-      <c r="P1" s="30"/>
-      <c r="Q1" s="30"/>
-      <c r="R1" s="30"/>
-      <c r="S1" s="30"/>
-      <c r="T1" s="30"/>
+      <c r="B1" s="23"/>
+      <c r="C1" s="23"/>
+      <c r="D1" s="23"/>
+      <c r="E1" s="23"/>
+      <c r="F1" s="23"/>
+      <c r="G1" s="23"/>
+      <c r="H1" s="23"/>
+      <c r="I1" s="23"/>
+      <c r="J1" s="23"/>
+      <c r="K1" s="23"/>
+      <c r="L1" s="23"/>
+      <c r="M1" s="23"/>
+      <c r="N1" s="23"/>
+      <c r="O1" s="23"/>
+      <c r="P1" s="23"/>
+      <c r="Q1" s="23"/>
+      <c r="R1" s="23"/>
+      <c r="S1" s="23"/>
+      <c r="T1" s="23"/>
     </row>
     <row r="2" spans="1:20" ht="35.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="29" t="s">
+      <c r="A2" s="22" t="s">
         <v>27</v>
       </c>
-      <c r="B2" s="29"/>
-      <c r="C2" s="29"/>
-      <c r="D2" s="29"/>
-      <c r="E2" s="29"/>
-      <c r="F2" s="29"/>
-      <c r="G2" s="29"/>
-      <c r="H2" s="29"/>
-      <c r="I2" s="29"/>
-      <c r="J2" s="29"/>
-      <c r="K2" s="29"/>
-      <c r="L2" s="29"/>
-      <c r="M2" s="29"/>
-      <c r="N2" s="29"/>
-      <c r="O2" s="29"/>
-      <c r="P2" s="29"/>
-      <c r="Q2" s="29"/>
-      <c r="R2" s="29"/>
-      <c r="S2" s="29"/>
-      <c r="T2" s="29"/>
-    </row>
-    <row r="3" spans="1:20" s="19" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="28" t="s">
+      <c r="B2" s="22"/>
+      <c r="C2" s="22"/>
+      <c r="D2" s="22"/>
+      <c r="E2" s="22"/>
+      <c r="F2" s="22"/>
+      <c r="G2" s="22"/>
+      <c r="H2" s="22"/>
+      <c r="I2" s="22"/>
+      <c r="J2" s="22"/>
+      <c r="K2" s="22"/>
+      <c r="L2" s="22"/>
+      <c r="M2" s="22"/>
+      <c r="N2" s="22"/>
+      <c r="O2" s="22"/>
+      <c r="P2" s="22"/>
+      <c r="Q2" s="22"/>
+      <c r="R2" s="22"/>
+      <c r="S2" s="22"/>
+      <c r="T2" s="22"/>
+    </row>
+    <row r="3" spans="1:20" s="15" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="21" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="28" t="s">
+      <c r="B3" s="21" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="28" t="s">
+      <c r="C3" s="21" t="s">
         <v>3</v>
       </c>
-      <c r="D3" s="28" t="s">
+      <c r="D3" s="21" t="s">
         <v>4</v>
       </c>
-      <c r="E3" s="28"/>
-      <c r="F3" s="28" t="s">
+      <c r="E3" s="21"/>
+      <c r="F3" s="21" t="s">
         <v>5</v>
       </c>
-      <c r="G3" s="28"/>
-      <c r="H3" s="28" t="s">
+      <c r="G3" s="21"/>
+      <c r="H3" s="21" t="s">
         <v>6</v>
       </c>
-      <c r="I3" s="28"/>
-      <c r="J3" s="28" t="s">
+      <c r="I3" s="21"/>
+      <c r="J3" s="21" t="s">
         <v>7</v>
       </c>
-      <c r="K3" s="28"/>
-      <c r="L3" s="28" t="s">
+      <c r="K3" s="21"/>
+      <c r="L3" s="21" t="s">
         <v>8</v>
       </c>
-      <c r="M3" s="28"/>
-      <c r="N3" s="28" t="s">
+      <c r="M3" s="21"/>
+      <c r="N3" s="21" t="s">
         <v>9</v>
       </c>
-      <c r="O3" s="28"/>
-      <c r="P3" s="32" t="s">
+      <c r="O3" s="21"/>
+      <c r="P3" s="25" t="s">
         <v>23</v>
       </c>
-      <c r="Q3" s="28" t="s">
+      <c r="Q3" s="21" t="s">
         <v>10</v>
       </c>
-      <c r="R3" s="28" t="s">
+      <c r="R3" s="21" t="s">
         <v>11</v>
       </c>
-      <c r="S3" s="31" t="s">
+      <c r="S3" s="24" t="s">
         <v>12</v>
       </c>
-      <c r="T3" s="28" t="s">
+      <c r="T3" s="21" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="4" spans="1:20" s="19" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="28"/>
-      <c r="B4" s="28"/>
-      <c r="C4" s="28"/>
-      <c r="D4" s="20" t="s">
+    <row r="4" spans="1:20" s="15" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="21"/>
+      <c r="B4" s="21"/>
+      <c r="C4" s="21"/>
+      <c r="D4" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="E4" s="20" t="s">
+      <c r="E4" s="16" t="s">
         <v>15</v>
       </c>
-      <c r="F4" s="20" t="s">
+      <c r="F4" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="G4" s="20" t="s">
+      <c r="G4" s="16" t="s">
         <v>15</v>
       </c>
-      <c r="H4" s="20" t="s">
+      <c r="H4" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="I4" s="20" t="s">
+      <c r="I4" s="16" t="s">
         <v>15</v>
       </c>
-      <c r="J4" s="20" t="s">
+      <c r="J4" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="K4" s="20" t="s">
+      <c r="K4" s="16" t="s">
         <v>15</v>
       </c>
-      <c r="L4" s="20" t="s">
+      <c r="L4" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="M4" s="20" t="s">
+      <c r="M4" s="16" t="s">
         <v>15</v>
       </c>
-      <c r="N4" s="20" t="s">
+      <c r="N4" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="O4" s="20" t="s">
+      <c r="O4" s="16" t="s">
         <v>15</v>
       </c>
-      <c r="P4" s="33"/>
-      <c r="Q4" s="28"/>
-      <c r="R4" s="28"/>
-      <c r="S4" s="31"/>
-      <c r="T4" s="28"/>
+      <c r="P4" s="26"/>
+      <c r="Q4" s="21"/>
+      <c r="R4" s="21"/>
+      <c r="S4" s="24"/>
+      <c r="T4" s="21"/>
     </row>
     <row r="5" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A5" s="4"/>
@@ -926,129 +930,130 @@
       <c r="P5" s="6"/>
       <c r="Q5" s="6"/>
       <c r="R5" s="6"/>
-      <c r="S5" s="7"/>
+      <c r="S5" s="30"/>
       <c r="T5" s="3"/>
     </row>
     <row r="6" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A6" s="8"/>
-      <c r="B6" s="25" t="s">
+      <c r="A6" s="7"/>
+      <c r="B6" s="27" t="s">
         <v>16</v>
       </c>
-      <c r="C6" s="25"/>
-      <c r="D6" s="9"/>
-      <c r="E6" s="9"/>
-      <c r="F6" s="9"/>
-      <c r="G6" s="9"/>
-      <c r="H6" s="9"/>
-      <c r="I6" s="9"/>
-      <c r="J6" s="9"/>
-      <c r="K6" s="9"/>
-      <c r="L6" s="9"/>
-      <c r="M6" s="9"/>
-      <c r="N6" s="9"/>
-      <c r="O6" s="9"/>
-      <c r="P6" s="9"/>
-      <c r="Q6" s="10"/>
-      <c r="R6" s="10"/>
-      <c r="S6" s="11"/>
-      <c r="T6" s="12"/>
+      <c r="C6" s="27"/>
+      <c r="D6" s="8"/>
+      <c r="E6" s="8"/>
+      <c r="F6" s="8"/>
+      <c r="G6" s="8"/>
+      <c r="H6" s="8"/>
+      <c r="I6" s="8"/>
+      <c r="J6" s="8"/>
+      <c r="K6" s="8"/>
+      <c r="L6" s="8"/>
+      <c r="M6" s="8"/>
+      <c r="N6" s="8"/>
+      <c r="O6" s="8"/>
+      <c r="P6" s="8"/>
+      <c r="Q6" s="9"/>
+      <c r="R6" s="9"/>
+      <c r="S6" s="31"/>
+      <c r="T6" s="10"/>
     </row>
     <row r="7" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A7" s="13"/>
-      <c r="B7" s="14"/>
-      <c r="C7" s="14"/>
-      <c r="D7" s="15"/>
-      <c r="E7" s="15"/>
-      <c r="F7" s="15"/>
-      <c r="G7" s="15"/>
-      <c r="H7" s="15"/>
-      <c r="I7" s="15"/>
-      <c r="J7" s="15"/>
-      <c r="K7" s="15"/>
-      <c r="L7" s="15"/>
-      <c r="M7" s="15"/>
-      <c r="N7" s="15"/>
-      <c r="O7" s="15"/>
-      <c r="P7" s="15"/>
-      <c r="Q7" s="13"/>
-      <c r="R7" s="13"/>
-      <c r="S7" s="16"/>
-      <c r="T7" s="13"/>
+      <c r="A7" s="11"/>
+      <c r="B7" s="12"/>
+      <c r="C7" s="12"/>
+      <c r="D7" s="13"/>
+      <c r="E7" s="13"/>
+      <c r="F7" s="13"/>
+      <c r="G7" s="13"/>
+      <c r="H7" s="13"/>
+      <c r="I7" s="13"/>
+      <c r="J7" s="13"/>
+      <c r="K7" s="13"/>
+      <c r="L7" s="13"/>
+      <c r="M7" s="13"/>
+      <c r="N7" s="13"/>
+      <c r="O7" s="13"/>
+      <c r="P7" s="13"/>
+      <c r="Q7" s="11"/>
+      <c r="R7" s="11"/>
+      <c r="S7" s="32"/>
+      <c r="T7" s="11"/>
     </row>
     <row r="8" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A8" s="26" t="s">
+      <c r="A8" s="28" t="s">
         <v>24</v>
       </c>
-      <c r="B8" s="26"/>
-      <c r="C8" s="26"/>
-      <c r="D8" s="26"/>
-      <c r="E8" s="26"/>
-      <c r="F8" s="26"/>
-      <c r="G8" s="26"/>
-      <c r="H8" s="26"/>
-      <c r="I8" s="26"/>
-      <c r="J8" s="26"/>
-      <c r="K8" s="26"/>
-      <c r="L8" s="26"/>
-      <c r="M8" s="26"/>
-      <c r="N8" s="26"/>
-      <c r="O8" s="26"/>
-      <c r="P8" s="26"/>
-      <c r="Q8" s="26"/>
-      <c r="R8" s="27"/>
-      <c r="S8" s="27"/>
-      <c r="T8" s="12"/>
+      <c r="B8" s="28"/>
+      <c r="C8" s="28"/>
+      <c r="D8" s="28"/>
+      <c r="E8" s="28"/>
+      <c r="F8" s="28"/>
+      <c r="G8" s="28"/>
+      <c r="H8" s="28"/>
+      <c r="I8" s="28"/>
+      <c r="J8" s="28"/>
+      <c r="K8" s="28"/>
+      <c r="L8" s="28"/>
+      <c r="M8" s="28"/>
+      <c r="N8" s="28"/>
+      <c r="O8" s="28"/>
+      <c r="P8" s="28"/>
+      <c r="Q8" s="28"/>
+      <c r="R8" s="29"/>
+      <c r="S8" s="29"/>
+      <c r="T8" s="10"/>
     </row>
     <row r="9" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A9" s="26" t="s">
+      <c r="A9" s="28" t="s">
         <v>25</v>
       </c>
-      <c r="B9" s="26"/>
-      <c r="C9" s="26"/>
-      <c r="D9" s="26"/>
-      <c r="E9" s="26"/>
-      <c r="F9" s="26"/>
-      <c r="G9" s="26"/>
-      <c r="H9" s="26"/>
-      <c r="I9" s="26"/>
-      <c r="J9" s="26"/>
-      <c r="K9" s="26"/>
-      <c r="L9" s="26"/>
-      <c r="M9" s="26"/>
-      <c r="N9" s="26"/>
-      <c r="O9" s="26"/>
-      <c r="P9" s="26"/>
-      <c r="Q9" s="26"/>
-      <c r="R9" s="27"/>
-      <c r="S9" s="27"/>
-      <c r="T9" s="12"/>
+      <c r="B9" s="28"/>
+      <c r="C9" s="28"/>
+      <c r="D9" s="28"/>
+      <c r="E9" s="28"/>
+      <c r="F9" s="28"/>
+      <c r="G9" s="28"/>
+      <c r="H9" s="28"/>
+      <c r="I9" s="28"/>
+      <c r="J9" s="28"/>
+      <c r="K9" s="28"/>
+      <c r="L9" s="28"/>
+      <c r="M9" s="28"/>
+      <c r="N9" s="28"/>
+      <c r="O9" s="28"/>
+      <c r="P9" s="28"/>
+      <c r="Q9" s="28"/>
+      <c r="R9" s="29"/>
+      <c r="S9" s="29"/>
+      <c r="T9" s="10"/>
     </row>
     <row r="10" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A10" s="26" t="s">
+      <c r="A10" s="28" t="s">
         <v>26</v>
       </c>
-      <c r="B10" s="26"/>
-      <c r="C10" s="26"/>
-      <c r="D10" s="26"/>
-      <c r="E10" s="26"/>
-      <c r="F10" s="26"/>
-      <c r="G10" s="26"/>
-      <c r="H10" s="26"/>
-      <c r="I10" s="26"/>
-      <c r="J10" s="26"/>
-      <c r="K10" s="26"/>
-      <c r="L10" s="26"/>
-      <c r="M10" s="26"/>
-      <c r="N10" s="26"/>
-      <c r="O10" s="26"/>
-      <c r="P10" s="26"/>
-      <c r="Q10" s="26"/>
-      <c r="R10" s="27"/>
-      <c r="S10" s="27"/>
-      <c r="T10" s="13"/>
+      <c r="B10" s="28"/>
+      <c r="C10" s="28"/>
+      <c r="D10" s="28"/>
+      <c r="E10" s="28"/>
+      <c r="F10" s="28"/>
+      <c r="G10" s="28"/>
+      <c r="H10" s="28"/>
+      <c r="I10" s="28"/>
+      <c r="J10" s="28"/>
+      <c r="K10" s="28"/>
+      <c r="L10" s="28"/>
+      <c r="M10" s="28"/>
+      <c r="N10" s="28"/>
+      <c r="O10" s="28"/>
+      <c r="P10" s="28"/>
+      <c r="Q10" s="28"/>
+      <c r="R10" s="29"/>
+      <c r="S10" s="29"/>
+      <c r="T10" s="11"/>
     </row>
     <row r="11" spans="1:20" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="T11" s="21" t="s">
+      <c r="S11" s="33"/>
+      <c r="T11" s="17" t="s">
         <v>17</v>
       </c>
     </row>
@@ -1066,27 +1071,34 @@
       <c r="N12" s="2"/>
       <c r="O12" s="2"/>
       <c r="P12" s="2"/>
-      <c r="S12" s="2"/>
-      <c r="T12" s="22" t="s">
+      <c r="S12" s="34"/>
+      <c r="T12" s="18" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="13" spans="1:20" s="23" customFormat="1" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B13" s="24" t="s">
+    <row r="13" spans="1:20" s="19" customFormat="1" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B13" s="20" t="s">
         <v>19</v>
       </c>
-      <c r="E13" s="23" t="s">
+      <c r="E13" s="19" t="s">
         <v>20</v>
       </c>
-      <c r="L13" s="23" t="s">
+      <c r="L13" s="19" t="s">
         <v>21</v>
       </c>
-      <c r="T13" s="24" t="s">
+      <c r="T13" s="20" t="s">
         <v>22</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="23">
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="A8:Q8"/>
+    <mergeCell ref="A9:Q9"/>
+    <mergeCell ref="A10:Q10"/>
+    <mergeCell ref="R8:S8"/>
+    <mergeCell ref="R9:S9"/>
+    <mergeCell ref="R10:S10"/>
     <mergeCell ref="T3:T4"/>
     <mergeCell ref="A2:T2"/>
     <mergeCell ref="A1:T1"/>
@@ -1103,13 +1115,6 @@
     <mergeCell ref="F3:G3"/>
     <mergeCell ref="H3:I3"/>
     <mergeCell ref="P3:P4"/>
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="A8:Q8"/>
-    <mergeCell ref="A9:Q9"/>
-    <mergeCell ref="A10:Q10"/>
-    <mergeCell ref="R8:S8"/>
-    <mergeCell ref="R9:S9"/>
-    <mergeCell ref="R10:S10"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup scale="88" fitToHeight="0" orientation="landscape" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
@@ -1123,8 +1128,8 @@
   </sheetPr>
   <dimension ref="A1:T13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="S5" sqref="S1:S1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="20.25" x14ac:dyDescent="0.3"/>
@@ -1132,169 +1137,169 @@
     <col min="1" max="1" width="7" style="2" customWidth="1"/>
     <col min="2" max="2" width="27.28515625" style="2" customWidth="1"/>
     <col min="3" max="3" width="18.140625" style="2" customWidth="1"/>
-    <col min="4" max="4" width="4.28515625" style="17" customWidth="1"/>
-    <col min="5" max="5" width="6.7109375" style="17" customWidth="1"/>
-    <col min="6" max="6" width="4.28515625" style="17" customWidth="1"/>
-    <col min="7" max="7" width="6.7109375" style="17" customWidth="1"/>
-    <col min="8" max="8" width="4.28515625" style="17" customWidth="1"/>
-    <col min="9" max="9" width="6.7109375" style="17" customWidth="1"/>
-    <col min="10" max="10" width="4.28515625" style="17" customWidth="1"/>
-    <col min="11" max="11" width="6.7109375" style="17" customWidth="1"/>
-    <col min="12" max="12" width="4.28515625" style="17" customWidth="1"/>
-    <col min="13" max="13" width="6.7109375" style="17" customWidth="1"/>
-    <col min="14" max="14" width="4.28515625" style="17" customWidth="1"/>
-    <col min="15" max="15" width="6.7109375" style="17" customWidth="1"/>
-    <col min="16" max="16" width="6.5703125" style="17" customWidth="1"/>
+    <col min="4" max="4" width="4.28515625" style="14" customWidth="1"/>
+    <col min="5" max="5" width="6.7109375" style="14" customWidth="1"/>
+    <col min="6" max="6" width="4.28515625" style="14" customWidth="1"/>
+    <col min="7" max="7" width="6.7109375" style="14" customWidth="1"/>
+    <col min="8" max="8" width="4.28515625" style="14" customWidth="1"/>
+    <col min="9" max="9" width="6.7109375" style="14" customWidth="1"/>
+    <col min="10" max="10" width="4.28515625" style="14" customWidth="1"/>
+    <col min="11" max="11" width="6.7109375" style="14" customWidth="1"/>
+    <col min="12" max="12" width="4.28515625" style="14" customWidth="1"/>
+    <col min="13" max="13" width="6.7109375" style="14" customWidth="1"/>
+    <col min="14" max="14" width="4.28515625" style="14" customWidth="1"/>
+    <col min="15" max="15" width="6.7109375" style="14" customWidth="1"/>
+    <col min="16" max="16" width="6.5703125" style="14" customWidth="1"/>
     <col min="17" max="17" width="7.28515625" style="2" customWidth="1"/>
     <col min="18" max="18" width="7.5703125" style="2" customWidth="1"/>
-    <col min="19" max="19" width="16.7109375" style="18" customWidth="1"/>
+    <col min="19" max="19" width="16.7109375" style="35" customWidth="1"/>
     <col min="20" max="20" width="14.5703125" style="2" customWidth="1"/>
     <col min="21" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:20" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="30" t="s">
+      <c r="A1" s="23" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="30"/>
-      <c r="C1" s="30"/>
-      <c r="D1" s="30"/>
-      <c r="E1" s="30"/>
-      <c r="F1" s="30"/>
-      <c r="G1" s="30"/>
-      <c r="H1" s="30"/>
-      <c r="I1" s="30"/>
-      <c r="J1" s="30"/>
-      <c r="K1" s="30"/>
-      <c r="L1" s="30"/>
-      <c r="M1" s="30"/>
-      <c r="N1" s="30"/>
-      <c r="O1" s="30"/>
-      <c r="P1" s="30"/>
-      <c r="Q1" s="30"/>
-      <c r="R1" s="30"/>
-      <c r="S1" s="30"/>
-      <c r="T1" s="30"/>
+      <c r="B1" s="23"/>
+      <c r="C1" s="23"/>
+      <c r="D1" s="23"/>
+      <c r="E1" s="23"/>
+      <c r="F1" s="23"/>
+      <c r="G1" s="23"/>
+      <c r="H1" s="23"/>
+      <c r="I1" s="23"/>
+      <c r="J1" s="23"/>
+      <c r="K1" s="23"/>
+      <c r="L1" s="23"/>
+      <c r="M1" s="23"/>
+      <c r="N1" s="23"/>
+      <c r="O1" s="23"/>
+      <c r="P1" s="23"/>
+      <c r="Q1" s="23"/>
+      <c r="R1" s="23"/>
+      <c r="S1" s="23"/>
+      <c r="T1" s="23"/>
     </row>
     <row r="2" spans="1:20" ht="35.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="29" t="s">
+      <c r="A2" s="22" t="s">
         <v>27</v>
       </c>
-      <c r="B2" s="29"/>
-      <c r="C2" s="29"/>
-      <c r="D2" s="29"/>
-      <c r="E2" s="29"/>
-      <c r="F2" s="29"/>
-      <c r="G2" s="29"/>
-      <c r="H2" s="29"/>
-      <c r="I2" s="29"/>
-      <c r="J2" s="29"/>
-      <c r="K2" s="29"/>
-      <c r="L2" s="29"/>
-      <c r="M2" s="29"/>
-      <c r="N2" s="29"/>
-      <c r="O2" s="29"/>
-      <c r="P2" s="29"/>
-      <c r="Q2" s="29"/>
-      <c r="R2" s="29"/>
-      <c r="S2" s="29"/>
-      <c r="T2" s="29"/>
-    </row>
-    <row r="3" spans="1:20" s="19" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="28" t="s">
+      <c r="B2" s="22"/>
+      <c r="C2" s="22"/>
+      <c r="D2" s="22"/>
+      <c r="E2" s="22"/>
+      <c r="F2" s="22"/>
+      <c r="G2" s="22"/>
+      <c r="H2" s="22"/>
+      <c r="I2" s="22"/>
+      <c r="J2" s="22"/>
+      <c r="K2" s="22"/>
+      <c r="L2" s="22"/>
+      <c r="M2" s="22"/>
+      <c r="N2" s="22"/>
+      <c r="O2" s="22"/>
+      <c r="P2" s="22"/>
+      <c r="Q2" s="22"/>
+      <c r="R2" s="22"/>
+      <c r="S2" s="22"/>
+      <c r="T2" s="22"/>
+    </row>
+    <row r="3" spans="1:20" s="15" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="21" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="28" t="s">
+      <c r="B3" s="21" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="28" t="s">
+      <c r="C3" s="21" t="s">
         <v>3</v>
       </c>
-      <c r="D3" s="28" t="s">
+      <c r="D3" s="21" t="s">
         <v>4</v>
       </c>
-      <c r="E3" s="28"/>
-      <c r="F3" s="28" t="s">
+      <c r="E3" s="21"/>
+      <c r="F3" s="21" t="s">
         <v>5</v>
       </c>
-      <c r="G3" s="28"/>
-      <c r="H3" s="28" t="s">
+      <c r="G3" s="21"/>
+      <c r="H3" s="21" t="s">
         <v>6</v>
       </c>
-      <c r="I3" s="28"/>
-      <c r="J3" s="28" t="s">
+      <c r="I3" s="21"/>
+      <c r="J3" s="21" t="s">
         <v>7</v>
       </c>
-      <c r="K3" s="28"/>
-      <c r="L3" s="28" t="s">
+      <c r="K3" s="21"/>
+      <c r="L3" s="21" t="s">
         <v>8</v>
       </c>
-      <c r="M3" s="28"/>
-      <c r="N3" s="28" t="s">
+      <c r="M3" s="21"/>
+      <c r="N3" s="21" t="s">
         <v>9</v>
       </c>
-      <c r="O3" s="28"/>
-      <c r="P3" s="32" t="s">
+      <c r="O3" s="21"/>
+      <c r="P3" s="25" t="s">
         <v>23</v>
       </c>
-      <c r="Q3" s="28" t="s">
+      <c r="Q3" s="21" t="s">
         <v>10</v>
       </c>
-      <c r="R3" s="28" t="s">
+      <c r="R3" s="21" t="s">
         <v>11</v>
       </c>
-      <c r="S3" s="31" t="s">
+      <c r="S3" s="24" t="s">
         <v>12</v>
       </c>
-      <c r="T3" s="28" t="s">
+      <c r="T3" s="21" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="4" spans="1:20" s="19" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="28"/>
-      <c r="B4" s="28"/>
-      <c r="C4" s="28"/>
-      <c r="D4" s="20" t="s">
+    <row r="4" spans="1:20" s="15" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="21"/>
+      <c r="B4" s="21"/>
+      <c r="C4" s="21"/>
+      <c r="D4" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="E4" s="20" t="s">
+      <c r="E4" s="16" t="s">
         <v>15</v>
       </c>
-      <c r="F4" s="20" t="s">
+      <c r="F4" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="G4" s="20" t="s">
+      <c r="G4" s="16" t="s">
         <v>15</v>
       </c>
-      <c r="H4" s="20" t="s">
+      <c r="H4" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="I4" s="20" t="s">
+      <c r="I4" s="16" t="s">
         <v>15</v>
       </c>
-      <c r="J4" s="20" t="s">
+      <c r="J4" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="K4" s="20" t="s">
+      <c r="K4" s="16" t="s">
         <v>15</v>
       </c>
-      <c r="L4" s="20" t="s">
+      <c r="L4" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="M4" s="20" t="s">
+      <c r="M4" s="16" t="s">
         <v>15</v>
       </c>
-      <c r="N4" s="20" t="s">
+      <c r="N4" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="O4" s="20" t="s">
+      <c r="O4" s="16" t="s">
         <v>15</v>
       </c>
-      <c r="P4" s="33"/>
-      <c r="Q4" s="28"/>
-      <c r="R4" s="28"/>
-      <c r="S4" s="31"/>
-      <c r="T4" s="28"/>
+      <c r="P4" s="26"/>
+      <c r="Q4" s="21"/>
+      <c r="R4" s="21"/>
+      <c r="S4" s="24"/>
+      <c r="T4" s="21"/>
     </row>
     <row r="5" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A5" s="4"/>
@@ -1315,129 +1320,130 @@
       <c r="P5" s="6"/>
       <c r="Q5" s="6"/>
       <c r="R5" s="6"/>
-      <c r="S5" s="7"/>
+      <c r="S5" s="30"/>
       <c r="T5" s="3"/>
     </row>
     <row r="6" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A6" s="8"/>
-      <c r="B6" s="25" t="s">
+      <c r="A6" s="7"/>
+      <c r="B6" s="27" t="s">
         <v>16</v>
       </c>
-      <c r="C6" s="25"/>
-      <c r="D6" s="9"/>
-      <c r="E6" s="9"/>
-      <c r="F6" s="9"/>
-      <c r="G6" s="9"/>
-      <c r="H6" s="9"/>
-      <c r="I6" s="9"/>
-      <c r="J6" s="9"/>
-      <c r="K6" s="9"/>
-      <c r="L6" s="9"/>
-      <c r="M6" s="9"/>
-      <c r="N6" s="9"/>
-      <c r="O6" s="9"/>
-      <c r="P6" s="9"/>
-      <c r="Q6" s="10"/>
-      <c r="R6" s="10"/>
-      <c r="S6" s="11"/>
-      <c r="T6" s="12"/>
+      <c r="C6" s="27"/>
+      <c r="D6" s="8"/>
+      <c r="E6" s="8"/>
+      <c r="F6" s="8"/>
+      <c r="G6" s="8"/>
+      <c r="H6" s="8"/>
+      <c r="I6" s="8"/>
+      <c r="J6" s="8"/>
+      <c r="K6" s="8"/>
+      <c r="L6" s="8"/>
+      <c r="M6" s="8"/>
+      <c r="N6" s="8"/>
+      <c r="O6" s="8"/>
+      <c r="P6" s="8"/>
+      <c r="Q6" s="9"/>
+      <c r="R6" s="9"/>
+      <c r="S6" s="31"/>
+      <c r="T6" s="10"/>
     </row>
     <row r="7" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A7" s="13"/>
-      <c r="B7" s="14"/>
-      <c r="C7" s="14"/>
-      <c r="D7" s="15"/>
-      <c r="E7" s="15"/>
-      <c r="F7" s="15"/>
-      <c r="G7" s="15"/>
-      <c r="H7" s="15"/>
-      <c r="I7" s="15"/>
-      <c r="J7" s="15"/>
-      <c r="K7" s="15"/>
-      <c r="L7" s="15"/>
-      <c r="M7" s="15"/>
-      <c r="N7" s="15"/>
-      <c r="O7" s="15"/>
-      <c r="P7" s="15"/>
-      <c r="Q7" s="13"/>
-      <c r="R7" s="13"/>
-      <c r="S7" s="16"/>
-      <c r="T7" s="13"/>
+      <c r="A7" s="11"/>
+      <c r="B7" s="12"/>
+      <c r="C7" s="12"/>
+      <c r="D7" s="13"/>
+      <c r="E7" s="13"/>
+      <c r="F7" s="13"/>
+      <c r="G7" s="13"/>
+      <c r="H7" s="13"/>
+      <c r="I7" s="13"/>
+      <c r="J7" s="13"/>
+      <c r="K7" s="13"/>
+      <c r="L7" s="13"/>
+      <c r="M7" s="13"/>
+      <c r="N7" s="13"/>
+      <c r="O7" s="13"/>
+      <c r="P7" s="13"/>
+      <c r="Q7" s="11"/>
+      <c r="R7" s="11"/>
+      <c r="S7" s="32"/>
+      <c r="T7" s="11"/>
     </row>
     <row r="8" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A8" s="26" t="s">
+      <c r="A8" s="28" t="s">
         <v>24</v>
       </c>
-      <c r="B8" s="26"/>
-      <c r="C8" s="26"/>
-      <c r="D8" s="26"/>
-      <c r="E8" s="26"/>
-      <c r="F8" s="26"/>
-      <c r="G8" s="26"/>
-      <c r="H8" s="26"/>
-      <c r="I8" s="26"/>
-      <c r="J8" s="26"/>
-      <c r="K8" s="26"/>
-      <c r="L8" s="26"/>
-      <c r="M8" s="26"/>
-      <c r="N8" s="26"/>
-      <c r="O8" s="26"/>
-      <c r="P8" s="26"/>
-      <c r="Q8" s="26"/>
-      <c r="R8" s="27"/>
-      <c r="S8" s="27"/>
-      <c r="T8" s="12"/>
+      <c r="B8" s="28"/>
+      <c r="C8" s="28"/>
+      <c r="D8" s="28"/>
+      <c r="E8" s="28"/>
+      <c r="F8" s="28"/>
+      <c r="G8" s="28"/>
+      <c r="H8" s="28"/>
+      <c r="I8" s="28"/>
+      <c r="J8" s="28"/>
+      <c r="K8" s="28"/>
+      <c r="L8" s="28"/>
+      <c r="M8" s="28"/>
+      <c r="N8" s="28"/>
+      <c r="O8" s="28"/>
+      <c r="P8" s="28"/>
+      <c r="Q8" s="28"/>
+      <c r="R8" s="29"/>
+      <c r="S8" s="29"/>
+      <c r="T8" s="10"/>
     </row>
     <row r="9" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A9" s="26" t="s">
+      <c r="A9" s="28" t="s">
         <v>25</v>
       </c>
-      <c r="B9" s="26"/>
-      <c r="C9" s="26"/>
-      <c r="D9" s="26"/>
-      <c r="E9" s="26"/>
-      <c r="F9" s="26"/>
-      <c r="G9" s="26"/>
-      <c r="H9" s="26"/>
-      <c r="I9" s="26"/>
-      <c r="J9" s="26"/>
-      <c r="K9" s="26"/>
-      <c r="L9" s="26"/>
-      <c r="M9" s="26"/>
-      <c r="N9" s="26"/>
-      <c r="O9" s="26"/>
-      <c r="P9" s="26"/>
-      <c r="Q9" s="26"/>
-      <c r="R9" s="27"/>
-      <c r="S9" s="27"/>
-      <c r="T9" s="12"/>
+      <c r="B9" s="28"/>
+      <c r="C9" s="28"/>
+      <c r="D9" s="28"/>
+      <c r="E9" s="28"/>
+      <c r="F9" s="28"/>
+      <c r="G9" s="28"/>
+      <c r="H9" s="28"/>
+      <c r="I9" s="28"/>
+      <c r="J9" s="28"/>
+      <c r="K9" s="28"/>
+      <c r="L9" s="28"/>
+      <c r="M9" s="28"/>
+      <c r="N9" s="28"/>
+      <c r="O9" s="28"/>
+      <c r="P9" s="28"/>
+      <c r="Q9" s="28"/>
+      <c r="R9" s="29"/>
+      <c r="S9" s="29"/>
+      <c r="T9" s="10"/>
     </row>
     <row r="10" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A10" s="26" t="s">
+      <c r="A10" s="28" t="s">
         <v>26</v>
       </c>
-      <c r="B10" s="26"/>
-      <c r="C10" s="26"/>
-      <c r="D10" s="26"/>
-      <c r="E10" s="26"/>
-      <c r="F10" s="26"/>
-      <c r="G10" s="26"/>
-      <c r="H10" s="26"/>
-      <c r="I10" s="26"/>
-      <c r="J10" s="26"/>
-      <c r="K10" s="26"/>
-      <c r="L10" s="26"/>
-      <c r="M10" s="26"/>
-      <c r="N10" s="26"/>
-      <c r="O10" s="26"/>
-      <c r="P10" s="26"/>
-      <c r="Q10" s="26"/>
-      <c r="R10" s="27"/>
-      <c r="S10" s="27"/>
-      <c r="T10" s="13"/>
+      <c r="B10" s="28"/>
+      <c r="C10" s="28"/>
+      <c r="D10" s="28"/>
+      <c r="E10" s="28"/>
+      <c r="F10" s="28"/>
+      <c r="G10" s="28"/>
+      <c r="H10" s="28"/>
+      <c r="I10" s="28"/>
+      <c r="J10" s="28"/>
+      <c r="K10" s="28"/>
+      <c r="L10" s="28"/>
+      <c r="M10" s="28"/>
+      <c r="N10" s="28"/>
+      <c r="O10" s="28"/>
+      <c r="P10" s="28"/>
+      <c r="Q10" s="28"/>
+      <c r="R10" s="29"/>
+      <c r="S10" s="29"/>
+      <c r="T10" s="11"/>
     </row>
     <row r="11" spans="1:20" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="T11" s="21" t="s">
+      <c r="S11" s="33"/>
+      <c r="T11" s="17" t="s">
         <v>17</v>
       </c>
     </row>
@@ -1455,38 +1461,27 @@
       <c r="N12" s="2"/>
       <c r="O12" s="2"/>
       <c r="P12" s="2"/>
-      <c r="S12" s="2"/>
-      <c r="T12" s="22" t="s">
+      <c r="S12" s="34"/>
+      <c r="T12" s="18" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="13" spans="1:20" s="23" customFormat="1" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B13" s="24" t="s">
+    <row r="13" spans="1:20" s="19" customFormat="1" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B13" s="20" t="s">
         <v>19</v>
       </c>
-      <c r="E13" s="23" t="s">
+      <c r="E13" s="19" t="s">
         <v>20</v>
       </c>
-      <c r="L13" s="23" t="s">
+      <c r="L13" s="19" t="s">
         <v>21</v>
       </c>
-      <c r="T13" s="24" t="s">
+      <c r="T13" s="20" t="s">
         <v>22</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="23">
-    <mergeCell ref="T3:T4"/>
-    <mergeCell ref="A1:T1"/>
-    <mergeCell ref="A2:T2"/>
-    <mergeCell ref="A3:A4"/>
-    <mergeCell ref="B3:B4"/>
-    <mergeCell ref="C3:C4"/>
-    <mergeCell ref="D3:E3"/>
-    <mergeCell ref="F3:G3"/>
-    <mergeCell ref="H3:I3"/>
-    <mergeCell ref="J3:K3"/>
-    <mergeCell ref="L3:M3"/>
     <mergeCell ref="A10:Q10"/>
     <mergeCell ref="R10:S10"/>
     <mergeCell ref="N3:O3"/>
@@ -1499,6 +1494,17 @@
     <mergeCell ref="R8:S8"/>
     <mergeCell ref="A9:Q9"/>
     <mergeCell ref="R9:S9"/>
+    <mergeCell ref="T3:T4"/>
+    <mergeCell ref="A1:T1"/>
+    <mergeCell ref="A2:T2"/>
+    <mergeCell ref="A3:A4"/>
+    <mergeCell ref="B3:B4"/>
+    <mergeCell ref="C3:C4"/>
+    <mergeCell ref="D3:E3"/>
+    <mergeCell ref="F3:G3"/>
+    <mergeCell ref="H3:I3"/>
+    <mergeCell ref="J3:K3"/>
+    <mergeCell ref="L3:M3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup scale="85" fitToHeight="0" orientation="landscape" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>

--- a/ATV_Allowance/Templates/TemplatePTTT.xlsx
+++ b/ATV_Allowance/Templates/TemplatePTTT.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7020" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7020"/>
   </bookViews>
   <sheets>
     <sheet name="PV" sheetId="1" r:id="rId1"/>
@@ -387,33 +387,6 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="41" fontId="5" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="41" fontId="3" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
@@ -424,6 +397,33 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="41" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="41" fontId="5" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Currency" xfId="1" builtinId="4"/>
@@ -738,8 +738,8 @@
   </sheetPr>
   <dimension ref="A1:T13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="S5" sqref="S1:S1048576"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="S13" sqref="S13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="20.25" x14ac:dyDescent="0.3"/>
@@ -762,113 +762,113 @@
     <col min="16" max="16" width="6.5703125" style="14" customWidth="1"/>
     <col min="17" max="17" width="7.28515625" style="2" customWidth="1"/>
     <col min="18" max="18" width="7.5703125" style="2" customWidth="1"/>
-    <col min="19" max="19" width="16.7109375" style="35" customWidth="1"/>
+    <col min="19" max="19" width="16.7109375" style="26" customWidth="1"/>
     <col min="20" max="20" width="14.5703125" style="2" customWidth="1"/>
     <col min="21" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:20" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="23" t="s">
+      <c r="A1" s="32" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="23"/>
-      <c r="C1" s="23"/>
-      <c r="D1" s="23"/>
-      <c r="E1" s="23"/>
-      <c r="F1" s="23"/>
-      <c r="G1" s="23"/>
-      <c r="H1" s="23"/>
-      <c r="I1" s="23"/>
-      <c r="J1" s="23"/>
-      <c r="K1" s="23"/>
-      <c r="L1" s="23"/>
-      <c r="M1" s="23"/>
-      <c r="N1" s="23"/>
-      <c r="O1" s="23"/>
-      <c r="P1" s="23"/>
-      <c r="Q1" s="23"/>
-      <c r="R1" s="23"/>
-      <c r="S1" s="23"/>
-      <c r="T1" s="23"/>
+      <c r="B1" s="32"/>
+      <c r="C1" s="32"/>
+      <c r="D1" s="32"/>
+      <c r="E1" s="32"/>
+      <c r="F1" s="32"/>
+      <c r="G1" s="32"/>
+      <c r="H1" s="32"/>
+      <c r="I1" s="32"/>
+      <c r="J1" s="32"/>
+      <c r="K1" s="32"/>
+      <c r="L1" s="32"/>
+      <c r="M1" s="32"/>
+      <c r="N1" s="32"/>
+      <c r="O1" s="32"/>
+      <c r="P1" s="32"/>
+      <c r="Q1" s="32"/>
+      <c r="R1" s="32"/>
+      <c r="S1" s="32"/>
+      <c r="T1" s="32"/>
     </row>
     <row r="2" spans="1:20" ht="35.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="22" t="s">
+      <c r="A2" s="31" t="s">
         <v>27</v>
       </c>
-      <c r="B2" s="22"/>
-      <c r="C2" s="22"/>
-      <c r="D2" s="22"/>
-      <c r="E2" s="22"/>
-      <c r="F2" s="22"/>
-      <c r="G2" s="22"/>
-      <c r="H2" s="22"/>
-      <c r="I2" s="22"/>
-      <c r="J2" s="22"/>
-      <c r="K2" s="22"/>
-      <c r="L2" s="22"/>
-      <c r="M2" s="22"/>
-      <c r="N2" s="22"/>
-      <c r="O2" s="22"/>
-      <c r="P2" s="22"/>
-      <c r="Q2" s="22"/>
-      <c r="R2" s="22"/>
-      <c r="S2" s="22"/>
-      <c r="T2" s="22"/>
+      <c r="B2" s="31"/>
+      <c r="C2" s="31"/>
+      <c r="D2" s="31"/>
+      <c r="E2" s="31"/>
+      <c r="F2" s="31"/>
+      <c r="G2" s="31"/>
+      <c r="H2" s="31"/>
+      <c r="I2" s="31"/>
+      <c r="J2" s="31"/>
+      <c r="K2" s="31"/>
+      <c r="L2" s="31"/>
+      <c r="M2" s="31"/>
+      <c r="N2" s="31"/>
+      <c r="O2" s="31"/>
+      <c r="P2" s="31"/>
+      <c r="Q2" s="31"/>
+      <c r="R2" s="31"/>
+      <c r="S2" s="31"/>
+      <c r="T2" s="31"/>
     </row>
     <row r="3" spans="1:20" s="15" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="21" t="s">
+      <c r="A3" s="30" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="21" t="s">
+      <c r="B3" s="30" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="21" t="s">
+      <c r="C3" s="30" t="s">
         <v>3</v>
       </c>
-      <c r="D3" s="21" t="s">
+      <c r="D3" s="30" t="s">
         <v>4</v>
       </c>
-      <c r="E3" s="21"/>
-      <c r="F3" s="21" t="s">
+      <c r="E3" s="30"/>
+      <c r="F3" s="30" t="s">
         <v>5</v>
       </c>
-      <c r="G3" s="21"/>
-      <c r="H3" s="21" t="s">
+      <c r="G3" s="30"/>
+      <c r="H3" s="30" t="s">
         <v>6</v>
       </c>
-      <c r="I3" s="21"/>
-      <c r="J3" s="21" t="s">
+      <c r="I3" s="30"/>
+      <c r="J3" s="30" t="s">
         <v>7</v>
       </c>
-      <c r="K3" s="21"/>
-      <c r="L3" s="21" t="s">
+      <c r="K3" s="30"/>
+      <c r="L3" s="30" t="s">
         <v>8</v>
       </c>
-      <c r="M3" s="21"/>
-      <c r="N3" s="21" t="s">
+      <c r="M3" s="30"/>
+      <c r="N3" s="30" t="s">
         <v>9</v>
       </c>
-      <c r="O3" s="21"/>
-      <c r="P3" s="25" t="s">
+      <c r="O3" s="30"/>
+      <c r="P3" s="34" t="s">
         <v>23</v>
       </c>
-      <c r="Q3" s="21" t="s">
+      <c r="Q3" s="30" t="s">
         <v>10</v>
       </c>
-      <c r="R3" s="21" t="s">
+      <c r="R3" s="30" t="s">
         <v>11</v>
       </c>
-      <c r="S3" s="24" t="s">
+      <c r="S3" s="33" t="s">
         <v>12</v>
       </c>
-      <c r="T3" s="21" t="s">
+      <c r="T3" s="30" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="4" spans="1:20" s="15" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="21"/>
-      <c r="B4" s="21"/>
-      <c r="C4" s="21"/>
+      <c r="A4" s="30"/>
+      <c r="B4" s="30"/>
+      <c r="C4" s="30"/>
       <c r="D4" s="16" t="s">
         <v>14</v>
       </c>
@@ -905,11 +905,11 @@
       <c r="O4" s="16" t="s">
         <v>15</v>
       </c>
-      <c r="P4" s="26"/>
-      <c r="Q4" s="21"/>
-      <c r="R4" s="21"/>
-      <c r="S4" s="24"/>
-      <c r="T4" s="21"/>
+      <c r="P4" s="35"/>
+      <c r="Q4" s="30"/>
+      <c r="R4" s="30"/>
+      <c r="S4" s="33"/>
+      <c r="T4" s="30"/>
     </row>
     <row r="5" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A5" s="4"/>
@@ -930,7 +930,7 @@
       <c r="P5" s="6"/>
       <c r="Q5" s="6"/>
       <c r="R5" s="6"/>
-      <c r="S5" s="30"/>
+      <c r="S5" s="21"/>
       <c r="T5" s="3"/>
     </row>
     <row r="6" spans="1:20" x14ac:dyDescent="0.3">
@@ -954,7 +954,7 @@
       <c r="P6" s="8"/>
       <c r="Q6" s="9"/>
       <c r="R6" s="9"/>
-      <c r="S6" s="31"/>
+      <c r="S6" s="22"/>
       <c r="T6" s="10"/>
     </row>
     <row r="7" spans="1:20" x14ac:dyDescent="0.3">
@@ -976,7 +976,7 @@
       <c r="P7" s="13"/>
       <c r="Q7" s="11"/>
       <c r="R7" s="11"/>
-      <c r="S7" s="32"/>
+      <c r="S7" s="23"/>
       <c r="T7" s="11"/>
     </row>
     <row r="8" spans="1:20" x14ac:dyDescent="0.3">
@@ -1052,7 +1052,7 @@
       <c r="T10" s="11"/>
     </row>
     <row r="11" spans="1:20" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="S11" s="33"/>
+      <c r="S11" s="24"/>
       <c r="T11" s="17" t="s">
         <v>17</v>
       </c>
@@ -1071,7 +1071,7 @@
       <c r="N12" s="2"/>
       <c r="O12" s="2"/>
       <c r="P12" s="2"/>
-      <c r="S12" s="34"/>
+      <c r="S12" s="25"/>
       <c r="T12" s="18" t="s">
         <v>18</v>
       </c>
@@ -1086,19 +1086,12 @@
       <c r="L13" s="19" t="s">
         <v>21</v>
       </c>
-      <c r="T13" s="20" t="s">
+      <c r="S13" s="20" t="s">
         <v>22</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="23">
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="A8:Q8"/>
-    <mergeCell ref="A9:Q9"/>
-    <mergeCell ref="A10:Q10"/>
-    <mergeCell ref="R8:S8"/>
-    <mergeCell ref="R9:S9"/>
-    <mergeCell ref="R10:S10"/>
     <mergeCell ref="T3:T4"/>
     <mergeCell ref="A2:T2"/>
     <mergeCell ref="A1:T1"/>
@@ -1115,6 +1108,13 @@
     <mergeCell ref="F3:G3"/>
     <mergeCell ref="H3:I3"/>
     <mergeCell ref="P3:P4"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="A8:Q8"/>
+    <mergeCell ref="A9:Q9"/>
+    <mergeCell ref="A10:Q10"/>
+    <mergeCell ref="R8:S8"/>
+    <mergeCell ref="R9:S9"/>
+    <mergeCell ref="R10:S10"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup scale="88" fitToHeight="0" orientation="landscape" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
@@ -1128,8 +1128,8 @@
   </sheetPr>
   <dimension ref="A1:T13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="S5" sqref="S1:S1048576"/>
+    <sheetView topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="S13" sqref="S13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="20.25" x14ac:dyDescent="0.3"/>
@@ -1152,113 +1152,113 @@
     <col min="16" max="16" width="6.5703125" style="14" customWidth="1"/>
     <col min="17" max="17" width="7.28515625" style="2" customWidth="1"/>
     <col min="18" max="18" width="7.5703125" style="2" customWidth="1"/>
-    <col min="19" max="19" width="16.7109375" style="35" customWidth="1"/>
+    <col min="19" max="19" width="16.7109375" style="26" customWidth="1"/>
     <col min="20" max="20" width="14.5703125" style="2" customWidth="1"/>
     <col min="21" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:20" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="23" t="s">
+      <c r="A1" s="32" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="23"/>
-      <c r="C1" s="23"/>
-      <c r="D1" s="23"/>
-      <c r="E1" s="23"/>
-      <c r="F1" s="23"/>
-      <c r="G1" s="23"/>
-      <c r="H1" s="23"/>
-      <c r="I1" s="23"/>
-      <c r="J1" s="23"/>
-      <c r="K1" s="23"/>
-      <c r="L1" s="23"/>
-      <c r="M1" s="23"/>
-      <c r="N1" s="23"/>
-      <c r="O1" s="23"/>
-      <c r="P1" s="23"/>
-      <c r="Q1" s="23"/>
-      <c r="R1" s="23"/>
-      <c r="S1" s="23"/>
-      <c r="T1" s="23"/>
+      <c r="B1" s="32"/>
+      <c r="C1" s="32"/>
+      <c r="D1" s="32"/>
+      <c r="E1" s="32"/>
+      <c r="F1" s="32"/>
+      <c r="G1" s="32"/>
+      <c r="H1" s="32"/>
+      <c r="I1" s="32"/>
+      <c r="J1" s="32"/>
+      <c r="K1" s="32"/>
+      <c r="L1" s="32"/>
+      <c r="M1" s="32"/>
+      <c r="N1" s="32"/>
+      <c r="O1" s="32"/>
+      <c r="P1" s="32"/>
+      <c r="Q1" s="32"/>
+      <c r="R1" s="32"/>
+      <c r="S1" s="32"/>
+      <c r="T1" s="32"/>
     </row>
     <row r="2" spans="1:20" ht="35.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="22" t="s">
+      <c r="A2" s="31" t="s">
         <v>27</v>
       </c>
-      <c r="B2" s="22"/>
-      <c r="C2" s="22"/>
-      <c r="D2" s="22"/>
-      <c r="E2" s="22"/>
-      <c r="F2" s="22"/>
-      <c r="G2" s="22"/>
-      <c r="H2" s="22"/>
-      <c r="I2" s="22"/>
-      <c r="J2" s="22"/>
-      <c r="K2" s="22"/>
-      <c r="L2" s="22"/>
-      <c r="M2" s="22"/>
-      <c r="N2" s="22"/>
-      <c r="O2" s="22"/>
-      <c r="P2" s="22"/>
-      <c r="Q2" s="22"/>
-      <c r="R2" s="22"/>
-      <c r="S2" s="22"/>
-      <c r="T2" s="22"/>
+      <c r="B2" s="31"/>
+      <c r="C2" s="31"/>
+      <c r="D2" s="31"/>
+      <c r="E2" s="31"/>
+      <c r="F2" s="31"/>
+      <c r="G2" s="31"/>
+      <c r="H2" s="31"/>
+      <c r="I2" s="31"/>
+      <c r="J2" s="31"/>
+      <c r="K2" s="31"/>
+      <c r="L2" s="31"/>
+      <c r="M2" s="31"/>
+      <c r="N2" s="31"/>
+      <c r="O2" s="31"/>
+      <c r="P2" s="31"/>
+      <c r="Q2" s="31"/>
+      <c r="R2" s="31"/>
+      <c r="S2" s="31"/>
+      <c r="T2" s="31"/>
     </row>
     <row r="3" spans="1:20" s="15" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="21" t="s">
+      <c r="A3" s="30" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="21" t="s">
+      <c r="B3" s="30" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="21" t="s">
+      <c r="C3" s="30" t="s">
         <v>3</v>
       </c>
-      <c r="D3" s="21" t="s">
+      <c r="D3" s="30" t="s">
         <v>4</v>
       </c>
-      <c r="E3" s="21"/>
-      <c r="F3" s="21" t="s">
+      <c r="E3" s="30"/>
+      <c r="F3" s="30" t="s">
         <v>5</v>
       </c>
-      <c r="G3" s="21"/>
-      <c r="H3" s="21" t="s">
+      <c r="G3" s="30"/>
+      <c r="H3" s="30" t="s">
         <v>6</v>
       </c>
-      <c r="I3" s="21"/>
-      <c r="J3" s="21" t="s">
+      <c r="I3" s="30"/>
+      <c r="J3" s="30" t="s">
         <v>7</v>
       </c>
-      <c r="K3" s="21"/>
-      <c r="L3" s="21" t="s">
+      <c r="K3" s="30"/>
+      <c r="L3" s="30" t="s">
         <v>8</v>
       </c>
-      <c r="M3" s="21"/>
-      <c r="N3" s="21" t="s">
+      <c r="M3" s="30"/>
+      <c r="N3" s="30" t="s">
         <v>9</v>
       </c>
-      <c r="O3" s="21"/>
-      <c r="P3" s="25" t="s">
+      <c r="O3" s="30"/>
+      <c r="P3" s="34" t="s">
         <v>23</v>
       </c>
-      <c r="Q3" s="21" t="s">
+      <c r="Q3" s="30" t="s">
         <v>10</v>
       </c>
-      <c r="R3" s="21" t="s">
+      <c r="R3" s="30" t="s">
         <v>11</v>
       </c>
-      <c r="S3" s="24" t="s">
+      <c r="S3" s="33" t="s">
         <v>12</v>
       </c>
-      <c r="T3" s="21" t="s">
+      <c r="T3" s="30" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="4" spans="1:20" s="15" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="21"/>
-      <c r="B4" s="21"/>
-      <c r="C4" s="21"/>
+      <c r="A4" s="30"/>
+      <c r="B4" s="30"/>
+      <c r="C4" s="30"/>
       <c r="D4" s="16" t="s">
         <v>14</v>
       </c>
@@ -1295,11 +1295,11 @@
       <c r="O4" s="16" t="s">
         <v>15</v>
       </c>
-      <c r="P4" s="26"/>
-      <c r="Q4" s="21"/>
-      <c r="R4" s="21"/>
-      <c r="S4" s="24"/>
-      <c r="T4" s="21"/>
+      <c r="P4" s="35"/>
+      <c r="Q4" s="30"/>
+      <c r="R4" s="30"/>
+      <c r="S4" s="33"/>
+      <c r="T4" s="30"/>
     </row>
     <row r="5" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A5" s="4"/>
@@ -1320,7 +1320,7 @@
       <c r="P5" s="6"/>
       <c r="Q5" s="6"/>
       <c r="R5" s="6"/>
-      <c r="S5" s="30"/>
+      <c r="S5" s="21"/>
       <c r="T5" s="3"/>
     </row>
     <row r="6" spans="1:20" x14ac:dyDescent="0.3">
@@ -1344,7 +1344,7 @@
       <c r="P6" s="8"/>
       <c r="Q6" s="9"/>
       <c r="R6" s="9"/>
-      <c r="S6" s="31"/>
+      <c r="S6" s="22"/>
       <c r="T6" s="10"/>
     </row>
     <row r="7" spans="1:20" x14ac:dyDescent="0.3">
@@ -1366,7 +1366,7 @@
       <c r="P7" s="13"/>
       <c r="Q7" s="11"/>
       <c r="R7" s="11"/>
-      <c r="S7" s="32"/>
+      <c r="S7" s="23"/>
       <c r="T7" s="11"/>
     </row>
     <row r="8" spans="1:20" x14ac:dyDescent="0.3">
@@ -1442,7 +1442,7 @@
       <c r="T10" s="11"/>
     </row>
     <row r="11" spans="1:20" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="S11" s="33"/>
+      <c r="S11" s="24"/>
       <c r="T11" s="17" t="s">
         <v>17</v>
       </c>
@@ -1461,7 +1461,7 @@
       <c r="N12" s="2"/>
       <c r="O12" s="2"/>
       <c r="P12" s="2"/>
-      <c r="S12" s="34"/>
+      <c r="S12" s="25"/>
       <c r="T12" s="18" t="s">
         <v>18</v>
       </c>
@@ -1476,12 +1476,23 @@
       <c r="L13" s="19" t="s">
         <v>21</v>
       </c>
-      <c r="T13" s="20" t="s">
+      <c r="S13" s="20" t="s">
         <v>22</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="23">
+    <mergeCell ref="T3:T4"/>
+    <mergeCell ref="A1:T1"/>
+    <mergeCell ref="A2:T2"/>
+    <mergeCell ref="A3:A4"/>
+    <mergeCell ref="B3:B4"/>
+    <mergeCell ref="C3:C4"/>
+    <mergeCell ref="D3:E3"/>
+    <mergeCell ref="F3:G3"/>
+    <mergeCell ref="H3:I3"/>
+    <mergeCell ref="J3:K3"/>
+    <mergeCell ref="L3:M3"/>
     <mergeCell ref="A10:Q10"/>
     <mergeCell ref="R10:S10"/>
     <mergeCell ref="N3:O3"/>
@@ -1494,17 +1505,6 @@
     <mergeCell ref="R8:S8"/>
     <mergeCell ref="A9:Q9"/>
     <mergeCell ref="R9:S9"/>
-    <mergeCell ref="T3:T4"/>
-    <mergeCell ref="A1:T1"/>
-    <mergeCell ref="A2:T2"/>
-    <mergeCell ref="A3:A4"/>
-    <mergeCell ref="B3:B4"/>
-    <mergeCell ref="C3:C4"/>
-    <mergeCell ref="D3:E3"/>
-    <mergeCell ref="F3:G3"/>
-    <mergeCell ref="H3:I3"/>
-    <mergeCell ref="J3:K3"/>
-    <mergeCell ref="L3:M3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup scale="85" fitToHeight="0" orientation="landscape" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>

--- a/ATV_Allowance/Templates/TemplatePTTT.xlsx
+++ b/ATV_Allowance/Templates/TemplatePTTT.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\job\ATV-Allowance\ATV-Allowance\ATV_Allowance\Templates\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Working\ATV-Allowance\ATV-Allowance\ATV_Allowance\Templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -127,7 +127,7 @@
         <b/>
         <sz val="16"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -140,21 +140,21 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="2">
-    <numFmt numFmtId="41" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="164" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="165" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
   <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="Arial"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="Arial"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -162,7 +162,7 @@
       <b/>
       <sz val="16"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="Arial"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -337,7 +337,7 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -387,23 +387,23 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="41" fontId="3" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="41" fontId="3" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="41" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="41" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="41" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -415,7 +415,7 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="41" fontId="5" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -739,35 +739,35 @@
   <dimension ref="A1:T13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="S13" sqref="S13"/>
+      <selection activeCell="D3" sqref="D3:E3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="20.25" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="20.25" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="7" style="2" customWidth="1"/>
-    <col min="2" max="2" width="27.28515625" style="2" customWidth="1"/>
-    <col min="3" max="3" width="18.140625" style="2" customWidth="1"/>
-    <col min="4" max="4" width="4.28515625" style="14" customWidth="1"/>
-    <col min="5" max="5" width="6.7109375" style="14" customWidth="1"/>
-    <col min="6" max="6" width="4.28515625" style="14" customWidth="1"/>
-    <col min="7" max="7" width="6.7109375" style="14" customWidth="1"/>
-    <col min="8" max="8" width="4.28515625" style="14" customWidth="1"/>
-    <col min="9" max="9" width="6.7109375" style="14" customWidth="1"/>
-    <col min="10" max="10" width="4.28515625" style="14" customWidth="1"/>
-    <col min="11" max="11" width="6.7109375" style="14" customWidth="1"/>
-    <col min="12" max="12" width="4.28515625" style="14" customWidth="1"/>
-    <col min="13" max="13" width="6.7109375" style="14" customWidth="1"/>
-    <col min="14" max="14" width="4.28515625" style="14" customWidth="1"/>
-    <col min="15" max="15" width="6.7109375" style="14" customWidth="1"/>
-    <col min="16" max="16" width="6.5703125" style="14" customWidth="1"/>
-    <col min="17" max="17" width="7.28515625" style="2" customWidth="1"/>
-    <col min="18" max="18" width="7.5703125" style="2" customWidth="1"/>
-    <col min="19" max="19" width="16.7109375" style="26" customWidth="1"/>
-    <col min="20" max="20" width="14.5703125" style="2" customWidth="1"/>
-    <col min="21" max="16384" width="9.140625" style="2"/>
+    <col min="1" max="1" width="6.25" style="2" customWidth="1"/>
+    <col min="2" max="2" width="26.875" style="2" customWidth="1"/>
+    <col min="3" max="3" width="39.625" style="2" customWidth="1"/>
+    <col min="4" max="4" width="4.25" style="14" customWidth="1"/>
+    <col min="5" max="5" width="6.75" style="14" customWidth="1"/>
+    <col min="6" max="6" width="4.25" style="14" customWidth="1"/>
+    <col min="7" max="7" width="6.75" style="14" customWidth="1"/>
+    <col min="8" max="8" width="4.25" style="14" customWidth="1"/>
+    <col min="9" max="9" width="6.75" style="14" customWidth="1"/>
+    <col min="10" max="10" width="4.25" style="14" customWidth="1"/>
+    <col min="11" max="11" width="6.75" style="14" customWidth="1"/>
+    <col min="12" max="12" width="4.25" style="14" customWidth="1"/>
+    <col min="13" max="13" width="6.75" style="14" customWidth="1"/>
+    <col min="14" max="14" width="4.25" style="14" customWidth="1"/>
+    <col min="15" max="15" width="6.75" style="14" customWidth="1"/>
+    <col min="16" max="16" width="6.625" style="14" customWidth="1"/>
+    <col min="17" max="17" width="7.25" style="2" customWidth="1"/>
+    <col min="18" max="18" width="7.625" style="2" customWidth="1"/>
+    <col min="19" max="19" width="16.75" style="26" customWidth="1"/>
+    <col min="20" max="20" width="11.25" style="2" customWidth="1"/>
+    <col min="21" max="16384" width="9.125" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:20" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="32" t="s">
         <v>0</v>
       </c>
@@ -1051,7 +1051,7 @@
       <c r="S10" s="29"/>
       <c r="T10" s="11"/>
     </row>
-    <row r="11" spans="1:20" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:20" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="S11" s="24"/>
       <c r="T11" s="17" t="s">
         <v>17</v>
@@ -1117,7 +1117,7 @@
     <mergeCell ref="R10:S10"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup scale="88" fitToHeight="0" orientation="landscape" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <pageSetup scale="65" fitToHeight="0" orientation="landscape" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -1128,36 +1128,36 @@
   </sheetPr>
   <dimension ref="A1:T13"/>
   <sheetViews>
-    <sheetView topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="S13" sqref="S13"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="20.25" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="20.25" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="7" style="2" customWidth="1"/>
-    <col min="2" max="2" width="27.28515625" style="2" customWidth="1"/>
-    <col min="3" max="3" width="18.140625" style="2" customWidth="1"/>
-    <col min="4" max="4" width="4.28515625" style="14" customWidth="1"/>
-    <col min="5" max="5" width="6.7109375" style="14" customWidth="1"/>
-    <col min="6" max="6" width="4.28515625" style="14" customWidth="1"/>
-    <col min="7" max="7" width="6.7109375" style="14" customWidth="1"/>
-    <col min="8" max="8" width="4.28515625" style="14" customWidth="1"/>
-    <col min="9" max="9" width="6.7109375" style="14" customWidth="1"/>
-    <col min="10" max="10" width="4.28515625" style="14" customWidth="1"/>
-    <col min="11" max="11" width="6.7109375" style="14" customWidth="1"/>
-    <col min="12" max="12" width="4.28515625" style="14" customWidth="1"/>
-    <col min="13" max="13" width="6.7109375" style="14" customWidth="1"/>
-    <col min="14" max="14" width="4.28515625" style="14" customWidth="1"/>
-    <col min="15" max="15" width="6.7109375" style="14" customWidth="1"/>
-    <col min="16" max="16" width="6.5703125" style="14" customWidth="1"/>
-    <col min="17" max="17" width="7.28515625" style="2" customWidth="1"/>
-    <col min="18" max="18" width="7.5703125" style="2" customWidth="1"/>
-    <col min="19" max="19" width="16.7109375" style="26" customWidth="1"/>
-    <col min="20" max="20" width="14.5703125" style="2" customWidth="1"/>
-    <col min="21" max="16384" width="9.140625" style="2"/>
+    <col min="1" max="1" width="6.25" style="2" customWidth="1"/>
+    <col min="2" max="2" width="26.875" style="2" customWidth="1"/>
+    <col min="3" max="3" width="39.625" style="2" customWidth="1"/>
+    <col min="4" max="4" width="4.25" style="14" customWidth="1"/>
+    <col min="5" max="5" width="6.75" style="14" customWidth="1"/>
+    <col min="6" max="6" width="4.25" style="14" customWidth="1"/>
+    <col min="7" max="7" width="6.75" style="14" customWidth="1"/>
+    <col min="8" max="8" width="4.25" style="14" customWidth="1"/>
+    <col min="9" max="9" width="6.75" style="14" customWidth="1"/>
+    <col min="10" max="10" width="4.25" style="14" customWidth="1"/>
+    <col min="11" max="11" width="6.75" style="14" customWidth="1"/>
+    <col min="12" max="12" width="4.25" style="14" customWidth="1"/>
+    <col min="13" max="13" width="6.75" style="14" customWidth="1"/>
+    <col min="14" max="14" width="4.25" style="14" customWidth="1"/>
+    <col min="15" max="15" width="6.75" style="14" customWidth="1"/>
+    <col min="16" max="16" width="6.625" style="14" customWidth="1"/>
+    <col min="17" max="17" width="7.25" style="2" customWidth="1"/>
+    <col min="18" max="18" width="7.625" style="2" customWidth="1"/>
+    <col min="19" max="19" width="16.75" style="26" customWidth="1"/>
+    <col min="20" max="20" width="11.25" style="2" customWidth="1"/>
+    <col min="21" max="16384" width="9.125" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:20" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="32" t="s">
         <v>0</v>
       </c>
@@ -1441,7 +1441,7 @@
       <c r="S10" s="29"/>
       <c r="T10" s="11"/>
     </row>
-    <row r="11" spans="1:20" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:20" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="S11" s="24"/>
       <c r="T11" s="17" t="s">
         <v>17</v>

--- a/ATV_Allowance/Templates/TemplatePTTT.xlsx
+++ b/ATV_Allowance/Templates/TemplatePTTT.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Working\ATV-Allowance\ATV-Allowance\ATV_Allowance\Templates\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\job\ATV-Allowance\ATV-Allowance\ATV_Allowance\Templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7020"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7020" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="PV" sheetId="1" r:id="rId1"/>
@@ -127,7 +127,7 @@
         <b/>
         <sz val="16"/>
         <color theme="1"/>
-        <rFont val="Arial"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -140,21 +140,21 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="2">
-    <numFmt numFmtId="164" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="165" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="41" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
   <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Arial"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Arial"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -162,7 +162,7 @@
       <b/>
       <sz val="16"/>
       <color theme="1"/>
-      <name val="Arial"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -337,9 +337,9 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="36">
+  <cellXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
@@ -357,19 +357,6 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -387,25 +374,14 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="41" fontId="3" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="41" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -415,7 +391,7 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="41" fontId="5" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -423,6 +399,45 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="3" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -738,180 +753,180 @@
   </sheetPr>
   <dimension ref="A1:T13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3:E3"/>
+    <sheetView topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="I22" sqref="I22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="20.25" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="20.25" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="6.25" style="2" customWidth="1"/>
-    <col min="2" max="2" width="26.875" style="2" customWidth="1"/>
-    <col min="3" max="3" width="39.625" style="2" customWidth="1"/>
-    <col min="4" max="4" width="4.25" style="14" customWidth="1"/>
-    <col min="5" max="5" width="6.75" style="14" customWidth="1"/>
-    <col min="6" max="6" width="4.25" style="14" customWidth="1"/>
-    <col min="7" max="7" width="6.75" style="14" customWidth="1"/>
-    <col min="8" max="8" width="4.25" style="14" customWidth="1"/>
-    <col min="9" max="9" width="6.75" style="14" customWidth="1"/>
-    <col min="10" max="10" width="4.25" style="14" customWidth="1"/>
-    <col min="11" max="11" width="6.75" style="14" customWidth="1"/>
-    <col min="12" max="12" width="4.25" style="14" customWidth="1"/>
-    <col min="13" max="13" width="6.75" style="14" customWidth="1"/>
-    <col min="14" max="14" width="4.25" style="14" customWidth="1"/>
-    <col min="15" max="15" width="6.75" style="14" customWidth="1"/>
-    <col min="16" max="16" width="6.625" style="14" customWidth="1"/>
-    <col min="17" max="17" width="7.25" style="2" customWidth="1"/>
-    <col min="18" max="18" width="7.625" style="2" customWidth="1"/>
-    <col min="19" max="19" width="16.75" style="26" customWidth="1"/>
-    <col min="20" max="20" width="11.25" style="2" customWidth="1"/>
-    <col min="21" max="16384" width="9.125" style="2"/>
+    <col min="1" max="1" width="6.28515625" style="2" customWidth="1"/>
+    <col min="2" max="2" width="26.85546875" style="2" customWidth="1"/>
+    <col min="3" max="3" width="39.5703125" style="2" customWidth="1"/>
+    <col min="4" max="4" width="4.28515625" style="7" customWidth="1"/>
+    <col min="5" max="5" width="6.7109375" style="7" customWidth="1"/>
+    <col min="6" max="6" width="4.28515625" style="7" customWidth="1"/>
+    <col min="7" max="7" width="6.7109375" style="7" customWidth="1"/>
+    <col min="8" max="8" width="4.28515625" style="7" customWidth="1"/>
+    <col min="9" max="9" width="6.7109375" style="7" customWidth="1"/>
+    <col min="10" max="10" width="4.28515625" style="7" customWidth="1"/>
+    <col min="11" max="11" width="6.7109375" style="7" customWidth="1"/>
+    <col min="12" max="12" width="4.28515625" style="7" customWidth="1"/>
+    <col min="13" max="13" width="6.7109375" style="7" customWidth="1"/>
+    <col min="14" max="14" width="4.28515625" style="7" customWidth="1"/>
+    <col min="15" max="15" width="6.7109375" style="7" customWidth="1"/>
+    <col min="16" max="16" width="6.5703125" style="7" customWidth="1"/>
+    <col min="17" max="17" width="7.28515625" style="2" customWidth="1"/>
+    <col min="18" max="18" width="7.5703125" style="2" customWidth="1"/>
+    <col min="19" max="19" width="16.7109375" style="17" customWidth="1"/>
+    <col min="20" max="20" width="11.28515625" style="2" customWidth="1"/>
+    <col min="21" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="32" t="s">
+    <row r="1" spans="1:20" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="20" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="32"/>
-      <c r="C1" s="32"/>
-      <c r="D1" s="32"/>
-      <c r="E1" s="32"/>
-      <c r="F1" s="32"/>
-      <c r="G1" s="32"/>
-      <c r="H1" s="32"/>
-      <c r="I1" s="32"/>
-      <c r="J1" s="32"/>
-      <c r="K1" s="32"/>
-      <c r="L1" s="32"/>
-      <c r="M1" s="32"/>
-      <c r="N1" s="32"/>
-      <c r="O1" s="32"/>
-      <c r="P1" s="32"/>
-      <c r="Q1" s="32"/>
-      <c r="R1" s="32"/>
-      <c r="S1" s="32"/>
-      <c r="T1" s="32"/>
+      <c r="B1" s="20"/>
+      <c r="C1" s="20"/>
+      <c r="D1" s="20"/>
+      <c r="E1" s="20"/>
+      <c r="F1" s="20"/>
+      <c r="G1" s="20"/>
+      <c r="H1" s="20"/>
+      <c r="I1" s="20"/>
+      <c r="J1" s="20"/>
+      <c r="K1" s="20"/>
+      <c r="L1" s="20"/>
+      <c r="M1" s="20"/>
+      <c r="N1" s="20"/>
+      <c r="O1" s="20"/>
+      <c r="P1" s="20"/>
+      <c r="Q1" s="20"/>
+      <c r="R1" s="20"/>
+      <c r="S1" s="20"/>
+      <c r="T1" s="20"/>
     </row>
     <row r="2" spans="1:20" ht="35.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="31" t="s">
+      <c r="A2" s="19" t="s">
         <v>27</v>
       </c>
-      <c r="B2" s="31"/>
-      <c r="C2" s="31"/>
-      <c r="D2" s="31"/>
-      <c r="E2" s="31"/>
-      <c r="F2" s="31"/>
-      <c r="G2" s="31"/>
-      <c r="H2" s="31"/>
-      <c r="I2" s="31"/>
-      <c r="J2" s="31"/>
-      <c r="K2" s="31"/>
-      <c r="L2" s="31"/>
-      <c r="M2" s="31"/>
-      <c r="N2" s="31"/>
-      <c r="O2" s="31"/>
-      <c r="P2" s="31"/>
-      <c r="Q2" s="31"/>
-      <c r="R2" s="31"/>
-      <c r="S2" s="31"/>
-      <c r="T2" s="31"/>
-    </row>
-    <row r="3" spans="1:20" s="15" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="30" t="s">
+      <c r="B2" s="19"/>
+      <c r="C2" s="19"/>
+      <c r="D2" s="19"/>
+      <c r="E2" s="19"/>
+      <c r="F2" s="19"/>
+      <c r="G2" s="19"/>
+      <c r="H2" s="19"/>
+      <c r="I2" s="19"/>
+      <c r="J2" s="19"/>
+      <c r="K2" s="19"/>
+      <c r="L2" s="19"/>
+      <c r="M2" s="19"/>
+      <c r="N2" s="19"/>
+      <c r="O2" s="19"/>
+      <c r="P2" s="19"/>
+      <c r="Q2" s="19"/>
+      <c r="R2" s="19"/>
+      <c r="S2" s="19"/>
+      <c r="T2" s="19"/>
+    </row>
+    <row r="3" spans="1:20" s="8" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="18" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="30" t="s">
+      <c r="B3" s="18" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="30" t="s">
+      <c r="C3" s="18" t="s">
         <v>3</v>
       </c>
-      <c r="D3" s="30" t="s">
+      <c r="D3" s="18" t="s">
         <v>4</v>
       </c>
-      <c r="E3" s="30"/>
-      <c r="F3" s="30" t="s">
+      <c r="E3" s="18"/>
+      <c r="F3" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="G3" s="30"/>
-      <c r="H3" s="30" t="s">
+      <c r="G3" s="18"/>
+      <c r="H3" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="I3" s="30"/>
-      <c r="J3" s="30" t="s">
+      <c r="I3" s="18"/>
+      <c r="J3" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="K3" s="30"/>
-      <c r="L3" s="30" t="s">
+      <c r="K3" s="18"/>
+      <c r="L3" s="18" t="s">
         <v>8</v>
       </c>
-      <c r="M3" s="30"/>
-      <c r="N3" s="30" t="s">
+      <c r="M3" s="18"/>
+      <c r="N3" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="O3" s="30"/>
-      <c r="P3" s="34" t="s">
+      <c r="O3" s="18"/>
+      <c r="P3" s="22" t="s">
         <v>23</v>
       </c>
-      <c r="Q3" s="30" t="s">
+      <c r="Q3" s="18" t="s">
         <v>10</v>
       </c>
-      <c r="R3" s="30" t="s">
+      <c r="R3" s="18" t="s">
         <v>11</v>
       </c>
-      <c r="S3" s="33" t="s">
+      <c r="S3" s="21" t="s">
         <v>12</v>
       </c>
-      <c r="T3" s="30" t="s">
+      <c r="T3" s="18" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="4" spans="1:20" s="15" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="30"/>
-      <c r="B4" s="30"/>
-      <c r="C4" s="30"/>
-      <c r="D4" s="16" t="s">
+    <row r="4" spans="1:20" s="8" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="18"/>
+      <c r="B4" s="18"/>
+      <c r="C4" s="18"/>
+      <c r="D4" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="E4" s="16" t="s">
+      <c r="E4" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="F4" s="16" t="s">
+      <c r="F4" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="G4" s="16" t="s">
+      <c r="G4" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="H4" s="16" t="s">
+      <c r="H4" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="I4" s="16" t="s">
+      <c r="I4" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="J4" s="16" t="s">
+      <c r="J4" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="K4" s="16" t="s">
+      <c r="K4" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="L4" s="16" t="s">
+      <c r="L4" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="M4" s="16" t="s">
+      <c r="M4" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="N4" s="16" t="s">
+      <c r="N4" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="O4" s="16" t="s">
+      <c r="O4" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="P4" s="35"/>
-      <c r="Q4" s="30"/>
-      <c r="R4" s="30"/>
-      <c r="S4" s="33"/>
-      <c r="T4" s="30"/>
-    </row>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="P4" s="23"/>
+      <c r="Q4" s="18"/>
+      <c r="R4" s="18"/>
+      <c r="S4" s="21"/>
+      <c r="T4" s="18"/>
+    </row>
+    <row r="5" spans="1:20" s="24" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="4"/>
       <c r="B5" s="5"/>
       <c r="C5" s="5"/>
@@ -930,130 +945,130 @@
       <c r="P5" s="6"/>
       <c r="Q5" s="6"/>
       <c r="R5" s="6"/>
-      <c r="S5" s="21"/>
+      <c r="S5" s="14"/>
       <c r="T5" s="3"/>
     </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A6" s="7"/>
-      <c r="B6" s="27" t="s">
+    <row r="6" spans="1:20" s="24" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="25"/>
+      <c r="B6" s="26" t="s">
         <v>16</v>
       </c>
-      <c r="C6" s="27"/>
-      <c r="D6" s="8"/>
-      <c r="E6" s="8"/>
-      <c r="F6" s="8"/>
-      <c r="G6" s="8"/>
-      <c r="H6" s="8"/>
-      <c r="I6" s="8"/>
-      <c r="J6" s="8"/>
-      <c r="K6" s="8"/>
-      <c r="L6" s="8"/>
-      <c r="M6" s="8"/>
-      <c r="N6" s="8"/>
-      <c r="O6" s="8"/>
-      <c r="P6" s="8"/>
-      <c r="Q6" s="9"/>
-      <c r="R6" s="9"/>
-      <c r="S6" s="22"/>
-      <c r="T6" s="10"/>
-    </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A7" s="11"/>
-      <c r="B7" s="12"/>
-      <c r="C7" s="12"/>
-      <c r="D7" s="13"/>
-      <c r="E7" s="13"/>
-      <c r="F7" s="13"/>
-      <c r="G7" s="13"/>
-      <c r="H7" s="13"/>
-      <c r="I7" s="13"/>
-      <c r="J7" s="13"/>
-      <c r="K7" s="13"/>
-      <c r="L7" s="13"/>
-      <c r="M7" s="13"/>
-      <c r="N7" s="13"/>
-      <c r="O7" s="13"/>
-      <c r="P7" s="13"/>
-      <c r="Q7" s="11"/>
-      <c r="R7" s="11"/>
-      <c r="S7" s="23"/>
-      <c r="T7" s="11"/>
-    </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A8" s="28" t="s">
+      <c r="C6" s="26"/>
+      <c r="D6" s="27"/>
+      <c r="E6" s="27"/>
+      <c r="F6" s="27"/>
+      <c r="G6" s="27"/>
+      <c r="H6" s="27"/>
+      <c r="I6" s="27"/>
+      <c r="J6" s="27"/>
+      <c r="K6" s="27"/>
+      <c r="L6" s="27"/>
+      <c r="M6" s="27"/>
+      <c r="N6" s="27"/>
+      <c r="O6" s="27"/>
+      <c r="P6" s="27"/>
+      <c r="Q6" s="28"/>
+      <c r="R6" s="28"/>
+      <c r="S6" s="29"/>
+      <c r="T6" s="30"/>
+    </row>
+    <row r="7" spans="1:20" s="24" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="31"/>
+      <c r="B7" s="32"/>
+      <c r="C7" s="32"/>
+      <c r="D7" s="33"/>
+      <c r="E7" s="33"/>
+      <c r="F7" s="33"/>
+      <c r="G7" s="33"/>
+      <c r="H7" s="33"/>
+      <c r="I7" s="33"/>
+      <c r="J7" s="33"/>
+      <c r="K7" s="33"/>
+      <c r="L7" s="33"/>
+      <c r="M7" s="33"/>
+      <c r="N7" s="33"/>
+      <c r="O7" s="33"/>
+      <c r="P7" s="33"/>
+      <c r="Q7" s="31"/>
+      <c r="R7" s="31"/>
+      <c r="S7" s="34"/>
+      <c r="T7" s="31"/>
+    </row>
+    <row r="8" spans="1:20" s="24" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="35" t="s">
         <v>24</v>
       </c>
-      <c r="B8" s="28"/>
-      <c r="C8" s="28"/>
-      <c r="D8" s="28"/>
-      <c r="E8" s="28"/>
-      <c r="F8" s="28"/>
-      <c r="G8" s="28"/>
-      <c r="H8" s="28"/>
-      <c r="I8" s="28"/>
-      <c r="J8" s="28"/>
-      <c r="K8" s="28"/>
-      <c r="L8" s="28"/>
-      <c r="M8" s="28"/>
-      <c r="N8" s="28"/>
-      <c r="O8" s="28"/>
-      <c r="P8" s="28"/>
-      <c r="Q8" s="28"/>
-      <c r="R8" s="29"/>
-      <c r="S8" s="29"/>
-      <c r="T8" s="10"/>
-    </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A9" s="28" t="s">
+      <c r="B8" s="35"/>
+      <c r="C8" s="35"/>
+      <c r="D8" s="35"/>
+      <c r="E8" s="35"/>
+      <c r="F8" s="35"/>
+      <c r="G8" s="35"/>
+      <c r="H8" s="35"/>
+      <c r="I8" s="35"/>
+      <c r="J8" s="35"/>
+      <c r="K8" s="35"/>
+      <c r="L8" s="35"/>
+      <c r="M8" s="35"/>
+      <c r="N8" s="35"/>
+      <c r="O8" s="35"/>
+      <c r="P8" s="35"/>
+      <c r="Q8" s="35"/>
+      <c r="R8" s="36"/>
+      <c r="S8" s="36"/>
+      <c r="T8" s="30"/>
+    </row>
+    <row r="9" spans="1:20" s="24" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="35" t="s">
         <v>25</v>
       </c>
-      <c r="B9" s="28"/>
-      <c r="C9" s="28"/>
-      <c r="D9" s="28"/>
-      <c r="E9" s="28"/>
-      <c r="F9" s="28"/>
-      <c r="G9" s="28"/>
-      <c r="H9" s="28"/>
-      <c r="I9" s="28"/>
-      <c r="J9" s="28"/>
-      <c r="K9" s="28"/>
-      <c r="L9" s="28"/>
-      <c r="M9" s="28"/>
-      <c r="N9" s="28"/>
-      <c r="O9" s="28"/>
-      <c r="P9" s="28"/>
-      <c r="Q9" s="28"/>
-      <c r="R9" s="29"/>
-      <c r="S9" s="29"/>
-      <c r="T9" s="10"/>
-    </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A10" s="28" t="s">
+      <c r="B9" s="35"/>
+      <c r="C9" s="35"/>
+      <c r="D9" s="35"/>
+      <c r="E9" s="35"/>
+      <c r="F9" s="35"/>
+      <c r="G9" s="35"/>
+      <c r="H9" s="35"/>
+      <c r="I9" s="35"/>
+      <c r="J9" s="35"/>
+      <c r="K9" s="35"/>
+      <c r="L9" s="35"/>
+      <c r="M9" s="35"/>
+      <c r="N9" s="35"/>
+      <c r="O9" s="35"/>
+      <c r="P9" s="35"/>
+      <c r="Q9" s="35"/>
+      <c r="R9" s="36"/>
+      <c r="S9" s="36"/>
+      <c r="T9" s="30"/>
+    </row>
+    <row r="10" spans="1:20" s="24" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="35" t="s">
         <v>26</v>
       </c>
-      <c r="B10" s="28"/>
-      <c r="C10" s="28"/>
-      <c r="D10" s="28"/>
-      <c r="E10" s="28"/>
-      <c r="F10" s="28"/>
-      <c r="G10" s="28"/>
-      <c r="H10" s="28"/>
-      <c r="I10" s="28"/>
-      <c r="J10" s="28"/>
-      <c r="K10" s="28"/>
-      <c r="L10" s="28"/>
-      <c r="M10" s="28"/>
-      <c r="N10" s="28"/>
-      <c r="O10" s="28"/>
-      <c r="P10" s="28"/>
-      <c r="Q10" s="28"/>
-      <c r="R10" s="29"/>
-      <c r="S10" s="29"/>
-      <c r="T10" s="11"/>
-    </row>
-    <row r="11" spans="1:20" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="S11" s="24"/>
-      <c r="T11" s="17" t="s">
+      <c r="B10" s="35"/>
+      <c r="C10" s="35"/>
+      <c r="D10" s="35"/>
+      <c r="E10" s="35"/>
+      <c r="F10" s="35"/>
+      <c r="G10" s="35"/>
+      <c r="H10" s="35"/>
+      <c r="I10" s="35"/>
+      <c r="J10" s="35"/>
+      <c r="K10" s="35"/>
+      <c r="L10" s="35"/>
+      <c r="M10" s="35"/>
+      <c r="N10" s="35"/>
+      <c r="O10" s="35"/>
+      <c r="P10" s="35"/>
+      <c r="Q10" s="35"/>
+      <c r="R10" s="36"/>
+      <c r="S10" s="36"/>
+      <c r="T10" s="31"/>
+    </row>
+    <row r="11" spans="1:20" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="S11" s="15"/>
+      <c r="T11" s="10" t="s">
         <v>17</v>
       </c>
     </row>
@@ -1071,27 +1086,34 @@
       <c r="N12" s="2"/>
       <c r="O12" s="2"/>
       <c r="P12" s="2"/>
-      <c r="S12" s="25"/>
-      <c r="T12" s="18" t="s">
+      <c r="S12" s="16"/>
+      <c r="T12" s="11" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="13" spans="1:20" s="19" customFormat="1" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B13" s="20" t="s">
+    <row r="13" spans="1:20" s="12" customFormat="1" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B13" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="E13" s="19" t="s">
+      <c r="E13" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="L13" s="19" t="s">
+      <c r="L13" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="S13" s="20" t="s">
+      <c r="S13" s="13" t="s">
         <v>22</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="23">
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="A8:Q8"/>
+    <mergeCell ref="A9:Q9"/>
+    <mergeCell ref="A10:Q10"/>
+    <mergeCell ref="R8:S8"/>
+    <mergeCell ref="R9:S9"/>
+    <mergeCell ref="R10:S10"/>
     <mergeCell ref="T3:T4"/>
     <mergeCell ref="A2:T2"/>
     <mergeCell ref="A1:T1"/>
@@ -1108,13 +1130,6 @@
     <mergeCell ref="F3:G3"/>
     <mergeCell ref="H3:I3"/>
     <mergeCell ref="P3:P4"/>
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="A8:Q8"/>
-    <mergeCell ref="A9:Q9"/>
-    <mergeCell ref="A10:Q10"/>
-    <mergeCell ref="R8:S8"/>
-    <mergeCell ref="R9:S9"/>
-    <mergeCell ref="R10:S10"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup scale="65" fitToHeight="0" orientation="landscape" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
@@ -1128,180 +1143,180 @@
   </sheetPr>
   <dimension ref="A1:T13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A5" sqref="A5:XFD10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="20.25" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="20.25" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="6.25" style="2" customWidth="1"/>
-    <col min="2" max="2" width="26.875" style="2" customWidth="1"/>
-    <col min="3" max="3" width="39.625" style="2" customWidth="1"/>
-    <col min="4" max="4" width="4.25" style="14" customWidth="1"/>
-    <col min="5" max="5" width="6.75" style="14" customWidth="1"/>
-    <col min="6" max="6" width="4.25" style="14" customWidth="1"/>
-    <col min="7" max="7" width="6.75" style="14" customWidth="1"/>
-    <col min="8" max="8" width="4.25" style="14" customWidth="1"/>
-    <col min="9" max="9" width="6.75" style="14" customWidth="1"/>
-    <col min="10" max="10" width="4.25" style="14" customWidth="1"/>
-    <col min="11" max="11" width="6.75" style="14" customWidth="1"/>
-    <col min="12" max="12" width="4.25" style="14" customWidth="1"/>
-    <col min="13" max="13" width="6.75" style="14" customWidth="1"/>
-    <col min="14" max="14" width="4.25" style="14" customWidth="1"/>
-    <col min="15" max="15" width="6.75" style="14" customWidth="1"/>
-    <col min="16" max="16" width="6.625" style="14" customWidth="1"/>
-    <col min="17" max="17" width="7.25" style="2" customWidth="1"/>
-    <col min="18" max="18" width="7.625" style="2" customWidth="1"/>
-    <col min="19" max="19" width="16.75" style="26" customWidth="1"/>
-    <col min="20" max="20" width="11.25" style="2" customWidth="1"/>
-    <col min="21" max="16384" width="9.125" style="2"/>
+    <col min="1" max="1" width="6.28515625" style="2" customWidth="1"/>
+    <col min="2" max="2" width="26.85546875" style="2" customWidth="1"/>
+    <col min="3" max="3" width="39.5703125" style="2" customWidth="1"/>
+    <col min="4" max="4" width="4.28515625" style="7" customWidth="1"/>
+    <col min="5" max="5" width="6.7109375" style="7" customWidth="1"/>
+    <col min="6" max="6" width="4.28515625" style="7" customWidth="1"/>
+    <col min="7" max="7" width="6.7109375" style="7" customWidth="1"/>
+    <col min="8" max="8" width="4.28515625" style="7" customWidth="1"/>
+    <col min="9" max="9" width="6.7109375" style="7" customWidth="1"/>
+    <col min="10" max="10" width="4.28515625" style="7" customWidth="1"/>
+    <col min="11" max="11" width="6.7109375" style="7" customWidth="1"/>
+    <col min="12" max="12" width="4.28515625" style="7" customWidth="1"/>
+    <col min="13" max="13" width="6.7109375" style="7" customWidth="1"/>
+    <col min="14" max="14" width="4.28515625" style="7" customWidth="1"/>
+    <col min="15" max="15" width="6.7109375" style="7" customWidth="1"/>
+    <col min="16" max="16" width="6.5703125" style="7" customWidth="1"/>
+    <col min="17" max="17" width="7.28515625" style="2" customWidth="1"/>
+    <col min="18" max="18" width="7.5703125" style="2" customWidth="1"/>
+    <col min="19" max="19" width="16.7109375" style="17" customWidth="1"/>
+    <col min="20" max="20" width="11.28515625" style="2" customWidth="1"/>
+    <col min="21" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="32" t="s">
+    <row r="1" spans="1:20" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="20" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="32"/>
-      <c r="C1" s="32"/>
-      <c r="D1" s="32"/>
-      <c r="E1" s="32"/>
-      <c r="F1" s="32"/>
-      <c r="G1" s="32"/>
-      <c r="H1" s="32"/>
-      <c r="I1" s="32"/>
-      <c r="J1" s="32"/>
-      <c r="K1" s="32"/>
-      <c r="L1" s="32"/>
-      <c r="M1" s="32"/>
-      <c r="N1" s="32"/>
-      <c r="O1" s="32"/>
-      <c r="P1" s="32"/>
-      <c r="Q1" s="32"/>
-      <c r="R1" s="32"/>
-      <c r="S1" s="32"/>
-      <c r="T1" s="32"/>
+      <c r="B1" s="20"/>
+      <c r="C1" s="20"/>
+      <c r="D1" s="20"/>
+      <c r="E1" s="20"/>
+      <c r="F1" s="20"/>
+      <c r="G1" s="20"/>
+      <c r="H1" s="20"/>
+      <c r="I1" s="20"/>
+      <c r="J1" s="20"/>
+      <c r="K1" s="20"/>
+      <c r="L1" s="20"/>
+      <c r="M1" s="20"/>
+      <c r="N1" s="20"/>
+      <c r="O1" s="20"/>
+      <c r="P1" s="20"/>
+      <c r="Q1" s="20"/>
+      <c r="R1" s="20"/>
+      <c r="S1" s="20"/>
+      <c r="T1" s="20"/>
     </row>
     <row r="2" spans="1:20" ht="35.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="31" t="s">
+      <c r="A2" s="19" t="s">
         <v>27</v>
       </c>
-      <c r="B2" s="31"/>
-      <c r="C2" s="31"/>
-      <c r="D2" s="31"/>
-      <c r="E2" s="31"/>
-      <c r="F2" s="31"/>
-      <c r="G2" s="31"/>
-      <c r="H2" s="31"/>
-      <c r="I2" s="31"/>
-      <c r="J2" s="31"/>
-      <c r="K2" s="31"/>
-      <c r="L2" s="31"/>
-      <c r="M2" s="31"/>
-      <c r="N2" s="31"/>
-      <c r="O2" s="31"/>
-      <c r="P2" s="31"/>
-      <c r="Q2" s="31"/>
-      <c r="R2" s="31"/>
-      <c r="S2" s="31"/>
-      <c r="T2" s="31"/>
-    </row>
-    <row r="3" spans="1:20" s="15" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="30" t="s">
+      <c r="B2" s="19"/>
+      <c r="C2" s="19"/>
+      <c r="D2" s="19"/>
+      <c r="E2" s="19"/>
+      <c r="F2" s="19"/>
+      <c r="G2" s="19"/>
+      <c r="H2" s="19"/>
+      <c r="I2" s="19"/>
+      <c r="J2" s="19"/>
+      <c r="K2" s="19"/>
+      <c r="L2" s="19"/>
+      <c r="M2" s="19"/>
+      <c r="N2" s="19"/>
+      <c r="O2" s="19"/>
+      <c r="P2" s="19"/>
+      <c r="Q2" s="19"/>
+      <c r="R2" s="19"/>
+      <c r="S2" s="19"/>
+      <c r="T2" s="19"/>
+    </row>
+    <row r="3" spans="1:20" s="8" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="18" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="30" t="s">
+      <c r="B3" s="18" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="30" t="s">
+      <c r="C3" s="18" t="s">
         <v>3</v>
       </c>
-      <c r="D3" s="30" t="s">
+      <c r="D3" s="18" t="s">
         <v>4</v>
       </c>
-      <c r="E3" s="30"/>
-      <c r="F3" s="30" t="s">
+      <c r="E3" s="18"/>
+      <c r="F3" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="G3" s="30"/>
-      <c r="H3" s="30" t="s">
+      <c r="G3" s="18"/>
+      <c r="H3" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="I3" s="30"/>
-      <c r="J3" s="30" t="s">
+      <c r="I3" s="18"/>
+      <c r="J3" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="K3" s="30"/>
-      <c r="L3" s="30" t="s">
+      <c r="K3" s="18"/>
+      <c r="L3" s="18" t="s">
         <v>8</v>
       </c>
-      <c r="M3" s="30"/>
-      <c r="N3" s="30" t="s">
+      <c r="M3" s="18"/>
+      <c r="N3" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="O3" s="30"/>
-      <c r="P3" s="34" t="s">
+      <c r="O3" s="18"/>
+      <c r="P3" s="22" t="s">
         <v>23</v>
       </c>
-      <c r="Q3" s="30" t="s">
+      <c r="Q3" s="18" t="s">
         <v>10</v>
       </c>
-      <c r="R3" s="30" t="s">
+      <c r="R3" s="18" t="s">
         <v>11</v>
       </c>
-      <c r="S3" s="33" t="s">
+      <c r="S3" s="21" t="s">
         <v>12</v>
       </c>
-      <c r="T3" s="30" t="s">
+      <c r="T3" s="18" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="4" spans="1:20" s="15" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="30"/>
-      <c r="B4" s="30"/>
-      <c r="C4" s="30"/>
-      <c r="D4" s="16" t="s">
+    <row r="4" spans="1:20" s="8" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="18"/>
+      <c r="B4" s="18"/>
+      <c r="C4" s="18"/>
+      <c r="D4" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="E4" s="16" t="s">
+      <c r="E4" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="F4" s="16" t="s">
+      <c r="F4" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="G4" s="16" t="s">
+      <c r="G4" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="H4" s="16" t="s">
+      <c r="H4" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="I4" s="16" t="s">
+      <c r="I4" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="J4" s="16" t="s">
+      <c r="J4" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="K4" s="16" t="s">
+      <c r="K4" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="L4" s="16" t="s">
+      <c r="L4" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="M4" s="16" t="s">
+      <c r="M4" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="N4" s="16" t="s">
+      <c r="N4" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="O4" s="16" t="s">
+      <c r="O4" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="P4" s="35"/>
-      <c r="Q4" s="30"/>
-      <c r="R4" s="30"/>
-      <c r="S4" s="33"/>
-      <c r="T4" s="30"/>
-    </row>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="P4" s="23"/>
+      <c r="Q4" s="18"/>
+      <c r="R4" s="18"/>
+      <c r="S4" s="21"/>
+      <c r="T4" s="18"/>
+    </row>
+    <row r="5" spans="1:20" s="24" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="4"/>
       <c r="B5" s="5"/>
       <c r="C5" s="5"/>
@@ -1320,130 +1335,130 @@
       <c r="P5" s="6"/>
       <c r="Q5" s="6"/>
       <c r="R5" s="6"/>
-      <c r="S5" s="21"/>
+      <c r="S5" s="14"/>
       <c r="T5" s="3"/>
     </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A6" s="7"/>
-      <c r="B6" s="27" t="s">
+    <row r="6" spans="1:20" s="24" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="25"/>
+      <c r="B6" s="26" t="s">
         <v>16</v>
       </c>
-      <c r="C6" s="27"/>
-      <c r="D6" s="8"/>
-      <c r="E6" s="8"/>
-      <c r="F6" s="8"/>
-      <c r="G6" s="8"/>
-      <c r="H6" s="8"/>
-      <c r="I6" s="8"/>
-      <c r="J6" s="8"/>
-      <c r="K6" s="8"/>
-      <c r="L6" s="8"/>
-      <c r="M6" s="8"/>
-      <c r="N6" s="8"/>
-      <c r="O6" s="8"/>
-      <c r="P6" s="8"/>
-      <c r="Q6" s="9"/>
-      <c r="R6" s="9"/>
-      <c r="S6" s="22"/>
-      <c r="T6" s="10"/>
-    </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A7" s="11"/>
-      <c r="B7" s="12"/>
-      <c r="C7" s="12"/>
-      <c r="D7" s="13"/>
-      <c r="E7" s="13"/>
-      <c r="F7" s="13"/>
-      <c r="G7" s="13"/>
-      <c r="H7" s="13"/>
-      <c r="I7" s="13"/>
-      <c r="J7" s="13"/>
-      <c r="K7" s="13"/>
-      <c r="L7" s="13"/>
-      <c r="M7" s="13"/>
-      <c r="N7" s="13"/>
-      <c r="O7" s="13"/>
-      <c r="P7" s="13"/>
-      <c r="Q7" s="11"/>
-      <c r="R7" s="11"/>
-      <c r="S7" s="23"/>
-      <c r="T7" s="11"/>
-    </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A8" s="28" t="s">
+      <c r="C6" s="26"/>
+      <c r="D6" s="27"/>
+      <c r="E6" s="27"/>
+      <c r="F6" s="27"/>
+      <c r="G6" s="27"/>
+      <c r="H6" s="27"/>
+      <c r="I6" s="27"/>
+      <c r="J6" s="27"/>
+      <c r="K6" s="27"/>
+      <c r="L6" s="27"/>
+      <c r="M6" s="27"/>
+      <c r="N6" s="27"/>
+      <c r="O6" s="27"/>
+      <c r="P6" s="27"/>
+      <c r="Q6" s="28"/>
+      <c r="R6" s="28"/>
+      <c r="S6" s="29"/>
+      <c r="T6" s="30"/>
+    </row>
+    <row r="7" spans="1:20" s="24" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="31"/>
+      <c r="B7" s="32"/>
+      <c r="C7" s="32"/>
+      <c r="D7" s="33"/>
+      <c r="E7" s="33"/>
+      <c r="F7" s="33"/>
+      <c r="G7" s="33"/>
+      <c r="H7" s="33"/>
+      <c r="I7" s="33"/>
+      <c r="J7" s="33"/>
+      <c r="K7" s="33"/>
+      <c r="L7" s="33"/>
+      <c r="M7" s="33"/>
+      <c r="N7" s="33"/>
+      <c r="O7" s="33"/>
+      <c r="P7" s="33"/>
+      <c r="Q7" s="31"/>
+      <c r="R7" s="31"/>
+      <c r="S7" s="34"/>
+      <c r="T7" s="31"/>
+    </row>
+    <row r="8" spans="1:20" s="24" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="35" t="s">
         <v>24</v>
       </c>
-      <c r="B8" s="28"/>
-      <c r="C8" s="28"/>
-      <c r="D8" s="28"/>
-      <c r="E8" s="28"/>
-      <c r="F8" s="28"/>
-      <c r="G8" s="28"/>
-      <c r="H8" s="28"/>
-      <c r="I8" s="28"/>
-      <c r="J8" s="28"/>
-      <c r="K8" s="28"/>
-      <c r="L8" s="28"/>
-      <c r="M8" s="28"/>
-      <c r="N8" s="28"/>
-      <c r="O8" s="28"/>
-      <c r="P8" s="28"/>
-      <c r="Q8" s="28"/>
-      <c r="R8" s="29"/>
-      <c r="S8" s="29"/>
-      <c r="T8" s="10"/>
-    </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A9" s="28" t="s">
+      <c r="B8" s="35"/>
+      <c r="C8" s="35"/>
+      <c r="D8" s="35"/>
+      <c r="E8" s="35"/>
+      <c r="F8" s="35"/>
+      <c r="G8" s="35"/>
+      <c r="H8" s="35"/>
+      <c r="I8" s="35"/>
+      <c r="J8" s="35"/>
+      <c r="K8" s="35"/>
+      <c r="L8" s="35"/>
+      <c r="M8" s="35"/>
+      <c r="N8" s="35"/>
+      <c r="O8" s="35"/>
+      <c r="P8" s="35"/>
+      <c r="Q8" s="35"/>
+      <c r="R8" s="36"/>
+      <c r="S8" s="36"/>
+      <c r="T8" s="30"/>
+    </row>
+    <row r="9" spans="1:20" s="24" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="35" t="s">
         <v>25</v>
       </c>
-      <c r="B9" s="28"/>
-      <c r="C9" s="28"/>
-      <c r="D9" s="28"/>
-      <c r="E9" s="28"/>
-      <c r="F9" s="28"/>
-      <c r="G9" s="28"/>
-      <c r="H9" s="28"/>
-      <c r="I9" s="28"/>
-      <c r="J9" s="28"/>
-      <c r="K9" s="28"/>
-      <c r="L9" s="28"/>
-      <c r="M9" s="28"/>
-      <c r="N9" s="28"/>
-      <c r="O9" s="28"/>
-      <c r="P9" s="28"/>
-      <c r="Q9" s="28"/>
-      <c r="R9" s="29"/>
-      <c r="S9" s="29"/>
-      <c r="T9" s="10"/>
-    </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A10" s="28" t="s">
+      <c r="B9" s="35"/>
+      <c r="C9" s="35"/>
+      <c r="D9" s="35"/>
+      <c r="E9" s="35"/>
+      <c r="F9" s="35"/>
+      <c r="G9" s="35"/>
+      <c r="H9" s="35"/>
+      <c r="I9" s="35"/>
+      <c r="J9" s="35"/>
+      <c r="K9" s="35"/>
+      <c r="L9" s="35"/>
+      <c r="M9" s="35"/>
+      <c r="N9" s="35"/>
+      <c r="O9" s="35"/>
+      <c r="P9" s="35"/>
+      <c r="Q9" s="35"/>
+      <c r="R9" s="36"/>
+      <c r="S9" s="36"/>
+      <c r="T9" s="30"/>
+    </row>
+    <row r="10" spans="1:20" s="24" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="35" t="s">
         <v>26</v>
       </c>
-      <c r="B10" s="28"/>
-      <c r="C10" s="28"/>
-      <c r="D10" s="28"/>
-      <c r="E10" s="28"/>
-      <c r="F10" s="28"/>
-      <c r="G10" s="28"/>
-      <c r="H10" s="28"/>
-      <c r="I10" s="28"/>
-      <c r="J10" s="28"/>
-      <c r="K10" s="28"/>
-      <c r="L10" s="28"/>
-      <c r="M10" s="28"/>
-      <c r="N10" s="28"/>
-      <c r="O10" s="28"/>
-      <c r="P10" s="28"/>
-      <c r="Q10" s="28"/>
-      <c r="R10" s="29"/>
-      <c r="S10" s="29"/>
-      <c r="T10" s="11"/>
-    </row>
-    <row r="11" spans="1:20" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="S11" s="24"/>
-      <c r="T11" s="17" t="s">
+      <c r="B10" s="35"/>
+      <c r="C10" s="35"/>
+      <c r="D10" s="35"/>
+      <c r="E10" s="35"/>
+      <c r="F10" s="35"/>
+      <c r="G10" s="35"/>
+      <c r="H10" s="35"/>
+      <c r="I10" s="35"/>
+      <c r="J10" s="35"/>
+      <c r="K10" s="35"/>
+      <c r="L10" s="35"/>
+      <c r="M10" s="35"/>
+      <c r="N10" s="35"/>
+      <c r="O10" s="35"/>
+      <c r="P10" s="35"/>
+      <c r="Q10" s="35"/>
+      <c r="R10" s="36"/>
+      <c r="S10" s="36"/>
+      <c r="T10" s="31"/>
+    </row>
+    <row r="11" spans="1:20" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="S11" s="15"/>
+      <c r="T11" s="10" t="s">
         <v>17</v>
       </c>
     </row>
@@ -1461,38 +1476,27 @@
       <c r="N12" s="2"/>
       <c r="O12" s="2"/>
       <c r="P12" s="2"/>
-      <c r="S12" s="25"/>
-      <c r="T12" s="18" t="s">
+      <c r="S12" s="16"/>
+      <c r="T12" s="11" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="13" spans="1:20" s="19" customFormat="1" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B13" s="20" t="s">
+    <row r="13" spans="1:20" s="12" customFormat="1" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B13" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="E13" s="19" t="s">
+      <c r="E13" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="L13" s="19" t="s">
+      <c r="L13" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="S13" s="20" t="s">
+      <c r="S13" s="13" t="s">
         <v>22</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="23">
-    <mergeCell ref="T3:T4"/>
-    <mergeCell ref="A1:T1"/>
-    <mergeCell ref="A2:T2"/>
-    <mergeCell ref="A3:A4"/>
-    <mergeCell ref="B3:B4"/>
-    <mergeCell ref="C3:C4"/>
-    <mergeCell ref="D3:E3"/>
-    <mergeCell ref="F3:G3"/>
-    <mergeCell ref="H3:I3"/>
-    <mergeCell ref="J3:K3"/>
-    <mergeCell ref="L3:M3"/>
     <mergeCell ref="A10:Q10"/>
     <mergeCell ref="R10:S10"/>
     <mergeCell ref="N3:O3"/>
@@ -1505,6 +1509,17 @@
     <mergeCell ref="R8:S8"/>
     <mergeCell ref="A9:Q9"/>
     <mergeCell ref="R9:S9"/>
+    <mergeCell ref="T3:T4"/>
+    <mergeCell ref="A1:T1"/>
+    <mergeCell ref="A2:T2"/>
+    <mergeCell ref="A3:A4"/>
+    <mergeCell ref="B3:B4"/>
+    <mergeCell ref="C3:C4"/>
+    <mergeCell ref="D3:E3"/>
+    <mergeCell ref="F3:G3"/>
+    <mergeCell ref="H3:I3"/>
+    <mergeCell ref="J3:K3"/>
+    <mergeCell ref="L3:M3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup scale="85" fitToHeight="0" orientation="landscape" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>

--- a/ATV_Allowance/Templates/TemplatePTTT.xlsx
+++ b/ATV_Allowance/Templates/TemplatePTTT.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\job\ATV-Allowance\ATV-Allowance\ATV_Allowance\Templates\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7020" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15576" windowHeight="7020" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="PV" sheetId="1" r:id="rId1"/>
@@ -138,10 +133,10 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="2">
-    <numFmt numFmtId="41" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="164" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="165" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
   <fonts count="12" x14ac:knownFonts="1">
     <font>
@@ -337,7 +332,7 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -374,14 +369,44 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="41" fontId="3" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="41" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -391,7 +416,7 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="41" fontId="5" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -400,43 +425,13 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="3" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -740,7 +735,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -753,137 +748,137 @@
   </sheetPr>
   <dimension ref="A1:T13"/>
   <sheetViews>
-    <sheetView topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="I22" sqref="I22"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C3" sqref="C3:C4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="20.25" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="21" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="6.28515625" style="2" customWidth="1"/>
-    <col min="2" max="2" width="26.85546875" style="2" customWidth="1"/>
-    <col min="3" max="3" width="39.5703125" style="2" customWidth="1"/>
-    <col min="4" max="4" width="4.28515625" style="7" customWidth="1"/>
-    <col min="5" max="5" width="6.7109375" style="7" customWidth="1"/>
-    <col min="6" max="6" width="4.28515625" style="7" customWidth="1"/>
-    <col min="7" max="7" width="6.7109375" style="7" customWidth="1"/>
-    <col min="8" max="8" width="4.28515625" style="7" customWidth="1"/>
-    <col min="9" max="9" width="6.7109375" style="7" customWidth="1"/>
-    <col min="10" max="10" width="4.28515625" style="7" customWidth="1"/>
-    <col min="11" max="11" width="6.7109375" style="7" customWidth="1"/>
-    <col min="12" max="12" width="4.28515625" style="7" customWidth="1"/>
-    <col min="13" max="13" width="6.7109375" style="7" customWidth="1"/>
-    <col min="14" max="14" width="4.28515625" style="7" customWidth="1"/>
-    <col min="15" max="15" width="6.7109375" style="7" customWidth="1"/>
-    <col min="16" max="16" width="6.5703125" style="7" customWidth="1"/>
-    <col min="17" max="17" width="7.28515625" style="2" customWidth="1"/>
-    <col min="18" max="18" width="7.5703125" style="2" customWidth="1"/>
-    <col min="19" max="19" width="16.7109375" style="17" customWidth="1"/>
-    <col min="20" max="20" width="11.28515625" style="2" customWidth="1"/>
-    <col min="21" max="16384" width="9.140625" style="2"/>
+    <col min="1" max="1" width="5.6640625" style="2" customWidth="1"/>
+    <col min="2" max="2" width="30" style="2" customWidth="1"/>
+    <col min="3" max="3" width="38.88671875" style="2" customWidth="1"/>
+    <col min="4" max="4" width="4.21875" style="7" customWidth="1"/>
+    <col min="5" max="5" width="6.77734375" style="7" customWidth="1"/>
+    <col min="6" max="6" width="4.21875" style="7" customWidth="1"/>
+    <col min="7" max="7" width="6.77734375" style="7" customWidth="1"/>
+    <col min="8" max="8" width="4.21875" style="7" customWidth="1"/>
+    <col min="9" max="9" width="6.77734375" style="7" customWidth="1"/>
+    <col min="10" max="10" width="4.21875" style="7" customWidth="1"/>
+    <col min="11" max="11" width="6.77734375" style="7" customWidth="1"/>
+    <col min="12" max="12" width="4.21875" style="7" customWidth="1"/>
+    <col min="13" max="13" width="6.77734375" style="7" customWidth="1"/>
+    <col min="14" max="14" width="4.21875" style="7" customWidth="1"/>
+    <col min="15" max="15" width="6.77734375" style="7" customWidth="1"/>
+    <col min="16" max="16" width="6.6640625" style="7" customWidth="1"/>
+    <col min="17" max="17" width="7.21875" style="2" customWidth="1"/>
+    <col min="18" max="18" width="7.6640625" style="2" customWidth="1"/>
+    <col min="19" max="19" width="20.6640625" style="17" customWidth="1"/>
+    <col min="20" max="20" width="11.21875" style="2" customWidth="1"/>
+    <col min="21" max="16384" width="9.109375" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="20" t="s">
+    <row r="1" spans="1:20" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="30" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="20"/>
-      <c r="C1" s="20"/>
-      <c r="D1" s="20"/>
-      <c r="E1" s="20"/>
-      <c r="F1" s="20"/>
-      <c r="G1" s="20"/>
-      <c r="H1" s="20"/>
-      <c r="I1" s="20"/>
-      <c r="J1" s="20"/>
-      <c r="K1" s="20"/>
-      <c r="L1" s="20"/>
-      <c r="M1" s="20"/>
-      <c r="N1" s="20"/>
-      <c r="O1" s="20"/>
-      <c r="P1" s="20"/>
-      <c r="Q1" s="20"/>
-      <c r="R1" s="20"/>
-      <c r="S1" s="20"/>
-      <c r="T1" s="20"/>
-    </row>
-    <row r="2" spans="1:20" ht="35.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="19" t="s">
+      <c r="B1" s="30"/>
+      <c r="C1" s="30"/>
+      <c r="D1" s="30"/>
+      <c r="E1" s="30"/>
+      <c r="F1" s="30"/>
+      <c r="G1" s="30"/>
+      <c r="H1" s="30"/>
+      <c r="I1" s="30"/>
+      <c r="J1" s="30"/>
+      <c r="K1" s="30"/>
+      <c r="L1" s="30"/>
+      <c r="M1" s="30"/>
+      <c r="N1" s="30"/>
+      <c r="O1" s="30"/>
+      <c r="P1" s="30"/>
+      <c r="Q1" s="30"/>
+      <c r="R1" s="30"/>
+      <c r="S1" s="30"/>
+      <c r="T1" s="30"/>
+    </row>
+    <row r="2" spans="1:20" ht="35.25" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A2" s="29" t="s">
         <v>27</v>
       </c>
-      <c r="B2" s="19"/>
-      <c r="C2" s="19"/>
-      <c r="D2" s="19"/>
-      <c r="E2" s="19"/>
-      <c r="F2" s="19"/>
-      <c r="G2" s="19"/>
-      <c r="H2" s="19"/>
-      <c r="I2" s="19"/>
-      <c r="J2" s="19"/>
-      <c r="K2" s="19"/>
-      <c r="L2" s="19"/>
-      <c r="M2" s="19"/>
-      <c r="N2" s="19"/>
-      <c r="O2" s="19"/>
-      <c r="P2" s="19"/>
-      <c r="Q2" s="19"/>
-      <c r="R2" s="19"/>
-      <c r="S2" s="19"/>
-      <c r="T2" s="19"/>
-    </row>
-    <row r="3" spans="1:20" s="8" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="18" t="s">
+      <c r="B2" s="29"/>
+      <c r="C2" s="29"/>
+      <c r="D2" s="29"/>
+      <c r="E2" s="29"/>
+      <c r="F2" s="29"/>
+      <c r="G2" s="29"/>
+      <c r="H2" s="29"/>
+      <c r="I2" s="29"/>
+      <c r="J2" s="29"/>
+      <c r="K2" s="29"/>
+      <c r="L2" s="29"/>
+      <c r="M2" s="29"/>
+      <c r="N2" s="29"/>
+      <c r="O2" s="29"/>
+      <c r="P2" s="29"/>
+      <c r="Q2" s="29"/>
+      <c r="R2" s="29"/>
+      <c r="S2" s="29"/>
+      <c r="T2" s="29"/>
+    </row>
+    <row r="3" spans="1:20" s="8" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="28" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="18" t="s">
+      <c r="B3" s="28" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="18" t="s">
+      <c r="C3" s="28" t="s">
         <v>3</v>
       </c>
-      <c r="D3" s="18" t="s">
+      <c r="D3" s="28" t="s">
         <v>4</v>
       </c>
-      <c r="E3" s="18"/>
-      <c r="F3" s="18" t="s">
+      <c r="E3" s="28"/>
+      <c r="F3" s="28" t="s">
         <v>5</v>
       </c>
-      <c r="G3" s="18"/>
-      <c r="H3" s="18" t="s">
+      <c r="G3" s="28"/>
+      <c r="H3" s="28" t="s">
         <v>6</v>
       </c>
-      <c r="I3" s="18"/>
-      <c r="J3" s="18" t="s">
+      <c r="I3" s="28"/>
+      <c r="J3" s="28" t="s">
         <v>7</v>
       </c>
-      <c r="K3" s="18"/>
-      <c r="L3" s="18" t="s">
+      <c r="K3" s="28"/>
+      <c r="L3" s="28" t="s">
         <v>8</v>
       </c>
-      <c r="M3" s="18"/>
-      <c r="N3" s="18" t="s">
+      <c r="M3" s="28"/>
+      <c r="N3" s="28" t="s">
         <v>9</v>
       </c>
-      <c r="O3" s="18"/>
-      <c r="P3" s="22" t="s">
+      <c r="O3" s="28"/>
+      <c r="P3" s="32" t="s">
         <v>23</v>
       </c>
-      <c r="Q3" s="18" t="s">
+      <c r="Q3" s="28" t="s">
         <v>10</v>
       </c>
-      <c r="R3" s="18" t="s">
+      <c r="R3" s="28" t="s">
         <v>11</v>
       </c>
-      <c r="S3" s="21" t="s">
+      <c r="S3" s="31" t="s">
         <v>12</v>
       </c>
-      <c r="T3" s="18" t="s">
+      <c r="T3" s="28" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="4" spans="1:20" s="8" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="18"/>
-      <c r="B4" s="18"/>
-      <c r="C4" s="18"/>
+    <row r="4" spans="1:20" s="8" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="28"/>
+      <c r="B4" s="28"/>
+      <c r="C4" s="28"/>
       <c r="D4" s="9" t="s">
         <v>14</v>
       </c>
@@ -920,13 +915,13 @@
       <c r="O4" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="P4" s="23"/>
-      <c r="Q4" s="18"/>
-      <c r="R4" s="18"/>
-      <c r="S4" s="21"/>
-      <c r="T4" s="18"/>
-    </row>
-    <row r="5" spans="1:20" s="24" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P4" s="33"/>
+      <c r="Q4" s="28"/>
+      <c r="R4" s="28"/>
+      <c r="S4" s="31"/>
+      <c r="T4" s="28"/>
+    </row>
+    <row r="5" spans="1:20" s="18" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="4"/>
       <c r="B5" s="5"/>
       <c r="C5" s="5"/>
@@ -948,53 +943,53 @@
       <c r="S5" s="14"/>
       <c r="T5" s="3"/>
     </row>
-    <row r="6" spans="1:20" s="24" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="25"/>
-      <c r="B6" s="26" t="s">
+    <row r="6" spans="1:20" s="18" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="19"/>
+      <c r="B6" s="34" t="s">
         <v>16</v>
       </c>
-      <c r="C6" s="26"/>
-      <c r="D6" s="27"/>
-      <c r="E6" s="27"/>
-      <c r="F6" s="27"/>
-      <c r="G6" s="27"/>
-      <c r="H6" s="27"/>
-      <c r="I6" s="27"/>
-      <c r="J6" s="27"/>
-      <c r="K6" s="27"/>
-      <c r="L6" s="27"/>
-      <c r="M6" s="27"/>
-      <c r="N6" s="27"/>
-      <c r="O6" s="27"/>
-      <c r="P6" s="27"/>
-      <c r="Q6" s="28"/>
-      <c r="R6" s="28"/>
-      <c r="S6" s="29"/>
-      <c r="T6" s="30"/>
-    </row>
-    <row r="7" spans="1:20" s="24" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="31"/>
-      <c r="B7" s="32"/>
-      <c r="C7" s="32"/>
-      <c r="D7" s="33"/>
-      <c r="E7" s="33"/>
-      <c r="F7" s="33"/>
-      <c r="G7" s="33"/>
-      <c r="H7" s="33"/>
-      <c r="I7" s="33"/>
-      <c r="J7" s="33"/>
-      <c r="K7" s="33"/>
-      <c r="L7" s="33"/>
-      <c r="M7" s="33"/>
-      <c r="N7" s="33"/>
-      <c r="O7" s="33"/>
-      <c r="P7" s="33"/>
-      <c r="Q7" s="31"/>
-      <c r="R7" s="31"/>
-      <c r="S7" s="34"/>
-      <c r="T7" s="31"/>
-    </row>
-    <row r="8" spans="1:20" s="24" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C6" s="34"/>
+      <c r="D6" s="20"/>
+      <c r="E6" s="20"/>
+      <c r="F6" s="20"/>
+      <c r="G6" s="20"/>
+      <c r="H6" s="20"/>
+      <c r="I6" s="20"/>
+      <c r="J6" s="20"/>
+      <c r="K6" s="20"/>
+      <c r="L6" s="20"/>
+      <c r="M6" s="20"/>
+      <c r="N6" s="20"/>
+      <c r="O6" s="20"/>
+      <c r="P6" s="20"/>
+      <c r="Q6" s="21"/>
+      <c r="R6" s="21"/>
+      <c r="S6" s="22"/>
+      <c r="T6" s="23"/>
+    </row>
+    <row r="7" spans="1:20" s="18" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="24"/>
+      <c r="B7" s="25"/>
+      <c r="C7" s="25"/>
+      <c r="D7" s="26"/>
+      <c r="E7" s="26"/>
+      <c r="F7" s="26"/>
+      <c r="G7" s="26"/>
+      <c r="H7" s="26"/>
+      <c r="I7" s="26"/>
+      <c r="J7" s="26"/>
+      <c r="K7" s="26"/>
+      <c r="L7" s="26"/>
+      <c r="M7" s="26"/>
+      <c r="N7" s="26"/>
+      <c r="O7" s="26"/>
+      <c r="P7" s="26"/>
+      <c r="Q7" s="24"/>
+      <c r="R7" s="24"/>
+      <c r="S7" s="27"/>
+      <c r="T7" s="24"/>
+    </row>
+    <row r="8" spans="1:20" s="18" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="35" t="s">
         <v>24</v>
       </c>
@@ -1016,9 +1011,9 @@
       <c r="Q8" s="35"/>
       <c r="R8" s="36"/>
       <c r="S8" s="36"/>
-      <c r="T8" s="30"/>
-    </row>
-    <row r="9" spans="1:20" s="24" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="T8" s="23"/>
+    </row>
+    <row r="9" spans="1:20" s="18" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="35" t="s">
         <v>25</v>
       </c>
@@ -1040,9 +1035,9 @@
       <c r="Q9" s="35"/>
       <c r="R9" s="36"/>
       <c r="S9" s="36"/>
-      <c r="T9" s="30"/>
-    </row>
-    <row r="10" spans="1:20" s="24" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="T9" s="23"/>
+    </row>
+    <row r="10" spans="1:20" s="18" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="35" t="s">
         <v>26</v>
       </c>
@@ -1064,15 +1059,15 @@
       <c r="Q10" s="35"/>
       <c r="R10" s="36"/>
       <c r="S10" s="36"/>
-      <c r="T10" s="31"/>
-    </row>
-    <row r="11" spans="1:20" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="T10" s="24"/>
+    </row>
+    <row r="11" spans="1:20" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="S11" s="15"/>
       <c r="T11" s="10" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="12" spans="1:20" ht="25.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:20" ht="25.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="D12" s="2"/>
       <c r="E12" s="2"/>
       <c r="F12" s="2"/>
@@ -1091,7 +1086,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="13" spans="1:20" s="12" customFormat="1" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:20" s="12" customFormat="1" ht="27.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B13" s="13" t="s">
         <v>19</v>
       </c>
@@ -1144,136 +1139,136 @@
   <dimension ref="A1:T13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5:XFD10"/>
+      <selection activeCell="C3" sqref="C3:C4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="20.25" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="21" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="6.28515625" style="2" customWidth="1"/>
-    <col min="2" max="2" width="26.85546875" style="2" customWidth="1"/>
-    <col min="3" max="3" width="39.5703125" style="2" customWidth="1"/>
-    <col min="4" max="4" width="4.28515625" style="7" customWidth="1"/>
-    <col min="5" max="5" width="6.7109375" style="7" customWidth="1"/>
-    <col min="6" max="6" width="4.28515625" style="7" customWidth="1"/>
-    <col min="7" max="7" width="6.7109375" style="7" customWidth="1"/>
-    <col min="8" max="8" width="4.28515625" style="7" customWidth="1"/>
-    <col min="9" max="9" width="6.7109375" style="7" customWidth="1"/>
-    <col min="10" max="10" width="4.28515625" style="7" customWidth="1"/>
-    <col min="11" max="11" width="6.7109375" style="7" customWidth="1"/>
-    <col min="12" max="12" width="4.28515625" style="7" customWidth="1"/>
-    <col min="13" max="13" width="6.7109375" style="7" customWidth="1"/>
-    <col min="14" max="14" width="4.28515625" style="7" customWidth="1"/>
-    <col min="15" max="15" width="6.7109375" style="7" customWidth="1"/>
-    <col min="16" max="16" width="6.5703125" style="7" customWidth="1"/>
-    <col min="17" max="17" width="7.28515625" style="2" customWidth="1"/>
-    <col min="18" max="18" width="7.5703125" style="2" customWidth="1"/>
-    <col min="19" max="19" width="16.7109375" style="17" customWidth="1"/>
-    <col min="20" max="20" width="11.28515625" style="2" customWidth="1"/>
-    <col min="21" max="16384" width="9.140625" style="2"/>
+    <col min="1" max="1" width="5.6640625" style="2" customWidth="1"/>
+    <col min="2" max="2" width="30" style="2" customWidth="1"/>
+    <col min="3" max="3" width="38.88671875" style="2" customWidth="1"/>
+    <col min="4" max="4" width="4.21875" style="7" customWidth="1"/>
+    <col min="5" max="5" width="6.77734375" style="7" customWidth="1"/>
+    <col min="6" max="6" width="4.21875" style="7" customWidth="1"/>
+    <col min="7" max="7" width="6.77734375" style="7" customWidth="1"/>
+    <col min="8" max="8" width="4.21875" style="7" customWidth="1"/>
+    <col min="9" max="9" width="6.77734375" style="7" customWidth="1"/>
+    <col min="10" max="10" width="4.21875" style="7" customWidth="1"/>
+    <col min="11" max="11" width="6.77734375" style="7" customWidth="1"/>
+    <col min="12" max="12" width="4.21875" style="7" customWidth="1"/>
+    <col min="13" max="13" width="6.77734375" style="7" customWidth="1"/>
+    <col min="14" max="14" width="4.21875" style="7" customWidth="1"/>
+    <col min="15" max="15" width="6.77734375" style="7" customWidth="1"/>
+    <col min="16" max="16" width="6.6640625" style="7" customWidth="1"/>
+    <col min="17" max="17" width="7.21875" style="2" customWidth="1"/>
+    <col min="18" max="18" width="7.6640625" style="2" customWidth="1"/>
+    <col min="19" max="19" width="20.6640625" style="17" customWidth="1"/>
+    <col min="20" max="20" width="11.21875" style="2" customWidth="1"/>
+    <col min="21" max="16384" width="9.109375" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="20" t="s">
+    <row r="1" spans="1:20" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="30" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="20"/>
-      <c r="C1" s="20"/>
-      <c r="D1" s="20"/>
-      <c r="E1" s="20"/>
-      <c r="F1" s="20"/>
-      <c r="G1" s="20"/>
-      <c r="H1" s="20"/>
-      <c r="I1" s="20"/>
-      <c r="J1" s="20"/>
-      <c r="K1" s="20"/>
-      <c r="L1" s="20"/>
-      <c r="M1" s="20"/>
-      <c r="N1" s="20"/>
-      <c r="O1" s="20"/>
-      <c r="P1" s="20"/>
-      <c r="Q1" s="20"/>
-      <c r="R1" s="20"/>
-      <c r="S1" s="20"/>
-      <c r="T1" s="20"/>
-    </row>
-    <row r="2" spans="1:20" ht="35.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="19" t="s">
+      <c r="B1" s="30"/>
+      <c r="C1" s="30"/>
+      <c r="D1" s="30"/>
+      <c r="E1" s="30"/>
+      <c r="F1" s="30"/>
+      <c r="G1" s="30"/>
+      <c r="H1" s="30"/>
+      <c r="I1" s="30"/>
+      <c r="J1" s="30"/>
+      <c r="K1" s="30"/>
+      <c r="L1" s="30"/>
+      <c r="M1" s="30"/>
+      <c r="N1" s="30"/>
+      <c r="O1" s="30"/>
+      <c r="P1" s="30"/>
+      <c r="Q1" s="30"/>
+      <c r="R1" s="30"/>
+      <c r="S1" s="30"/>
+      <c r="T1" s="30"/>
+    </row>
+    <row r="2" spans="1:20" ht="35.25" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A2" s="29" t="s">
         <v>27</v>
       </c>
-      <c r="B2" s="19"/>
-      <c r="C2" s="19"/>
-      <c r="D2" s="19"/>
-      <c r="E2" s="19"/>
-      <c r="F2" s="19"/>
-      <c r="G2" s="19"/>
-      <c r="H2" s="19"/>
-      <c r="I2" s="19"/>
-      <c r="J2" s="19"/>
-      <c r="K2" s="19"/>
-      <c r="L2" s="19"/>
-      <c r="M2" s="19"/>
-      <c r="N2" s="19"/>
-      <c r="O2" s="19"/>
-      <c r="P2" s="19"/>
-      <c r="Q2" s="19"/>
-      <c r="R2" s="19"/>
-      <c r="S2" s="19"/>
-      <c r="T2" s="19"/>
-    </row>
-    <row r="3" spans="1:20" s="8" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="18" t="s">
+      <c r="B2" s="29"/>
+      <c r="C2" s="29"/>
+      <c r="D2" s="29"/>
+      <c r="E2" s="29"/>
+      <c r="F2" s="29"/>
+      <c r="G2" s="29"/>
+      <c r="H2" s="29"/>
+      <c r="I2" s="29"/>
+      <c r="J2" s="29"/>
+      <c r="K2" s="29"/>
+      <c r="L2" s="29"/>
+      <c r="M2" s="29"/>
+      <c r="N2" s="29"/>
+      <c r="O2" s="29"/>
+      <c r="P2" s="29"/>
+      <c r="Q2" s="29"/>
+      <c r="R2" s="29"/>
+      <c r="S2" s="29"/>
+      <c r="T2" s="29"/>
+    </row>
+    <row r="3" spans="1:20" s="8" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="28" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="18" t="s">
+      <c r="B3" s="28" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="18" t="s">
+      <c r="C3" s="28" t="s">
         <v>3</v>
       </c>
-      <c r="D3" s="18" t="s">
+      <c r="D3" s="28" t="s">
         <v>4</v>
       </c>
-      <c r="E3" s="18"/>
-      <c r="F3" s="18" t="s">
+      <c r="E3" s="28"/>
+      <c r="F3" s="28" t="s">
         <v>5</v>
       </c>
-      <c r="G3" s="18"/>
-      <c r="H3" s="18" t="s">
+      <c r="G3" s="28"/>
+      <c r="H3" s="28" t="s">
         <v>6</v>
       </c>
-      <c r="I3" s="18"/>
-      <c r="J3" s="18" t="s">
+      <c r="I3" s="28"/>
+      <c r="J3" s="28" t="s">
         <v>7</v>
       </c>
-      <c r="K3" s="18"/>
-      <c r="L3" s="18" t="s">
+      <c r="K3" s="28"/>
+      <c r="L3" s="28" t="s">
         <v>8</v>
       </c>
-      <c r="M3" s="18"/>
-      <c r="N3" s="18" t="s">
+      <c r="M3" s="28"/>
+      <c r="N3" s="28" t="s">
         <v>9</v>
       </c>
-      <c r="O3" s="18"/>
-      <c r="P3" s="22" t="s">
+      <c r="O3" s="28"/>
+      <c r="P3" s="32" t="s">
         <v>23</v>
       </c>
-      <c r="Q3" s="18" t="s">
+      <c r="Q3" s="28" t="s">
         <v>10</v>
       </c>
-      <c r="R3" s="18" t="s">
+      <c r="R3" s="28" t="s">
         <v>11</v>
       </c>
-      <c r="S3" s="21" t="s">
+      <c r="S3" s="31" t="s">
         <v>12</v>
       </c>
-      <c r="T3" s="18" t="s">
+      <c r="T3" s="28" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="4" spans="1:20" s="8" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="18"/>
-      <c r="B4" s="18"/>
-      <c r="C4" s="18"/>
+    <row r="4" spans="1:20" s="8" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="28"/>
+      <c r="B4" s="28"/>
+      <c r="C4" s="28"/>
       <c r="D4" s="9" t="s">
         <v>14</v>
       </c>
@@ -1310,13 +1305,13 @@
       <c r="O4" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="P4" s="23"/>
-      <c r="Q4" s="18"/>
-      <c r="R4" s="18"/>
-      <c r="S4" s="21"/>
-      <c r="T4" s="18"/>
-    </row>
-    <row r="5" spans="1:20" s="24" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P4" s="33"/>
+      <c r="Q4" s="28"/>
+      <c r="R4" s="28"/>
+      <c r="S4" s="31"/>
+      <c r="T4" s="28"/>
+    </row>
+    <row r="5" spans="1:20" s="18" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="4"/>
       <c r="B5" s="5"/>
       <c r="C5" s="5"/>
@@ -1338,53 +1333,53 @@
       <c r="S5" s="14"/>
       <c r="T5" s="3"/>
     </row>
-    <row r="6" spans="1:20" s="24" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="25"/>
-      <c r="B6" s="26" t="s">
+    <row r="6" spans="1:20" s="18" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="19"/>
+      <c r="B6" s="34" t="s">
         <v>16</v>
       </c>
-      <c r="C6" s="26"/>
-      <c r="D6" s="27"/>
-      <c r="E6" s="27"/>
-      <c r="F6" s="27"/>
-      <c r="G6" s="27"/>
-      <c r="H6" s="27"/>
-      <c r="I6" s="27"/>
-      <c r="J6" s="27"/>
-      <c r="K6" s="27"/>
-      <c r="L6" s="27"/>
-      <c r="M6" s="27"/>
-      <c r="N6" s="27"/>
-      <c r="O6" s="27"/>
-      <c r="P6" s="27"/>
-      <c r="Q6" s="28"/>
-      <c r="R6" s="28"/>
-      <c r="S6" s="29"/>
-      <c r="T6" s="30"/>
-    </row>
-    <row r="7" spans="1:20" s="24" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="31"/>
-      <c r="B7" s="32"/>
-      <c r="C7" s="32"/>
-      <c r="D7" s="33"/>
-      <c r="E7" s="33"/>
-      <c r="F7" s="33"/>
-      <c r="G7" s="33"/>
-      <c r="H7" s="33"/>
-      <c r="I7" s="33"/>
-      <c r="J7" s="33"/>
-      <c r="K7" s="33"/>
-      <c r="L7" s="33"/>
-      <c r="M7" s="33"/>
-      <c r="N7" s="33"/>
-      <c r="O7" s="33"/>
-      <c r="P7" s="33"/>
-      <c r="Q7" s="31"/>
-      <c r="R7" s="31"/>
-      <c r="S7" s="34"/>
-      <c r="T7" s="31"/>
-    </row>
-    <row r="8" spans="1:20" s="24" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C6" s="34"/>
+      <c r="D6" s="20"/>
+      <c r="E6" s="20"/>
+      <c r="F6" s="20"/>
+      <c r="G6" s="20"/>
+      <c r="H6" s="20"/>
+      <c r="I6" s="20"/>
+      <c r="J6" s="20"/>
+      <c r="K6" s="20"/>
+      <c r="L6" s="20"/>
+      <c r="M6" s="20"/>
+      <c r="N6" s="20"/>
+      <c r="O6" s="20"/>
+      <c r="P6" s="20"/>
+      <c r="Q6" s="21"/>
+      <c r="R6" s="21"/>
+      <c r="S6" s="22"/>
+      <c r="T6" s="23"/>
+    </row>
+    <row r="7" spans="1:20" s="18" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="24"/>
+      <c r="B7" s="25"/>
+      <c r="C7" s="25"/>
+      <c r="D7" s="26"/>
+      <c r="E7" s="26"/>
+      <c r="F7" s="26"/>
+      <c r="G7" s="26"/>
+      <c r="H7" s="26"/>
+      <c r="I7" s="26"/>
+      <c r="J7" s="26"/>
+      <c r="K7" s="26"/>
+      <c r="L7" s="26"/>
+      <c r="M7" s="26"/>
+      <c r="N7" s="26"/>
+      <c r="O7" s="26"/>
+      <c r="P7" s="26"/>
+      <c r="Q7" s="24"/>
+      <c r="R7" s="24"/>
+      <c r="S7" s="27"/>
+      <c r="T7" s="24"/>
+    </row>
+    <row r="8" spans="1:20" s="18" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="35" t="s">
         <v>24</v>
       </c>
@@ -1406,9 +1401,9 @@
       <c r="Q8" s="35"/>
       <c r="R8" s="36"/>
       <c r="S8" s="36"/>
-      <c r="T8" s="30"/>
-    </row>
-    <row r="9" spans="1:20" s="24" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="T8" s="23"/>
+    </row>
+    <row r="9" spans="1:20" s="18" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="35" t="s">
         <v>25</v>
       </c>
@@ -1430,9 +1425,9 @@
       <c r="Q9" s="35"/>
       <c r="R9" s="36"/>
       <c r="S9" s="36"/>
-      <c r="T9" s="30"/>
-    </row>
-    <row r="10" spans="1:20" s="24" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="T9" s="23"/>
+    </row>
+    <row r="10" spans="1:20" s="18" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="35" t="s">
         <v>26</v>
       </c>
@@ -1454,15 +1449,15 @@
       <c r="Q10" s="35"/>
       <c r="R10" s="36"/>
       <c r="S10" s="36"/>
-      <c r="T10" s="31"/>
-    </row>
-    <row r="11" spans="1:20" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="T10" s="24"/>
+    </row>
+    <row r="11" spans="1:20" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="S11" s="15"/>
       <c r="T11" s="10" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="12" spans="1:20" ht="25.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:20" ht="25.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="D12" s="2"/>
       <c r="E12" s="2"/>
       <c r="F12" s="2"/>
@@ -1481,7 +1476,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="13" spans="1:20" s="12" customFormat="1" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:20" s="12" customFormat="1" ht="27.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B13" s="13" t="s">
         <v>19</v>
       </c>

--- a/ATV_Allowance/Templates/TemplatePTTT.xlsx
+++ b/ATV_Allowance/Templates/TemplatePTTT.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="164011"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\job\ATV-Allowance\ATV-Allowance\ATV_Allowance\Templates\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15576" windowHeight="7020" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15570" windowHeight="7020" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="PV" sheetId="1" r:id="rId1"/>
@@ -133,10 +138,10 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="2">
-    <numFmt numFmtId="164" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="165" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="41" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
   <fonts count="12" x14ac:knownFonts="1">
     <font>
@@ -332,7 +337,7 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -369,14 +374,14 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="41" fontId="3" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="41" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -389,7 +394,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="41" fontId="3" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -404,7 +409,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="41" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -416,7 +421,7 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="41" fontId="5" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -431,7 +436,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="41" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -735,7 +740,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -749,35 +754,35 @@
   <dimension ref="A1:T13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C3" sqref="C3:C4"/>
+      <selection activeCell="Q5" activeCellId="6" sqref="E1:E1048576 G1:G1048576 I1:I1048576 K1:K1048576 M1:M1048576 O1:O1048576 Q1:Q1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="21" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="20.25" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="5.6640625" style="2" customWidth="1"/>
+    <col min="1" max="1" width="5.7109375" style="2" customWidth="1"/>
     <col min="2" max="2" width="30" style="2" customWidth="1"/>
-    <col min="3" max="3" width="38.88671875" style="2" customWidth="1"/>
-    <col min="4" max="4" width="4.21875" style="7" customWidth="1"/>
-    <col min="5" max="5" width="6.77734375" style="7" customWidth="1"/>
-    <col min="6" max="6" width="4.21875" style="7" customWidth="1"/>
-    <col min="7" max="7" width="6.77734375" style="7" customWidth="1"/>
-    <col min="8" max="8" width="4.21875" style="7" customWidth="1"/>
-    <col min="9" max="9" width="6.77734375" style="7" customWidth="1"/>
-    <col min="10" max="10" width="4.21875" style="7" customWidth="1"/>
-    <col min="11" max="11" width="6.77734375" style="7" customWidth="1"/>
-    <col min="12" max="12" width="4.21875" style="7" customWidth="1"/>
-    <col min="13" max="13" width="6.77734375" style="7" customWidth="1"/>
-    <col min="14" max="14" width="4.21875" style="7" customWidth="1"/>
-    <col min="15" max="15" width="6.77734375" style="7" customWidth="1"/>
-    <col min="16" max="16" width="6.6640625" style="7" customWidth="1"/>
-    <col min="17" max="17" width="7.21875" style="2" customWidth="1"/>
-    <col min="18" max="18" width="7.6640625" style="2" customWidth="1"/>
-    <col min="19" max="19" width="20.6640625" style="17" customWidth="1"/>
-    <col min="20" max="20" width="11.21875" style="2" customWidth="1"/>
-    <col min="21" max="16384" width="9.109375" style="2"/>
+    <col min="3" max="3" width="38.85546875" style="2" customWidth="1"/>
+    <col min="4" max="4" width="4.28515625" style="7" customWidth="1"/>
+    <col min="5" max="5" width="9.28515625" style="7" customWidth="1"/>
+    <col min="6" max="6" width="4.28515625" style="7" customWidth="1"/>
+    <col min="7" max="7" width="9.28515625" style="7" customWidth="1"/>
+    <col min="8" max="8" width="4.28515625" style="7" customWidth="1"/>
+    <col min="9" max="9" width="9.28515625" style="7" customWidth="1"/>
+    <col min="10" max="10" width="4.28515625" style="7" customWidth="1"/>
+    <col min="11" max="11" width="9.28515625" style="7" customWidth="1"/>
+    <col min="12" max="12" width="4.28515625" style="7" customWidth="1"/>
+    <col min="13" max="13" width="9.28515625" style="7" customWidth="1"/>
+    <col min="14" max="14" width="4.28515625" style="7" customWidth="1"/>
+    <col min="15" max="15" width="9.28515625" style="7" customWidth="1"/>
+    <col min="16" max="16" width="6.7109375" style="7" customWidth="1"/>
+    <col min="17" max="17" width="9.28515625" style="2" customWidth="1"/>
+    <col min="18" max="18" width="10.7109375" style="2" customWidth="1"/>
+    <col min="19" max="19" width="20.7109375" style="17" customWidth="1"/>
+    <col min="20" max="20" width="11.28515625" style="2" customWidth="1"/>
+    <col min="21" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:20" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="30" t="s">
         <v>0</v>
       </c>
@@ -801,7 +806,7 @@
       <c r="S1" s="30"/>
       <c r="T1" s="30"/>
     </row>
-    <row r="2" spans="1:20" ht="35.25" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:20" ht="35.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="29" t="s">
         <v>27</v>
       </c>
@@ -825,7 +830,7 @@
       <c r="S2" s="29"/>
       <c r="T2" s="29"/>
     </row>
-    <row r="3" spans="1:20" s="8" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:20" s="8" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="28" t="s">
         <v>1</v>
       </c>
@@ -875,7 +880,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="4" spans="1:20" s="8" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:20" s="8" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="28"/>
       <c r="B4" s="28"/>
       <c r="C4" s="28"/>
@@ -921,7 +926,7 @@
       <c r="S4" s="31"/>
       <c r="T4" s="28"/>
     </row>
-    <row r="5" spans="1:20" s="18" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:20" s="18" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="4"/>
       <c r="B5" s="5"/>
       <c r="C5" s="5"/>
@@ -943,7 +948,7 @@
       <c r="S5" s="14"/>
       <c r="T5" s="3"/>
     </row>
-    <row r="6" spans="1:20" s="18" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:20" s="18" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="19"/>
       <c r="B6" s="34" t="s">
         <v>16</v>
@@ -967,7 +972,7 @@
       <c r="S6" s="22"/>
       <c r="T6" s="23"/>
     </row>
-    <row r="7" spans="1:20" s="18" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:20" s="18" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="24"/>
       <c r="B7" s="25"/>
       <c r="C7" s="25"/>
@@ -989,7 +994,7 @@
       <c r="S7" s="27"/>
       <c r="T7" s="24"/>
     </row>
-    <row r="8" spans="1:20" s="18" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:20" s="18" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="35" t="s">
         <v>24</v>
       </c>
@@ -1013,7 +1018,7 @@
       <c r="S8" s="36"/>
       <c r="T8" s="23"/>
     </row>
-    <row r="9" spans="1:20" s="18" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:20" s="18" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="35" t="s">
         <v>25</v>
       </c>
@@ -1037,7 +1042,7 @@
       <c r="S9" s="36"/>
       <c r="T9" s="23"/>
     </row>
-    <row r="10" spans="1:20" s="18" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:20" s="18" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="35" t="s">
         <v>26</v>
       </c>
@@ -1061,13 +1066,13 @@
       <c r="S10" s="36"/>
       <c r="T10" s="24"/>
     </row>
-    <row r="11" spans="1:20" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:20" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="S11" s="15"/>
       <c r="T11" s="10" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="12" spans="1:20" ht="25.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:20" ht="25.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="D12" s="2"/>
       <c r="E12" s="2"/>
       <c r="F12" s="2"/>
@@ -1086,7 +1091,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="13" spans="1:20" s="12" customFormat="1" ht="27.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:20" s="12" customFormat="1" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B13" s="13" t="s">
         <v>19</v>
       </c>
@@ -1139,35 +1144,35 @@
   <dimension ref="A1:T13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3:C4"/>
+      <selection activeCell="Q5" sqref="Q1:Q1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="21" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="20.25" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="5.6640625" style="2" customWidth="1"/>
+    <col min="1" max="1" width="5.7109375" style="2" customWidth="1"/>
     <col min="2" max="2" width="30" style="2" customWidth="1"/>
-    <col min="3" max="3" width="38.88671875" style="2" customWidth="1"/>
-    <col min="4" max="4" width="4.21875" style="7" customWidth="1"/>
-    <col min="5" max="5" width="6.77734375" style="7" customWidth="1"/>
-    <col min="6" max="6" width="4.21875" style="7" customWidth="1"/>
-    <col min="7" max="7" width="6.77734375" style="7" customWidth="1"/>
-    <col min="8" max="8" width="4.21875" style="7" customWidth="1"/>
-    <col min="9" max="9" width="6.77734375" style="7" customWidth="1"/>
-    <col min="10" max="10" width="4.21875" style="7" customWidth="1"/>
-    <col min="11" max="11" width="6.77734375" style="7" customWidth="1"/>
-    <col min="12" max="12" width="4.21875" style="7" customWidth="1"/>
-    <col min="13" max="13" width="6.77734375" style="7" customWidth="1"/>
-    <col min="14" max="14" width="4.21875" style="7" customWidth="1"/>
-    <col min="15" max="15" width="6.77734375" style="7" customWidth="1"/>
-    <col min="16" max="16" width="6.6640625" style="7" customWidth="1"/>
-    <col min="17" max="17" width="7.21875" style="2" customWidth="1"/>
-    <col min="18" max="18" width="7.6640625" style="2" customWidth="1"/>
-    <col min="19" max="19" width="20.6640625" style="17" customWidth="1"/>
-    <col min="20" max="20" width="11.21875" style="2" customWidth="1"/>
-    <col min="21" max="16384" width="9.109375" style="2"/>
+    <col min="3" max="3" width="38.85546875" style="2" customWidth="1"/>
+    <col min="4" max="4" width="4.28515625" style="7" customWidth="1"/>
+    <col min="5" max="5" width="9.28515625" style="7" customWidth="1"/>
+    <col min="6" max="6" width="4.28515625" style="7" customWidth="1"/>
+    <col min="7" max="7" width="9.28515625" style="7" customWidth="1"/>
+    <col min="8" max="8" width="4.28515625" style="7" customWidth="1"/>
+    <col min="9" max="9" width="9.28515625" style="7" customWidth="1"/>
+    <col min="10" max="10" width="4.28515625" style="7" customWidth="1"/>
+    <col min="11" max="11" width="9.28515625" style="7" customWidth="1"/>
+    <col min="12" max="12" width="4.28515625" style="7" customWidth="1"/>
+    <col min="13" max="13" width="9.28515625" style="7" customWidth="1"/>
+    <col min="14" max="14" width="4.28515625" style="7" customWidth="1"/>
+    <col min="15" max="15" width="9.28515625" style="7" customWidth="1"/>
+    <col min="16" max="16" width="6.7109375" style="7" customWidth="1"/>
+    <col min="17" max="17" width="9.28515625" style="2" customWidth="1"/>
+    <col min="18" max="18" width="10.7109375" style="2" customWidth="1"/>
+    <col min="19" max="19" width="20.7109375" style="17" customWidth="1"/>
+    <col min="20" max="20" width="11.28515625" style="2" customWidth="1"/>
+    <col min="21" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:20" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="30" t="s">
         <v>0</v>
       </c>
@@ -1191,7 +1196,7 @@
       <c r="S1" s="30"/>
       <c r="T1" s="30"/>
     </row>
-    <row r="2" spans="1:20" ht="35.25" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:20" ht="35.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="29" t="s">
         <v>27</v>
       </c>
@@ -1215,7 +1220,7 @@
       <c r="S2" s="29"/>
       <c r="T2" s="29"/>
     </row>
-    <row r="3" spans="1:20" s="8" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:20" s="8" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="28" t="s">
         <v>1</v>
       </c>
@@ -1265,7 +1270,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="4" spans="1:20" s="8" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:20" s="8" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="28"/>
       <c r="B4" s="28"/>
       <c r="C4" s="28"/>
@@ -1311,7 +1316,7 @@
       <c r="S4" s="31"/>
       <c r="T4" s="28"/>
     </row>
-    <row r="5" spans="1:20" s="18" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:20" s="18" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="4"/>
       <c r="B5" s="5"/>
       <c r="C5" s="5"/>
@@ -1333,7 +1338,7 @@
       <c r="S5" s="14"/>
       <c r="T5" s="3"/>
     </row>
-    <row r="6" spans="1:20" s="18" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:20" s="18" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="19"/>
       <c r="B6" s="34" t="s">
         <v>16</v>
@@ -1357,7 +1362,7 @@
       <c r="S6" s="22"/>
       <c r="T6" s="23"/>
     </row>
-    <row r="7" spans="1:20" s="18" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:20" s="18" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="24"/>
       <c r="B7" s="25"/>
       <c r="C7" s="25"/>
@@ -1379,7 +1384,7 @@
       <c r="S7" s="27"/>
       <c r="T7" s="24"/>
     </row>
-    <row r="8" spans="1:20" s="18" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:20" s="18" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="35" t="s">
         <v>24</v>
       </c>
@@ -1403,7 +1408,7 @@
       <c r="S8" s="36"/>
       <c r="T8" s="23"/>
     </row>
-    <row r="9" spans="1:20" s="18" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:20" s="18" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="35" t="s">
         <v>25</v>
       </c>
@@ -1427,7 +1432,7 @@
       <c r="S9" s="36"/>
       <c r="T9" s="23"/>
     </row>
-    <row r="10" spans="1:20" s="18" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:20" s="18" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="35" t="s">
         <v>26</v>
       </c>
@@ -1451,13 +1456,13 @@
       <c r="S10" s="36"/>
       <c r="T10" s="24"/>
     </row>
-    <row r="11" spans="1:20" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:20" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="S11" s="15"/>
       <c r="T11" s="10" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="12" spans="1:20" ht="25.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:20" ht="25.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="D12" s="2"/>
       <c r="E12" s="2"/>
       <c r="F12" s="2"/>
@@ -1476,7 +1481,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="13" spans="1:20" s="12" customFormat="1" ht="27.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:20" s="12" customFormat="1" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B13" s="13" t="s">
         <v>19</v>
       </c>

--- a/ATV_Allowance/Templates/TemplatePTTT.xlsx
+++ b/ATV_Allowance/Templates/TemplatePTTT.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15570" windowHeight="7020" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15570" windowHeight="7020"/>
   </bookViews>
   <sheets>
     <sheet name="PV" sheetId="1" r:id="rId1"/>
@@ -339,7 +339,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="37">
+  <cellXfs count="38">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
@@ -415,6 +415,18 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -429,15 +441,6 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -753,8 +756,8 @@
   </sheetPr>
   <dimension ref="A1:T13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="Q5" activeCellId="6" sqref="E1:E1048576 G1:G1048576 I1:I1048576 K1:K1048576 M1:M1048576 O1:O1048576 Q1:Q1048576"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="20.25" x14ac:dyDescent="0.3"/>
@@ -783,150 +786,150 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:20" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="30" t="s">
+      <c r="A1" s="34" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="30"/>
-      <c r="C1" s="30"/>
-      <c r="D1" s="30"/>
-      <c r="E1" s="30"/>
-      <c r="F1" s="30"/>
-      <c r="G1" s="30"/>
-      <c r="H1" s="30"/>
-      <c r="I1" s="30"/>
-      <c r="J1" s="30"/>
-      <c r="K1" s="30"/>
-      <c r="L1" s="30"/>
-      <c r="M1" s="30"/>
-      <c r="N1" s="30"/>
-      <c r="O1" s="30"/>
-      <c r="P1" s="30"/>
-      <c r="Q1" s="30"/>
-      <c r="R1" s="30"/>
-      <c r="S1" s="30"/>
-      <c r="T1" s="30"/>
+      <c r="B1" s="34"/>
+      <c r="C1" s="34"/>
+      <c r="D1" s="34"/>
+      <c r="E1" s="34"/>
+      <c r="F1" s="34"/>
+      <c r="G1" s="34"/>
+      <c r="H1" s="34"/>
+      <c r="I1" s="34"/>
+      <c r="J1" s="34"/>
+      <c r="K1" s="34"/>
+      <c r="L1" s="34"/>
+      <c r="M1" s="34"/>
+      <c r="N1" s="34"/>
+      <c r="O1" s="34"/>
+      <c r="P1" s="34"/>
+      <c r="Q1" s="34"/>
+      <c r="R1" s="34"/>
+      <c r="S1" s="34"/>
+      <c r="T1" s="34"/>
     </row>
     <row r="2" spans="1:20" ht="35.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="29" t="s">
+      <c r="A2" s="33" t="s">
         <v>27</v>
       </c>
-      <c r="B2" s="29"/>
-      <c r="C2" s="29"/>
-      <c r="D2" s="29"/>
-      <c r="E2" s="29"/>
-      <c r="F2" s="29"/>
-      <c r="G2" s="29"/>
-      <c r="H2" s="29"/>
-      <c r="I2" s="29"/>
-      <c r="J2" s="29"/>
-      <c r="K2" s="29"/>
-      <c r="L2" s="29"/>
-      <c r="M2" s="29"/>
-      <c r="N2" s="29"/>
-      <c r="O2" s="29"/>
-      <c r="P2" s="29"/>
-      <c r="Q2" s="29"/>
-      <c r="R2" s="29"/>
-      <c r="S2" s="29"/>
-      <c r="T2" s="29"/>
+      <c r="B2" s="33"/>
+      <c r="C2" s="33"/>
+      <c r="D2" s="33"/>
+      <c r="E2" s="33"/>
+      <c r="F2" s="33"/>
+      <c r="G2" s="33"/>
+      <c r="H2" s="33"/>
+      <c r="I2" s="33"/>
+      <c r="J2" s="33"/>
+      <c r="K2" s="33"/>
+      <c r="L2" s="33"/>
+      <c r="M2" s="33"/>
+      <c r="N2" s="33"/>
+      <c r="O2" s="33"/>
+      <c r="P2" s="33"/>
+      <c r="Q2" s="33"/>
+      <c r="R2" s="33"/>
+      <c r="S2" s="33"/>
+      <c r="T2" s="33"/>
     </row>
     <row r="3" spans="1:20" s="8" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="28" t="s">
+      <c r="A3" s="32" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="28" t="s">
+      <c r="B3" s="32" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="28" t="s">
+      <c r="C3" s="32" t="s">
         <v>3</v>
       </c>
-      <c r="D3" s="28" t="s">
+      <c r="D3" s="32" t="s">
         <v>4</v>
       </c>
-      <c r="E3" s="28"/>
-      <c r="F3" s="28" t="s">
+      <c r="E3" s="32"/>
+      <c r="F3" s="32" t="s">
         <v>5</v>
       </c>
-      <c r="G3" s="28"/>
-      <c r="H3" s="28" t="s">
+      <c r="G3" s="32"/>
+      <c r="H3" s="32" t="s">
         <v>6</v>
       </c>
-      <c r="I3" s="28"/>
-      <c r="J3" s="28" t="s">
+      <c r="I3" s="32"/>
+      <c r="J3" s="32" t="s">
         <v>7</v>
       </c>
-      <c r="K3" s="28"/>
-      <c r="L3" s="28" t="s">
+      <c r="K3" s="32"/>
+      <c r="L3" s="32" t="s">
         <v>8</v>
       </c>
-      <c r="M3" s="28"/>
-      <c r="N3" s="28" t="s">
+      <c r="M3" s="32"/>
+      <c r="N3" s="32" t="s">
         <v>9</v>
       </c>
-      <c r="O3" s="28"/>
-      <c r="P3" s="32" t="s">
+      <c r="O3" s="32"/>
+      <c r="P3" s="36" t="s">
         <v>23</v>
       </c>
-      <c r="Q3" s="28" t="s">
+      <c r="Q3" s="32" t="s">
         <v>10</v>
       </c>
-      <c r="R3" s="28" t="s">
+      <c r="R3" s="32" t="s">
         <v>11</v>
       </c>
-      <c r="S3" s="31" t="s">
+      <c r="S3" s="35" t="s">
         <v>12</v>
       </c>
-      <c r="T3" s="28" t="s">
+      <c r="T3" s="32" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="4" spans="1:20" s="8" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="28"/>
-      <c r="B4" s="28"/>
-      <c r="C4" s="28"/>
-      <c r="D4" s="9" t="s">
+      <c r="A4" s="32"/>
+      <c r="B4" s="32"/>
+      <c r="C4" s="32"/>
+      <c r="D4" s="28" t="s">
         <v>14</v>
       </c>
-      <c r="E4" s="9" t="s">
+      <c r="E4" s="28" t="s">
         <v>15</v>
       </c>
-      <c r="F4" s="9" t="s">
+      <c r="F4" s="28" t="s">
         <v>14</v>
       </c>
-      <c r="G4" s="9" t="s">
+      <c r="G4" s="28" t="s">
         <v>15</v>
       </c>
-      <c r="H4" s="9" t="s">
+      <c r="H4" s="28" t="s">
         <v>14</v>
       </c>
-      <c r="I4" s="9" t="s">
+      <c r="I4" s="28" t="s">
         <v>15</v>
       </c>
-      <c r="J4" s="9" t="s">
+      <c r="J4" s="28" t="s">
         <v>14</v>
       </c>
-      <c r="K4" s="9" t="s">
+      <c r="K4" s="28" t="s">
         <v>15</v>
       </c>
-      <c r="L4" s="9" t="s">
+      <c r="L4" s="28" t="s">
         <v>14</v>
       </c>
-      <c r="M4" s="9" t="s">
+      <c r="M4" s="28" t="s">
         <v>15</v>
       </c>
-      <c r="N4" s="9" t="s">
+      <c r="N4" s="28" t="s">
         <v>14</v>
       </c>
-      <c r="O4" s="9" t="s">
+      <c r="O4" s="28" t="s">
         <v>15</v>
       </c>
-      <c r="P4" s="33"/>
-      <c r="Q4" s="28"/>
-      <c r="R4" s="28"/>
-      <c r="S4" s="31"/>
-      <c r="T4" s="28"/>
-    </row>
-    <row r="5" spans="1:20" s="18" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P4" s="37"/>
+      <c r="Q4" s="32"/>
+      <c r="R4" s="32"/>
+      <c r="S4" s="35"/>
+      <c r="T4" s="32"/>
+    </row>
+    <row r="5" spans="1:20" s="18" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="4"/>
       <c r="B5" s="5"/>
       <c r="C5" s="5"/>
@@ -948,12 +951,12 @@
       <c r="S5" s="14"/>
       <c r="T5" s="3"/>
     </row>
-    <row r="6" spans="1:20" s="18" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:20" s="18" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="19"/>
-      <c r="B6" s="34" t="s">
+      <c r="B6" s="29" t="s">
         <v>16</v>
       </c>
-      <c r="C6" s="34"/>
+      <c r="C6" s="29"/>
       <c r="D6" s="20"/>
       <c r="E6" s="20"/>
       <c r="F6" s="20"/>
@@ -972,7 +975,7 @@
       <c r="S6" s="22"/>
       <c r="T6" s="23"/>
     </row>
-    <row r="7" spans="1:20" s="18" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:20" s="18" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="24"/>
       <c r="B7" s="25"/>
       <c r="C7" s="25"/>
@@ -994,85 +997,85 @@
       <c r="S7" s="27"/>
       <c r="T7" s="24"/>
     </row>
-    <row r="8" spans="1:20" s="18" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="35" t="s">
+    <row r="8" spans="1:20" s="18" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="30" t="s">
         <v>24</v>
       </c>
-      <c r="B8" s="35"/>
-      <c r="C8" s="35"/>
-      <c r="D8" s="35"/>
-      <c r="E8" s="35"/>
-      <c r="F8" s="35"/>
-      <c r="G8" s="35"/>
-      <c r="H8" s="35"/>
-      <c r="I8" s="35"/>
-      <c r="J8" s="35"/>
-      <c r="K8" s="35"/>
-      <c r="L8" s="35"/>
-      <c r="M8" s="35"/>
-      <c r="N8" s="35"/>
-      <c r="O8" s="35"/>
-      <c r="P8" s="35"/>
-      <c r="Q8" s="35"/>
-      <c r="R8" s="36"/>
-      <c r="S8" s="36"/>
+      <c r="B8" s="30"/>
+      <c r="C8" s="30"/>
+      <c r="D8" s="30"/>
+      <c r="E8" s="30"/>
+      <c r="F8" s="30"/>
+      <c r="G8" s="30"/>
+      <c r="H8" s="30"/>
+      <c r="I8" s="30"/>
+      <c r="J8" s="30"/>
+      <c r="K8" s="30"/>
+      <c r="L8" s="30"/>
+      <c r="M8" s="30"/>
+      <c r="N8" s="30"/>
+      <c r="O8" s="30"/>
+      <c r="P8" s="30"/>
+      <c r="Q8" s="30"/>
+      <c r="R8" s="31"/>
+      <c r="S8" s="31"/>
       <c r="T8" s="23"/>
     </row>
-    <row r="9" spans="1:20" s="18" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="35" t="s">
+    <row r="9" spans="1:20" s="18" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="30" t="s">
         <v>25</v>
       </c>
-      <c r="B9" s="35"/>
-      <c r="C9" s="35"/>
-      <c r="D9" s="35"/>
-      <c r="E9" s="35"/>
-      <c r="F9" s="35"/>
-      <c r="G9" s="35"/>
-      <c r="H9" s="35"/>
-      <c r="I9" s="35"/>
-      <c r="J9" s="35"/>
-      <c r="K9" s="35"/>
-      <c r="L9" s="35"/>
-      <c r="M9" s="35"/>
-      <c r="N9" s="35"/>
-      <c r="O9" s="35"/>
-      <c r="P9" s="35"/>
-      <c r="Q9" s="35"/>
-      <c r="R9" s="36"/>
-      <c r="S9" s="36"/>
+      <c r="B9" s="30"/>
+      <c r="C9" s="30"/>
+      <c r="D9" s="30"/>
+      <c r="E9" s="30"/>
+      <c r="F9" s="30"/>
+      <c r="G9" s="30"/>
+      <c r="H9" s="30"/>
+      <c r="I9" s="30"/>
+      <c r="J9" s="30"/>
+      <c r="K9" s="30"/>
+      <c r="L9" s="30"/>
+      <c r="M9" s="30"/>
+      <c r="N9" s="30"/>
+      <c r="O9" s="30"/>
+      <c r="P9" s="30"/>
+      <c r="Q9" s="30"/>
+      <c r="R9" s="31"/>
+      <c r="S9" s="31"/>
       <c r="T9" s="23"/>
     </row>
-    <row r="10" spans="1:20" s="18" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="35" t="s">
+    <row r="10" spans="1:20" s="18" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="30" t="s">
         <v>26</v>
       </c>
-      <c r="B10" s="35"/>
-      <c r="C10" s="35"/>
-      <c r="D10" s="35"/>
-      <c r="E10" s="35"/>
-      <c r="F10" s="35"/>
-      <c r="G10" s="35"/>
-      <c r="H10" s="35"/>
-      <c r="I10" s="35"/>
-      <c r="J10" s="35"/>
-      <c r="K10" s="35"/>
-      <c r="L10" s="35"/>
-      <c r="M10" s="35"/>
-      <c r="N10" s="35"/>
-      <c r="O10" s="35"/>
-      <c r="P10" s="35"/>
-      <c r="Q10" s="35"/>
-      <c r="R10" s="36"/>
-      <c r="S10" s="36"/>
+      <c r="B10" s="30"/>
+      <c r="C10" s="30"/>
+      <c r="D10" s="30"/>
+      <c r="E10" s="30"/>
+      <c r="F10" s="30"/>
+      <c r="G10" s="30"/>
+      <c r="H10" s="30"/>
+      <c r="I10" s="30"/>
+      <c r="J10" s="30"/>
+      <c r="K10" s="30"/>
+      <c r="L10" s="30"/>
+      <c r="M10" s="30"/>
+      <c r="N10" s="30"/>
+      <c r="O10" s="30"/>
+      <c r="P10" s="30"/>
+      <c r="Q10" s="30"/>
+      <c r="R10" s="31"/>
+      <c r="S10" s="31"/>
       <c r="T10" s="24"/>
     </row>
-    <row r="11" spans="1:20" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:20" s="1" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="S11" s="15"/>
       <c r="T11" s="10" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="12" spans="1:20" ht="25.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:20" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.35">
       <c r="D12" s="2"/>
       <c r="E12" s="2"/>
       <c r="F12" s="2"/>
@@ -1091,7 +1094,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="13" spans="1:20" s="12" customFormat="1" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:20" s="12" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B13" s="13" t="s">
         <v>19</v>
       </c>
@@ -1107,13 +1110,6 @@
     </row>
   </sheetData>
   <mergeCells count="23">
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="A8:Q8"/>
-    <mergeCell ref="A9:Q9"/>
-    <mergeCell ref="A10:Q10"/>
-    <mergeCell ref="R8:S8"/>
-    <mergeCell ref="R9:S9"/>
-    <mergeCell ref="R10:S10"/>
     <mergeCell ref="T3:T4"/>
     <mergeCell ref="A2:T2"/>
     <mergeCell ref="A1:T1"/>
@@ -1130,6 +1126,13 @@
     <mergeCell ref="F3:G3"/>
     <mergeCell ref="H3:I3"/>
     <mergeCell ref="P3:P4"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="A8:Q8"/>
+    <mergeCell ref="A9:Q9"/>
+    <mergeCell ref="A10:Q10"/>
+    <mergeCell ref="R8:S8"/>
+    <mergeCell ref="R9:S9"/>
+    <mergeCell ref="R10:S10"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup scale="65" fitToHeight="0" orientation="landscape" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
@@ -1143,11 +1146,11 @@
   </sheetPr>
   <dimension ref="A1:T13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Q5" sqref="Q1:Q1048576"/>
+    <sheetView topLeftCell="C1" workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="20.25" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="39.950000000000003" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="5.7109375" style="2" customWidth="1"/>
     <col min="2" max="2" width="30" style="2" customWidth="1"/>
@@ -1173,107 +1176,107 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:20" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="30" t="s">
+      <c r="A1" s="34" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="30"/>
-      <c r="C1" s="30"/>
-      <c r="D1" s="30"/>
-      <c r="E1" s="30"/>
-      <c r="F1" s="30"/>
-      <c r="G1" s="30"/>
-      <c r="H1" s="30"/>
-      <c r="I1" s="30"/>
-      <c r="J1" s="30"/>
-      <c r="K1" s="30"/>
-      <c r="L1" s="30"/>
-      <c r="M1" s="30"/>
-      <c r="N1" s="30"/>
-      <c r="O1" s="30"/>
-      <c r="P1" s="30"/>
-      <c r="Q1" s="30"/>
-      <c r="R1" s="30"/>
-      <c r="S1" s="30"/>
-      <c r="T1" s="30"/>
+      <c r="B1" s="34"/>
+      <c r="C1" s="34"/>
+      <c r="D1" s="34"/>
+      <c r="E1" s="34"/>
+      <c r="F1" s="34"/>
+      <c r="G1" s="34"/>
+      <c r="H1" s="34"/>
+      <c r="I1" s="34"/>
+      <c r="J1" s="34"/>
+      <c r="K1" s="34"/>
+      <c r="L1" s="34"/>
+      <c r="M1" s="34"/>
+      <c r="N1" s="34"/>
+      <c r="O1" s="34"/>
+      <c r="P1" s="34"/>
+      <c r="Q1" s="34"/>
+      <c r="R1" s="34"/>
+      <c r="S1" s="34"/>
+      <c r="T1" s="34"/>
     </row>
     <row r="2" spans="1:20" ht="35.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="29" t="s">
+      <c r="A2" s="33" t="s">
         <v>27</v>
       </c>
-      <c r="B2" s="29"/>
-      <c r="C2" s="29"/>
-      <c r="D2" s="29"/>
-      <c r="E2" s="29"/>
-      <c r="F2" s="29"/>
-      <c r="G2" s="29"/>
-      <c r="H2" s="29"/>
-      <c r="I2" s="29"/>
-      <c r="J2" s="29"/>
-      <c r="K2" s="29"/>
-      <c r="L2" s="29"/>
-      <c r="M2" s="29"/>
-      <c r="N2" s="29"/>
-      <c r="O2" s="29"/>
-      <c r="P2" s="29"/>
-      <c r="Q2" s="29"/>
-      <c r="R2" s="29"/>
-      <c r="S2" s="29"/>
-      <c r="T2" s="29"/>
+      <c r="B2" s="33"/>
+      <c r="C2" s="33"/>
+      <c r="D2" s="33"/>
+      <c r="E2" s="33"/>
+      <c r="F2" s="33"/>
+      <c r="G2" s="33"/>
+      <c r="H2" s="33"/>
+      <c r="I2" s="33"/>
+      <c r="J2" s="33"/>
+      <c r="K2" s="33"/>
+      <c r="L2" s="33"/>
+      <c r="M2" s="33"/>
+      <c r="N2" s="33"/>
+      <c r="O2" s="33"/>
+      <c r="P2" s="33"/>
+      <c r="Q2" s="33"/>
+      <c r="R2" s="33"/>
+      <c r="S2" s="33"/>
+      <c r="T2" s="33"/>
     </row>
     <row r="3" spans="1:20" s="8" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="28" t="s">
+      <c r="A3" s="32" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="28" t="s">
+      <c r="B3" s="32" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="28" t="s">
+      <c r="C3" s="32" t="s">
         <v>3</v>
       </c>
-      <c r="D3" s="28" t="s">
+      <c r="D3" s="32" t="s">
         <v>4</v>
       </c>
-      <c r="E3" s="28"/>
-      <c r="F3" s="28" t="s">
+      <c r="E3" s="32"/>
+      <c r="F3" s="32" t="s">
         <v>5</v>
       </c>
-      <c r="G3" s="28"/>
-      <c r="H3" s="28" t="s">
+      <c r="G3" s="32"/>
+      <c r="H3" s="32" t="s">
         <v>6</v>
       </c>
-      <c r="I3" s="28"/>
-      <c r="J3" s="28" t="s">
+      <c r="I3" s="32"/>
+      <c r="J3" s="32" t="s">
         <v>7</v>
       </c>
-      <c r="K3" s="28"/>
-      <c r="L3" s="28" t="s">
+      <c r="K3" s="32"/>
+      <c r="L3" s="32" t="s">
         <v>8</v>
       </c>
-      <c r="M3" s="28"/>
-      <c r="N3" s="28" t="s">
+      <c r="M3" s="32"/>
+      <c r="N3" s="32" t="s">
         <v>9</v>
       </c>
-      <c r="O3" s="28"/>
-      <c r="P3" s="32" t="s">
+      <c r="O3" s="32"/>
+      <c r="P3" s="36" t="s">
         <v>23</v>
       </c>
-      <c r="Q3" s="28" t="s">
+      <c r="Q3" s="32" t="s">
         <v>10</v>
       </c>
-      <c r="R3" s="28" t="s">
+      <c r="R3" s="32" t="s">
         <v>11</v>
       </c>
-      <c r="S3" s="31" t="s">
+      <c r="S3" s="35" t="s">
         <v>12</v>
       </c>
-      <c r="T3" s="28" t="s">
+      <c r="T3" s="32" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="4" spans="1:20" s="8" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="28"/>
-      <c r="B4" s="28"/>
-      <c r="C4" s="28"/>
+      <c r="A4" s="32"/>
+      <c r="B4" s="32"/>
+      <c r="C4" s="32"/>
       <c r="D4" s="9" t="s">
         <v>14</v>
       </c>
@@ -1310,13 +1313,13 @@
       <c r="O4" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="P4" s="33"/>
-      <c r="Q4" s="28"/>
-      <c r="R4" s="28"/>
-      <c r="S4" s="31"/>
-      <c r="T4" s="28"/>
-    </row>
-    <row r="5" spans="1:20" s="18" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P4" s="37"/>
+      <c r="Q4" s="32"/>
+      <c r="R4" s="32"/>
+      <c r="S4" s="35"/>
+      <c r="T4" s="32"/>
+    </row>
+    <row r="5" spans="1:20" s="18" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="4"/>
       <c r="B5" s="5"/>
       <c r="C5" s="5"/>
@@ -1338,12 +1341,12 @@
       <c r="S5" s="14"/>
       <c r="T5" s="3"/>
     </row>
-    <row r="6" spans="1:20" s="18" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:20" s="18" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="19"/>
-      <c r="B6" s="34" t="s">
+      <c r="B6" s="29" t="s">
         <v>16</v>
       </c>
-      <c r="C6" s="34"/>
+      <c r="C6" s="29"/>
       <c r="D6" s="20"/>
       <c r="E6" s="20"/>
       <c r="F6" s="20"/>
@@ -1362,7 +1365,7 @@
       <c r="S6" s="22"/>
       <c r="T6" s="23"/>
     </row>
-    <row r="7" spans="1:20" s="18" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:20" s="18" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="24"/>
       <c r="B7" s="25"/>
       <c r="C7" s="25"/>
@@ -1384,85 +1387,85 @@
       <c r="S7" s="27"/>
       <c r="T7" s="24"/>
     </row>
-    <row r="8" spans="1:20" s="18" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="35" t="s">
+    <row r="8" spans="1:20" s="18" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="30" t="s">
         <v>24</v>
       </c>
-      <c r="B8" s="35"/>
-      <c r="C8" s="35"/>
-      <c r="D8" s="35"/>
-      <c r="E8" s="35"/>
-      <c r="F8" s="35"/>
-      <c r="G8" s="35"/>
-      <c r="H8" s="35"/>
-      <c r="I8" s="35"/>
-      <c r="J8" s="35"/>
-      <c r="K8" s="35"/>
-      <c r="L8" s="35"/>
-      <c r="M8" s="35"/>
-      <c r="N8" s="35"/>
-      <c r="O8" s="35"/>
-      <c r="P8" s="35"/>
-      <c r="Q8" s="35"/>
-      <c r="R8" s="36"/>
-      <c r="S8" s="36"/>
+      <c r="B8" s="30"/>
+      <c r="C8" s="30"/>
+      <c r="D8" s="30"/>
+      <c r="E8" s="30"/>
+      <c r="F8" s="30"/>
+      <c r="G8" s="30"/>
+      <c r="H8" s="30"/>
+      <c r="I8" s="30"/>
+      <c r="J8" s="30"/>
+      <c r="K8" s="30"/>
+      <c r="L8" s="30"/>
+      <c r="M8" s="30"/>
+      <c r="N8" s="30"/>
+      <c r="O8" s="30"/>
+      <c r="P8" s="30"/>
+      <c r="Q8" s="30"/>
+      <c r="R8" s="31"/>
+      <c r="S8" s="31"/>
       <c r="T8" s="23"/>
     </row>
-    <row r="9" spans="1:20" s="18" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="35" t="s">
+    <row r="9" spans="1:20" s="18" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="30" t="s">
         <v>25</v>
       </c>
-      <c r="B9" s="35"/>
-      <c r="C9" s="35"/>
-      <c r="D9" s="35"/>
-      <c r="E9" s="35"/>
-      <c r="F9" s="35"/>
-      <c r="G9" s="35"/>
-      <c r="H9" s="35"/>
-      <c r="I9" s="35"/>
-      <c r="J9" s="35"/>
-      <c r="K9" s="35"/>
-      <c r="L9" s="35"/>
-      <c r="M9" s="35"/>
-      <c r="N9" s="35"/>
-      <c r="O9" s="35"/>
-      <c r="P9" s="35"/>
-      <c r="Q9" s="35"/>
-      <c r="R9" s="36"/>
-      <c r="S9" s="36"/>
+      <c r="B9" s="30"/>
+      <c r="C9" s="30"/>
+      <c r="D9" s="30"/>
+      <c r="E9" s="30"/>
+      <c r="F9" s="30"/>
+      <c r="G9" s="30"/>
+      <c r="H9" s="30"/>
+      <c r="I9" s="30"/>
+      <c r="J9" s="30"/>
+      <c r="K9" s="30"/>
+      <c r="L9" s="30"/>
+      <c r="M9" s="30"/>
+      <c r="N9" s="30"/>
+      <c r="O9" s="30"/>
+      <c r="P9" s="30"/>
+      <c r="Q9" s="30"/>
+      <c r="R9" s="31"/>
+      <c r="S9" s="31"/>
       <c r="T9" s="23"/>
     </row>
-    <row r="10" spans="1:20" s="18" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="35" t="s">
+    <row r="10" spans="1:20" s="18" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="30" t="s">
         <v>26</v>
       </c>
-      <c r="B10" s="35"/>
-      <c r="C10" s="35"/>
-      <c r="D10" s="35"/>
-      <c r="E10" s="35"/>
-      <c r="F10" s="35"/>
-      <c r="G10" s="35"/>
-      <c r="H10" s="35"/>
-      <c r="I10" s="35"/>
-      <c r="J10" s="35"/>
-      <c r="K10" s="35"/>
-      <c r="L10" s="35"/>
-      <c r="M10" s="35"/>
-      <c r="N10" s="35"/>
-      <c r="O10" s="35"/>
-      <c r="P10" s="35"/>
-      <c r="Q10" s="35"/>
-      <c r="R10" s="36"/>
-      <c r="S10" s="36"/>
+      <c r="B10" s="30"/>
+      <c r="C10" s="30"/>
+      <c r="D10" s="30"/>
+      <c r="E10" s="30"/>
+      <c r="F10" s="30"/>
+      <c r="G10" s="30"/>
+      <c r="H10" s="30"/>
+      <c r="I10" s="30"/>
+      <c r="J10" s="30"/>
+      <c r="K10" s="30"/>
+      <c r="L10" s="30"/>
+      <c r="M10" s="30"/>
+      <c r="N10" s="30"/>
+      <c r="O10" s="30"/>
+      <c r="P10" s="30"/>
+      <c r="Q10" s="30"/>
+      <c r="R10" s="31"/>
+      <c r="S10" s="31"/>
       <c r="T10" s="24"/>
     </row>
-    <row r="11" spans="1:20" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:20" s="1" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="S11" s="15"/>
       <c r="T11" s="10" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="12" spans="1:20" ht="25.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:20" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.35">
       <c r="D12" s="2"/>
       <c r="E12" s="2"/>
       <c r="F12" s="2"/>
@@ -1481,7 +1484,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="13" spans="1:20" s="12" customFormat="1" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:20" s="12" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B13" s="13" t="s">
         <v>19</v>
       </c>
@@ -1497,6 +1500,17 @@
     </row>
   </sheetData>
   <mergeCells count="23">
+    <mergeCell ref="T3:T4"/>
+    <mergeCell ref="A1:T1"/>
+    <mergeCell ref="A2:T2"/>
+    <mergeCell ref="A3:A4"/>
+    <mergeCell ref="B3:B4"/>
+    <mergeCell ref="C3:C4"/>
+    <mergeCell ref="D3:E3"/>
+    <mergeCell ref="F3:G3"/>
+    <mergeCell ref="H3:I3"/>
+    <mergeCell ref="J3:K3"/>
+    <mergeCell ref="L3:M3"/>
     <mergeCell ref="A10:Q10"/>
     <mergeCell ref="R10:S10"/>
     <mergeCell ref="N3:O3"/>
@@ -1509,17 +1523,6 @@
     <mergeCell ref="R8:S8"/>
     <mergeCell ref="A9:Q9"/>
     <mergeCell ref="R9:S9"/>
-    <mergeCell ref="T3:T4"/>
-    <mergeCell ref="A1:T1"/>
-    <mergeCell ref="A2:T2"/>
-    <mergeCell ref="A3:A4"/>
-    <mergeCell ref="B3:B4"/>
-    <mergeCell ref="C3:C4"/>
-    <mergeCell ref="D3:E3"/>
-    <mergeCell ref="F3:G3"/>
-    <mergeCell ref="H3:I3"/>
-    <mergeCell ref="J3:K3"/>
-    <mergeCell ref="L3:M3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup scale="85" fitToHeight="0" orientation="landscape" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
